--- a/data/nzd0260/nzd0260.xlsx
+++ b/data/nzd0260/nzd0260.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y315"/>
+  <dimension ref="A1:Y319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21863,10 +21863,18 @@
       <c r="H315" t="n">
         <v>375.1685714285715</v>
       </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="I315" t="n">
+        <v>373.3339130434783</v>
+      </c>
+      <c r="J315" t="n">
+        <v>374.36</v>
+      </c>
+      <c r="K315" t="n">
+        <v>379.54</v>
+      </c>
+      <c r="L315" t="n">
+        <v>381.14</v>
+      </c>
       <c r="M315" t="n">
         <v>343.9118181818182</v>
       </c>
@@ -21904,6 +21912,326 @@
         <v>342.3733333333333</v>
       </c>
       <c r="Y315" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>307.3305882352942</v>
+      </c>
+      <c r="C316" t="n">
+        <v>292.505</v>
+      </c>
+      <c r="D316" t="n">
+        <v>289.3305263157895</v>
+      </c>
+      <c r="E316" t="n">
+        <v>312.95</v>
+      </c>
+      <c r="F316" t="n">
+        <v>335.35</v>
+      </c>
+      <c r="G316" t="n">
+        <v>356.9081818181818</v>
+      </c>
+      <c r="H316" t="n">
+        <v>352.13</v>
+      </c>
+      <c r="I316" t="n">
+        <v>356.8882608695652</v>
+      </c>
+      <c r="J316" t="n">
+        <v>352.48</v>
+      </c>
+      <c r="K316" t="n">
+        <v>360.02</v>
+      </c>
+      <c r="L316" t="n">
+        <v>369.4</v>
+      </c>
+      <c r="M316" t="n">
+        <v>364.5481818181818</v>
+      </c>
+      <c r="N316" t="n">
+        <v>369.805</v>
+      </c>
+      <c r="O316" t="n">
+        <v>363.53</v>
+      </c>
+      <c r="P316" t="n">
+        <v>370.2566666666667</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>370.8781818181818</v>
+      </c>
+      <c r="R316" t="n">
+        <v>372.9381818181818</v>
+      </c>
+      <c r="S316" t="n">
+        <v>364.6881818181818</v>
+      </c>
+      <c r="T316" t="inlineStr"/>
+      <c r="U316" t="n">
+        <v>374.7181818181818</v>
+      </c>
+      <c r="V316" t="n">
+        <v>374.29</v>
+      </c>
+      <c r="W316" t="n">
+        <v>378.43</v>
+      </c>
+      <c r="X316" t="n">
+        <v>364.8566666666667</v>
+      </c>
+      <c r="Y316" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>311.0358823529411</v>
+      </c>
+      <c r="C317" t="n">
+        <v>287.52</v>
+      </c>
+      <c r="D317" t="n">
+        <v>273.6147368421053</v>
+      </c>
+      <c r="E317" t="n">
+        <v>290.7057142857143</v>
+      </c>
+      <c r="F317" t="n">
+        <v>325.77</v>
+      </c>
+      <c r="G317" t="n">
+        <v>347.5654545454545</v>
+      </c>
+      <c r="H317" t="n">
+        <v>331.6585714285715</v>
+      </c>
+      <c r="I317" t="n">
+        <v>331.8365217391304</v>
+      </c>
+      <c r="J317" t="n">
+        <v>313.69</v>
+      </c>
+      <c r="K317" t="n">
+        <v>320.36</v>
+      </c>
+      <c r="L317" t="n">
+        <v>336.11</v>
+      </c>
+      <c r="M317" t="n">
+        <v>356.0554545454545</v>
+      </c>
+      <c r="N317" t="n">
+        <v>356.27</v>
+      </c>
+      <c r="O317" t="n">
+        <v>351.13</v>
+      </c>
+      <c r="P317" t="n">
+        <v>362.0266666666667</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>357.6454545454546</v>
+      </c>
+      <c r="R317" t="n">
+        <v>348.3054545454545</v>
+      </c>
+      <c r="S317" t="n">
+        <v>354.7554545454545</v>
+      </c>
+      <c r="T317" t="n">
+        <v>359.28</v>
+      </c>
+      <c r="U317" t="n">
+        <v>361.3354545454546</v>
+      </c>
+      <c r="V317" t="n">
+        <v>353.89</v>
+      </c>
+      <c r="W317" t="n">
+        <v>365.1442857142857</v>
+      </c>
+      <c r="X317" t="n">
+        <v>363.2866666666667</v>
+      </c>
+      <c r="Y317" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>321.9617647058824</v>
+      </c>
+      <c r="C318" t="n">
+        <v>297.64</v>
+      </c>
+      <c r="D318" t="n">
+        <v>284.458947368421</v>
+      </c>
+      <c r="E318" t="n">
+        <v>301.6828571428572</v>
+      </c>
+      <c r="F318" t="n">
+        <v>331.1833333333333</v>
+      </c>
+      <c r="G318" t="n">
+        <v>353.3090909090909</v>
+      </c>
+      <c r="H318" t="n">
+        <v>353.6442857142857</v>
+      </c>
+      <c r="I318" t="n">
+        <v>358.338695652174</v>
+      </c>
+      <c r="J318" t="n">
+        <v>366.4933333333333</v>
+      </c>
+      <c r="K318" t="n">
+        <v>361.2433333333333</v>
+      </c>
+      <c r="L318" t="n">
+        <v>369.7833333333333</v>
+      </c>
+      <c r="M318" t="n">
+        <v>335.5990909090909</v>
+      </c>
+      <c r="N318" t="n">
+        <v>341.44</v>
+      </c>
+      <c r="O318" t="n">
+        <v>346.4166666666667</v>
+      </c>
+      <c r="P318" t="n">
+        <v>367.8888888888889</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>369.1690909090909</v>
+      </c>
+      <c r="R318" t="n">
+        <v>362.5190909090909</v>
+      </c>
+      <c r="S318" t="n">
+        <v>369.2090909090909</v>
+      </c>
+      <c r="T318" t="n">
+        <v>372.4966666666666</v>
+      </c>
+      <c r="U318" t="n">
+        <v>376.4590909090909</v>
+      </c>
+      <c r="V318" t="n">
+        <v>374.4266666666667</v>
+      </c>
+      <c r="W318" t="n">
+        <v>377.7004761904762</v>
+      </c>
+      <c r="X318" t="inlineStr"/>
+      <c r="Y318" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>305.3894117647059</v>
+      </c>
+      <c r="C319" t="n">
+        <v>281.85</v>
+      </c>
+      <c r="D319" t="n">
+        <v>269.2</v>
+      </c>
+      <c r="E319" t="n">
+        <v>284.5514285714286</v>
+      </c>
+      <c r="F319" t="n">
+        <v>329.4333333333333</v>
+      </c>
+      <c r="G319" t="n">
+        <v>338.680909090909</v>
+      </c>
+      <c r="H319" t="n">
+        <v>326.2271428571428</v>
+      </c>
+      <c r="I319" t="n">
+        <v>336.5469565217391</v>
+      </c>
+      <c r="J319" t="n">
+        <v>335.2433333333333</v>
+      </c>
+      <c r="K319" t="n">
+        <v>341.7033333333333</v>
+      </c>
+      <c r="L319" t="n">
+        <v>347.7333333333333</v>
+      </c>
+      <c r="M319" t="n">
+        <v>364.2809090909091</v>
+      </c>
+      <c r="N319" t="n">
+        <v>362.95</v>
+      </c>
+      <c r="O319" t="n">
+        <v>369.8666666666667</v>
+      </c>
+      <c r="P319" t="n">
+        <v>375.1655555555556</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>372.180909090909</v>
+      </c>
+      <c r="R319" t="n">
+        <v>371.2509090909091</v>
+      </c>
+      <c r="S319" t="n">
+        <v>370.7609090909091</v>
+      </c>
+      <c r="T319" t="n">
+        <v>374.4966666666666</v>
+      </c>
+      <c r="U319" t="n">
+        <v>357.0609090909091</v>
+      </c>
+      <c r="V319" t="n">
+        <v>355.7166666666667</v>
+      </c>
+      <c r="W319" t="n">
+        <v>362.8019047619048</v>
+      </c>
+      <c r="X319" t="n">
+        <v>368.3155555555555</v>
+      </c>
+      <c r="Y319" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -21920,7 +22248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B324"/>
+  <dimension ref="A1:B328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25168,6 +25496,46 @@
       </c>
       <c r="B324" t="n">
         <v>1.77</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>-0.96</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -25336,28 +25704,28 @@
         <v>0.09660000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3576530384963528</v>
+        <v>-0.3820223733490895</v>
       </c>
       <c r="J2" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K2" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05568147668527312</v>
+        <v>0.06408506641033196</v>
       </c>
       <c r="M2" t="n">
-        <v>8.370875843175883</v>
+        <v>8.382046697052962</v>
       </c>
       <c r="N2" t="n">
-        <v>113.4668698918498</v>
+        <v>113.2160791849819</v>
       </c>
       <c r="O2" t="n">
-        <v>10.65208288983191</v>
+        <v>10.64030446862222</v>
       </c>
       <c r="P2" t="n">
-        <v>328.1487211175885</v>
+        <v>328.3861709263727</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -25413,28 +25781,28 @@
         <v>0.092</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.436014720759768</v>
+        <v>-0.4348962903636795</v>
       </c>
       <c r="J3" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K3" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04486843994464385</v>
+        <v>0.04592283127856278</v>
       </c>
       <c r="M3" t="n">
-        <v>11.03350905031676</v>
+        <v>10.93727110268201</v>
       </c>
       <c r="N3" t="n">
-        <v>211.0901821249373</v>
+        <v>208.2031900227913</v>
       </c>
       <c r="O3" t="n">
-        <v>14.5289429114763</v>
+        <v>14.4292477289286</v>
       </c>
       <c r="P3" t="n">
-        <v>300.4167842879893</v>
+        <v>300.4062231779234</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -25490,28 +25858,28 @@
         <v>0.1117</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.09806799280085525</v>
+        <v>-0.08785626399078003</v>
       </c>
       <c r="J4" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K4" t="n">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001479500916873988</v>
+        <v>0.001226485199289251</v>
       </c>
       <c r="M4" t="n">
-        <v>14.71569108633151</v>
+        <v>14.59609076706026</v>
       </c>
       <c r="N4" t="n">
-        <v>341.0287401136488</v>
+        <v>336.4106303539326</v>
       </c>
       <c r="O4" t="n">
-        <v>18.46696347842949</v>
+        <v>18.34150022091793</v>
       </c>
       <c r="P4" t="n">
-        <v>278.5190573496604</v>
+        <v>278.4225642285884</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -25567,28 +25935,28 @@
         <v>0.0861</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2414051042673551</v>
+        <v>-0.2152162369556269</v>
       </c>
       <c r="J5" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K5" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00873301730691356</v>
+        <v>0.007123375058316062</v>
       </c>
       <c r="M5" t="n">
-        <v>14.20128142494239</v>
+        <v>14.12495291394614</v>
       </c>
       <c r="N5" t="n">
-        <v>342.6406209709053</v>
+        <v>339.8658700446744</v>
       </c>
       <c r="O5" t="n">
-        <v>18.51055431290228</v>
+        <v>18.43545144672824</v>
       </c>
       <c r="P5" t="n">
-        <v>295.3720036679638</v>
+        <v>295.1166984595167</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -25644,28 +26012,28 @@
         <v>0.09420000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2858762026762984</v>
+        <v>-0.2124734454590493</v>
       </c>
       <c r="J6" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K6" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009031149489023282</v>
+        <v>0.005093842306687413</v>
       </c>
       <c r="M6" t="n">
-        <v>17.67140372696204</v>
+        <v>17.74074298809483</v>
       </c>
       <c r="N6" t="n">
-        <v>444.3816986269756</v>
+        <v>444.8342166145276</v>
       </c>
       <c r="O6" t="n">
-        <v>21.08036286753564</v>
+        <v>21.09109330059795</v>
       </c>
       <c r="P6" t="n">
-        <v>315.5934975348057</v>
+        <v>314.8623258797193</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -25721,28 +26089,28 @@
         <v>0.0616</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05132185341719091</v>
+        <v>0.0912344530875607</v>
       </c>
       <c r="J7" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K7" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004041838003749909</v>
+        <v>0.001301518790311262</v>
       </c>
       <c r="M7" t="n">
-        <v>13.97780100673401</v>
+        <v>13.97741235563519</v>
       </c>
       <c r="N7" t="n">
-        <v>322.2728688724606</v>
+        <v>320.8166038527896</v>
       </c>
       <c r="O7" t="n">
-        <v>17.95196002871165</v>
+        <v>17.91135404855785</v>
       </c>
       <c r="P7" t="n">
-        <v>334.2280680571062</v>
+        <v>333.8276035065953</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -25792,28 +26160,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.294028135289794</v>
+        <v>0.3071636520240199</v>
       </c>
       <c r="J8" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K8" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01235156310756824</v>
+        <v>0.01383467186144716</v>
       </c>
       <c r="M8" t="n">
-        <v>14.42707773324707</v>
+        <v>14.37912262363371</v>
       </c>
       <c r="N8" t="n">
-        <v>350.1474522440245</v>
+        <v>346.7645545898336</v>
       </c>
       <c r="O8" t="n">
-        <v>18.71222734588335</v>
+        <v>18.62161525190104</v>
       </c>
       <c r="P8" t="n">
-        <v>329.7168803477302</v>
+        <v>329.5877775236324</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -25863,28 +26231,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>0.1251996558520325</v>
+        <v>0.2076358127377525</v>
       </c>
       <c r="J9" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K9" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002330479298714438</v>
+        <v>0.006442694493326795</v>
       </c>
       <c r="M9" t="n">
-        <v>14.54344291135735</v>
+        <v>14.62651194843483</v>
       </c>
       <c r="N9" t="n">
-        <v>347.0527821780862</v>
+        <v>351.8449251465311</v>
       </c>
       <c r="O9" t="n">
-        <v>18.62935270421617</v>
+        <v>18.75752982528699</v>
       </c>
       <c r="P9" t="n">
-        <v>329.9129382905324</v>
+        <v>329.1146680951273</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -25940,28 +26308,28 @@
         <v>0.0419</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.7565070584783745</v>
+        <v>-0.6043282948170121</v>
       </c>
       <c r="J10" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K10" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02493839496785344</v>
+        <v>0.01642023047111374</v>
       </c>
       <c r="M10" t="n">
-        <v>21.79273962713921</v>
+        <v>21.74249979913105</v>
       </c>
       <c r="N10" t="n">
-        <v>1206.639222932543</v>
+        <v>1209.777209513944</v>
       </c>
       <c r="O10" t="n">
-        <v>34.73671289763242</v>
+        <v>34.78185172635212</v>
       </c>
       <c r="P10" t="n">
-        <v>337.1430073143939</v>
+        <v>335.7073049085706</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -26017,28 +26385,28 @@
         <v>0.0394</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6599864376021942</v>
+        <v>-0.4582634758020949</v>
       </c>
       <c r="J11" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K11" t="n">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009058781957150153</v>
+        <v>0.004568502724842438</v>
       </c>
       <c r="M11" t="n">
-        <v>32.06561046223347</v>
+        <v>31.82781220313577</v>
       </c>
       <c r="N11" t="n">
-        <v>2281.447088185389</v>
+        <v>2262.281460543163</v>
       </c>
       <c r="O11" t="n">
-        <v>47.76449610521804</v>
+        <v>47.56344668485625</v>
       </c>
       <c r="P11" t="n">
-        <v>333.0775470608011</v>
+        <v>331.0612376431814</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -26094,28 +26462,28 @@
         <v>0.0363</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.04941628367149384</v>
+        <v>0.1140769215154494</v>
       </c>
       <c r="J12" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K12" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001056915964737781</v>
+        <v>0.0005774946437921979</v>
       </c>
       <c r="M12" t="n">
-        <v>27.42195792317755</v>
+        <v>27.4761158600112</v>
       </c>
       <c r="N12" t="n">
-        <v>1154.46590942726</v>
+        <v>1158.043600114848</v>
       </c>
       <c r="O12" t="n">
-        <v>33.97743235483312</v>
+        <v>34.03003967254296</v>
       </c>
       <c r="P12" t="n">
-        <v>328.6888428803848</v>
+        <v>327.1063882841339</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -26165,28 +26533,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.4465762632984357</v>
+        <v>0.5156858195503364</v>
       </c>
       <c r="J13" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K13" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01029674255644952</v>
+        <v>0.0140496045618449</v>
       </c>
       <c r="M13" t="n">
-        <v>24.16575150997517</v>
+        <v>24.00850395923656</v>
       </c>
       <c r="N13" t="n">
-        <v>977.0236462765364</v>
+        <v>967.9667246090593</v>
       </c>
       <c r="O13" t="n">
-        <v>31.25737746959166</v>
+        <v>31.11216361182647</v>
       </c>
       <c r="P13" t="n">
-        <v>324.5423577124816</v>
+        <v>323.8565938393475</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -26242,28 +26610,28 @@
         <v>0.1188</v>
       </c>
       <c r="I14" t="n">
-        <v>0.22942460365834</v>
+        <v>0.3197844463928935</v>
       </c>
       <c r="J14" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K14" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00220880595340911</v>
+        <v>0.00438254670761995</v>
       </c>
       <c r="M14" t="n">
-        <v>27.90135377516792</v>
+        <v>27.71892898322892</v>
       </c>
       <c r="N14" t="n">
-        <v>1190.390221098433</v>
+        <v>1183.609772894555</v>
       </c>
       <c r="O14" t="n">
-        <v>34.50203212998378</v>
+        <v>34.40363022843019</v>
       </c>
       <c r="P14" t="n">
-        <v>325.0047030587766</v>
+        <v>324.105999616191</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -26319,28 +26687,28 @@
         <v>0.0794</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.09436301548537586</v>
+        <v>-0.01247025138305058</v>
       </c>
       <c r="J15" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K15" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003322329368461441</v>
+        <v>5.952789853158613e-06</v>
       </c>
       <c r="M15" t="n">
-        <v>29.00868113057004</v>
+        <v>28.79954748212209</v>
       </c>
       <c r="N15" t="n">
-        <v>1285.690872660615</v>
+        <v>1274.778426614071</v>
       </c>
       <c r="O15" t="n">
-        <v>35.85653179911039</v>
+        <v>35.70403935991096</v>
       </c>
       <c r="P15" t="n">
-        <v>335.8986619308308</v>
+        <v>335.0541832067867</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -26396,28 +26764,28 @@
         <v>0.0488</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.0482478969817001</v>
+        <v>0.004092901787974489</v>
       </c>
       <c r="J16" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K16" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003021012156426695</v>
+        <v>2.217269461368687e-06</v>
       </c>
       <c r="M16" t="n">
-        <v>15.70824843003402</v>
+        <v>15.70891269842243</v>
       </c>
       <c r="N16" t="n">
-        <v>391.7746217293715</v>
+        <v>390.030620389998</v>
       </c>
       <c r="O16" t="n">
-        <v>19.79329739405164</v>
+        <v>19.74919290477457</v>
       </c>
       <c r="P16" t="n">
-        <v>353.3848963744025</v>
+        <v>352.8619553355302</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -26473,28 +26841,28 @@
         <v>0.0603</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1696447878701253</v>
+        <v>0.2101877414383045</v>
       </c>
       <c r="J17" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K17" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L17" t="n">
-        <v>0.004982230116578501</v>
+        <v>0.007804088510151574</v>
       </c>
       <c r="M17" t="n">
-        <v>13.58187162575485</v>
+        <v>13.5625395021822</v>
       </c>
       <c r="N17" t="n">
-        <v>300.2537710924764</v>
+        <v>298.3259392717483</v>
       </c>
       <c r="O17" t="n">
-        <v>17.32783226755373</v>
+        <v>17.27211449915002</v>
       </c>
       <c r="P17" t="n">
-        <v>350.5657046061437</v>
+        <v>350.173542509881</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -26544,28 +26912,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.2583534291000243</v>
+        <v>0.2883241131975335</v>
       </c>
       <c r="J18" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K18" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01208948069585303</v>
+        <v>0.01532355752702874</v>
       </c>
       <c r="M18" t="n">
-        <v>13.83988074125348</v>
+        <v>13.81748940155501</v>
       </c>
       <c r="N18" t="n">
-        <v>287.929806325474</v>
+        <v>286.3272929999534</v>
       </c>
       <c r="O18" t="n">
-        <v>16.96849452147933</v>
+        <v>16.92120837883493</v>
       </c>
       <c r="P18" t="n">
-        <v>347.3880864819552</v>
+        <v>347.0989989234292</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -26621,28 +26989,28 @@
         <v>0.0659</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2234259481306429</v>
+        <v>0.2712193944091564</v>
       </c>
       <c r="J19" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K19" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L19" t="n">
-        <v>0.008992223213304174</v>
+        <v>0.01339417069759863</v>
       </c>
       <c r="M19" t="n">
-        <v>13.84907987249999</v>
+        <v>13.87920864726733</v>
       </c>
       <c r="N19" t="n">
-        <v>292.906965083757</v>
+        <v>292.5527274060524</v>
       </c>
       <c r="O19" t="n">
-        <v>17.11452497394412</v>
+        <v>17.10417280683437</v>
       </c>
       <c r="P19" t="n">
-        <v>343.6261282937253</v>
+        <v>343.1610331704316</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -26698,28 +27066,28 @@
         <v>0.0699</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4363726305798986</v>
+        <v>0.4896786008135389</v>
       </c>
       <c r="J20" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K20" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02621750494559827</v>
+        <v>0.03298946754989007</v>
       </c>
       <c r="M20" t="n">
-        <v>14.8484893288662</v>
+        <v>14.93139726292471</v>
       </c>
       <c r="N20" t="n">
-        <v>366.9866348329209</v>
+        <v>368.9415085227285</v>
       </c>
       <c r="O20" t="n">
-        <v>19.15689522947079</v>
+        <v>19.20785017962001</v>
       </c>
       <c r="P20" t="n">
-        <v>335.6055014551586</v>
+        <v>335.0791808858705</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -26775,28 +27143,28 @@
         <v>0.0607</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5210460821968358</v>
+        <v>0.5841130444546463</v>
       </c>
       <c r="J21" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K21" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03668273828519519</v>
+        <v>0.04621091518649645</v>
       </c>
       <c r="M21" t="n">
-        <v>15.45517235260309</v>
+        <v>15.52508098138501</v>
       </c>
       <c r="N21" t="n">
-        <v>377.0035855832049</v>
+        <v>378.149256643232</v>
       </c>
       <c r="O21" t="n">
-        <v>19.41658017219317</v>
+        <v>19.44606018306104</v>
       </c>
       <c r="P21" t="n">
-        <v>334.5363848512222</v>
+        <v>333.9251274443679</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -26852,28 +27220,28 @@
         <v>0.0765</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4545281884552697</v>
+        <v>0.5166988923257921</v>
       </c>
       <c r="J22" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K22" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02599883251616097</v>
+        <v>0.03370313126366686</v>
       </c>
       <c r="M22" t="n">
-        <v>16.18953791209663</v>
+        <v>16.2672140165494</v>
       </c>
       <c r="N22" t="n">
-        <v>410.4303450433916</v>
+        <v>411.6082471767033</v>
       </c>
       <c r="O22" t="n">
-        <v>20.25908055770033</v>
+        <v>20.2881306969544</v>
       </c>
       <c r="P22" t="n">
-        <v>333.1566729262135</v>
+        <v>332.5491366779984</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -26923,28 +27291,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>0.2567285619124305</v>
+        <v>0.352232547876353</v>
       </c>
       <c r="J23" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K23" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L23" t="n">
-        <v>0.008887965871923753</v>
+        <v>0.01644034808721384</v>
       </c>
       <c r="M23" t="n">
-        <v>15.4996924536345</v>
+        <v>15.77098815601397</v>
       </c>
       <c r="N23" t="n">
-        <v>385.2692826388511</v>
+        <v>394.8623820720397</v>
       </c>
       <c r="O23" t="n">
-        <v>19.62827762792373</v>
+        <v>19.87114445803361</v>
       </c>
       <c r="P23" t="n">
-        <v>333.6821063846159</v>
+        <v>332.7486583589898</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -27000,28 +27368,28 @@
         <v>0.0547</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4117154208298565</v>
+        <v>0.4723760574457125</v>
       </c>
       <c r="J24" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K24" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02074981519285224</v>
+        <v>0.02727583479716944</v>
       </c>
       <c r="M24" t="n">
-        <v>16.09170569695429</v>
+        <v>16.23895119190523</v>
       </c>
       <c r="N24" t="n">
-        <v>420.7816249355239</v>
+        <v>423.3608928855083</v>
       </c>
       <c r="O24" t="n">
-        <v>20.51296236372319</v>
+        <v>20.57573553692573</v>
       </c>
       <c r="P24" t="n">
-        <v>329.8764381881447</v>
+        <v>329.2842585051444</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -27058,7 +27426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y315"/>
+  <dimension ref="A1:Y319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58825,10 +59193,26 @@
           <t>-38.49155405096474,174.6367239723552</t>
         </is>
       </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>-38.49085074285741,174.6367450226796</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>-38.490147728930985,174.63673328001886</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>-38.489445145228586,174.63667392195785</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>-38.48874217794259,174.6366556016079</t>
+        </is>
+      </c>
       <c r="M315" t="inlineStr">
         <is>
           <t>-38.48803328261199,174.63708241810068</t>
@@ -58890,6 +59274,506 @@
         </is>
       </c>
       <c r="Y315" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>-38.495712286237726,174.63599715365152</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>-38.49509989014684,174.6364735570555</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>-38.4944516849196,174.63682439339445</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>-38.493721139217456,174.63688647246633</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>-38.49298272173529,174.63696727243394</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>-38.49225485102534,174.63693242474255</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>-38.491551626266954,174.63698806742337</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>-38.4908490120916,174.63693354016073</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>-38.490145426247416,174.63698408930907</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>-38.48944309109243,174.63689767652627</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>-38.4887409426097,174.63679017400509</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>-38.48803844293889,174.6368459464492</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>-38.48734121891751,174.6367572466827</t>
+        </is>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>-38.48663717368022,174.63677069905864</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>-38.48594015640338,174.63663527724907</t>
+        </is>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>-38.48523891076703,174.63656963358602</t>
+        </is>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>-38.484538652925295,174.6364875495628</t>
+        </is>
+      </c>
+      <c r="S316" t="inlineStr">
+        <is>
+          <t>-38.483831259453204,174.6365232982212</t>
+        </is>
+      </c>
+      <c r="T316" t="inlineStr"/>
+      <c r="U316" t="inlineStr">
+        <is>
+          <t>-38.48243479598045,174.63629158651986</t>
+        </is>
+      </c>
+      <c r="V316" t="inlineStr">
+        <is>
+          <t>-38.48173279035903,174.63623794025096</t>
+        </is>
+      </c>
+      <c r="W316" t="inlineStr">
+        <is>
+          <t>-38.48103393641004,174.63613208647845</t>
+        </is>
+      </c>
+      <c r="X316" t="inlineStr">
+        <is>
+          <t>-38.48032282839107,174.6362286682598</t>
+        </is>
+      </c>
+      <c r="Y316" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>-38.49570090011638,174.63595722094783</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>-38.49511520853491,174.63652728103892</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>-38.49449997750029,174.63699376315842</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>-38.49378949308999,174.63712619769976</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>-38.49300682679748,174.6370727295698</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>-38.492263406120514,174.63703897577517</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>-38.49154947124894,174.63722273486295</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>-38.49084637502486,174.63722070968612</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>-38.490141342610585,174.637428736954</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>-38.48943891625978,174.6373522925353</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>-38.48873743885322,174.6371717680812</t>
+        </is>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>-38.488036319306154,174.63694326443633</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>-38.48733386550803,174.63691211990775</t>
+        </is>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>-38.486628599342524,174.63691242316546</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>-38.48593446565952,174.6367293400228</t>
+        </is>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>-38.48522976086741,174.63672087234508</t>
+        </is>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>-38.48452162042284,174.6367690778397</t>
+        </is>
+      </c>
+      <c r="S317" t="inlineStr">
+        <is>
+          <t>-38.48382439143316,174.6366368186027</t>
+        </is>
+      </c>
+      <c r="T317" t="inlineStr">
+        <is>
+          <t>-38.48312582414236,174.63652656643612</t>
+        </is>
+      </c>
+      <c r="U317" t="inlineStr">
+        <is>
+          <t>-38.48242554272008,174.63644453376975</t>
+        </is>
+      </c>
+      <c r="V317" t="inlineStr">
+        <is>
+          <t>-38.481718685150106,174.6364710835782</t>
+        </is>
+      </c>
+      <c r="W317" t="inlineStr">
+        <is>
+          <t>-38.48102475043317,174.636283922083</t>
+        </is>
+      </c>
+      <c r="X317" t="inlineStr">
+        <is>
+          <t>-38.480321742860816,174.63624661080743</t>
+        </is>
+      </c>
+      <c r="Y317" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>-38.495667325528565,174.63583947057595</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>-38.49508411079799,174.63641821652587</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>-38.49446665467602,174.63687689459462</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>-38.49375576178306,174.63700789768396</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>-38.492993205855626,174.637013139308</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>-38.492258146708956,174.63697347130397</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>-38.49155178565646,174.63697070890953</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>-38.49084916474978,174.63691691374206</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>-38.49014690109316,174.63682345520954</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>-38.48944321983925,174.6368836536571</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>-38.48874098294811,174.63678577996046</t>
+        </is>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>-38.48803120379756,174.63717767345108</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>-38.48732580830556,174.63708181102882</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>-38.486625340127425,174.6369662935548</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>-38.48593851917939,174.63666233918832</t>
+        </is>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>-38.48523772901023,174.63658916703645</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>-38.484531448641185,174.6366066297259</t>
+        </is>
+      </c>
+      <c r="S318" t="inlineStr">
+        <is>
+          <t>-38.48383438541579,174.636471629088</t>
+        </is>
+      </c>
+      <c r="T318" t="inlineStr">
+        <is>
+          <t>-38.483134962688965,174.63637551559614</t>
+        </is>
+      </c>
+      <c r="U318" t="inlineStr">
+        <is>
+          <t>-38.48243599968797,174.636271690179</t>
+        </is>
+      </c>
+      <c r="V318" t="inlineStr">
+        <is>
+          <t>-38.481732884853166,174.63623637834272</t>
+        </is>
+      </c>
+      <c r="W318" t="inlineStr">
+        <is>
+          <t>-38.48103343200952,174.63614042383253</t>
+        </is>
+      </c>
+      <c r="X318" t="inlineStr"/>
+      <c r="Y318" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>-38.49571825133783,174.63601807410757</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>-38.49513263182632,174.63658838738183</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>-38.494513543368406,174.63704134101357</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>-38.49380840434188,174.63719252211757</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>-38.49299760918073,174.63703240339893</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>-38.49227154157004,174.63714030140028</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>-38.49154889940602,174.63728499623986</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>-38.49084687092166,174.63716671370503</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>-38.49014361185697,174.63718167228848</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>-38.48944116319724,174.63710763745593</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>-38.48873866234467,174.63703853303056</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>-38.48803837610774,174.63684900912202</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>-38.48733749470055,174.6368356845123</t>
+        </is>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>-38.486641555285225,174.63669827497688</t>
+        </is>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>-38.4859435506846,174.63657917229483</t>
+        </is>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>-38.485239811540126,174.63655474452466</t>
+        </is>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>-38.48453748626813,174.63650683346512</t>
+        </is>
+      </c>
+      <c r="S319" t="inlineStr">
+        <is>
+          <t>-38.48383545840837,174.63645389347235</t>
+        </is>
+      </c>
+      <c r="T319" t="inlineStr">
+        <is>
+          <t>-38.48313634555427,174.63635265796196</t>
+        </is>
+      </c>
+      <c r="U319" t="inlineStr">
+        <is>
+          <t>-38.482422587116005,174.63649338628153</t>
+        </is>
+      </c>
+      <c r="V319" t="inlineStr">
+        <is>
+          <t>-38.481719948184384,174.63645020734998</t>
+        </is>
+      </c>
+      <c r="W319" t="inlineStr">
+        <is>
+          <t>-38.48102313084937,174.63631069194707</t>
+        </is>
+      </c>
+      <c r="X319" t="inlineStr">
+        <is>
+          <t>-38.48032521992821,174.63618913878074</t>
+        </is>
+      </c>
+      <c r="Y319" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0260/nzd0260.xlsx
+++ b/data/nzd0260/nzd0260.xlsx
@@ -25549,7 +25549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25640,35 +25640,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -25727,27 +25732,28 @@
       <c r="P2" t="n">
         <v>328.3861709263727</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.63930935982904 -38.49665664414356, 174.62946736088125 -38.493850197480796)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.639309359829</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-38.49665664414356</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.6294673608813</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-38.4938501974808</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.6343883603552</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-38.49525342081218</v>
       </c>
     </row>
@@ -25804,27 +25810,28 @@
       <c r="P3" t="n">
         <v>300.4062231779234</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.63962595812012 -38.495998685039524, 174.62978401140327 -38.49319224552287)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.6396259581201</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-38.49599868503952</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.6297840114033</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-38.49319224552287</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.6347049847617</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-38.49459546528119</v>
       </c>
     </row>
@@ -25881,27 +25888,28 @@
       <c r="P4" t="n">
         <v>278.4225642285884</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.63994255641148 -38.4953407199266, 174.63010066192476 -38.49253428755566)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.6399425564115</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-38.4953407199266</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.6301006619248</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-38.49253428755566</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.6350216091681</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-38.49393750374113</v>
       </c>
     </row>
@@ -25958,27 +25966,28 @@
       <c r="P5" t="n">
         <v>295.1166984595167</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.64025915470302 -38.494682748804884, 174.6304173124458 -38.49187632357908)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.640259154703</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-38.49468274880488</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.6304173124458</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-38.49187632357908</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.6353382335744</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-38.49327953619198</v>
       </c>
     </row>
@@ -26035,27 +26044,28 @@
       <c r="P6" t="n">
         <v>314.8623258797193</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.64065886257825 -38.493826467194815, 174.6306053292063 -38.49152832145307)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.6406588625782</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-38.49382646719481</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.6306053292063</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-38.49152832145307</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.6356320958923</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-38.49267739432394</v>
       </c>
     </row>
@@ -26112,27 +26122,28 @@
       <c r="P7" t="n">
         <v>333.8276035065953</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.64100287212568 -38.492581600994214, 174.6305859591266 -38.491745107491475)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.6410028721257</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-38.49258160099421</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.6305859591266</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-38.49174510749148</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.6357944156262</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-38.49216335424285</v>
       </c>
     </row>
@@ -26183,27 +26194,28 @@
       <c r="P8" t="n">
         <v>329.5877775236324</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.6410245887168 -38.4915144922019, 174.6305540371565 -38.491610528561345)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.6410245887168</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-38.4915144922019</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.6305540371565</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-38.49161052856135</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.6357893129367</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-38.49156251038163</v>
       </c>
     </row>
@@ -26254,27 +26266,28 @@
       <c r="P9" t="n">
         <v>329.1146680951273</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.64102456643877 -38.49081137789562, 174.6305540817129 -38.490907412785205)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.6410245664388</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-38.49081137789562</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.6305540817129</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-38.49090741278521</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.6357893240758</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-38.49085939534041</v>
       </c>
     </row>
@@ -26331,27 +26344,28 @@
       <c r="P10" t="n">
         <v>335.7073049085706</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.64102454416133 -38.49010825672824, 174.63055412626815 -38.49020429014794)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.6410245441613</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-38.49010825672824</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.6305541262682</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-38.49020429014794</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.6357893352147</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-38.49015627343809</v>
       </c>
     </row>
@@ -26408,27 +26422,28 @@
       <c r="P11" t="n">
         <v>331.0612376431814</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.64102452188445 -38.489405128699715, 174.6305541708223 -38.48950116064952)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.6410245218844</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-38.48940512869972</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.6305541708223</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-38.48950116064952</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.6357893463534</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-38.48945314467461</v>
       </c>
     </row>
@@ -26485,27 +26500,28 @@
       <c r="P12" t="n">
         <v>327.1063882841339</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.64102449960814 -38.48870199381014, 174.63055421537533 -38.488798024290034)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.6410244996081</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-38.48870199381014</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.6305542153753</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-38.48879802429003</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.6357893574917</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-38.48875000905009</v>
       </c>
     </row>
@@ -26556,27 +26572,28 @@
       <c r="P13" t="n">
         <v>323.8565938393475</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.64102328880676 -38.48794721386159, 174.63055639291966 -38.488175519274435)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.6410232888068</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-38.48794721386159</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.6305563929197</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-38.48817551927444</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.6357898408632</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-38.48806136656801</v>
       </c>
     </row>
@@ -26633,27 +26650,28 @@
       <c r="P14" t="n">
         <v>324.105999616191</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.64098869876722 -38.487140234701954, 174.6305369181984 -38.48763639095442)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.6409886987672</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-38.48714023470195</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.6305369181984</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-38.48763639095442</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.6357628084828</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-38.48738831282819</v>
       </c>
     </row>
@@ -26710,27 +26728,28 @@
       <c r="P15" t="n">
         <v>335.0541832067867</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.64092559905944 -38.486385729467926, 174.63048573978435 -38.48701724083226)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.6409255990594</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-38.48638572946793</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.6304857397843</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-38.48701724083226</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.6357056694219</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-38.48670148515009</v>
       </c>
     </row>
@@ -26787,27 +26806,28 @@
       <c r="P16" t="n">
         <v>352.8619553355302</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.64086701801557 -38.485684063007454, 174.63042722459377 -38.48631557131526)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.6408670180156</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-38.48568406300745</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.6304272245938</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-38.48631557131526</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.6356471213047</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-38.48599981716136</v>
       </c>
     </row>
@@ -26864,27 +26884,28 @@
       <c r="P17" t="n">
         <v>350.173542509881</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.64080843697226 -38.48498238971525, 174.6303687094021 -38.48561389496659)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.6408084369723</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-38.48498238971525</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.6303687094021</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-38.48561389496659</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.6355885731872</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-38.48529814234092</v>
       </c>
     </row>
@@ -26935,27 +26956,28 @@
       <c r="P18" t="n">
         <v>347.0989989234292</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (174.64074985592953 -38.48428070959137, 174.63031019420936 -38.48491221178628)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>174.6407498559295</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-38.48428070959137</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>174.6303101942094</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-38.48491221178628</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>174.6355300250694</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-38.48459646068882</v>
       </c>
     </row>
@@ -27012,27 +27034,28 @@
       <c r="P19" t="n">
         <v>343.1610331704316</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (174.64069127488727 -38.483579022635766, 174.63025167901552 -38.48421052177438)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>174.6406912748873</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-38.48357902263577</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>174.6302516790155</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-38.48421052177438</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>174.6354714769514</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-38.48389477220508</v>
       </c>
     </row>
@@ -27089,27 +27112,28 @@
       <c r="P20" t="n">
         <v>335.0791808858705</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (174.64063269384556 -38.48287732884859, 174.63019316382054 -38.483508824930915)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>174.6406326938456</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-38.48287732884859</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>174.6301931638205</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-38.48350882493092</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>174.635412928833</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-38.48319307688975</v>
       </c>
     </row>
@@ -27166,27 +27190,28 @@
       <c r="P21" t="n">
         <v>333.9251274443679</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (174.64057411280447 -38.48217562822979, 174.63013464862442 -38.48280712125594)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>174.6405741128045</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-38.48217562822979</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>174.6301346486244</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-38.48280712125594</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>174.6353543807144</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-38.48249137474286</v>
       </c>
     </row>
@@ -27243,27 +27268,28 @@
       <c r="P22" t="n">
         <v>332.5491366779984</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (174.64051553176392 -38.48147392077948, 174.63007613342728 -38.48210541074947)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>174.6405155317639</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-38.48147392077948</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>174.6300761334273</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-38.48210541074947</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>174.6352958325956</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-38.48178966576447</v>
       </c>
     </row>
@@ -27314,27 +27340,28 @@
       <c r="P23" t="n">
         <v>332.7486583589898</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (174.64045695072386 -38.48077220649764, 174.630017618229 -38.48140369341155)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>174.6404569507239</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-38.48077220649764</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>174.630017618229</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-38.48140369341155</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>174.6352372844764</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-38.4810879499546</v>
       </c>
     </row>
@@ -27391,27 +27418,28 @@
       <c r="P24" t="n">
         <v>329.2842585051444</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (174.64039836968436 -38.48007048538434, 174.62995910302965 -38.48070196924224)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>174.6403983696844</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-38.48007048538434</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>174.6299591030296</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-38.48070196924224</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>174.635178736357</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-38.48038622731329</v>
       </c>
     </row>

--- a/data/nzd0260/nzd0260.xlsx
+++ b/data/nzd0260/nzd0260.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y319"/>
+  <dimension ref="A1:Y324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22237,6 +22237,381 @@
         </is>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>312.4835294117647</v>
+      </c>
+      <c r="C320" t="n">
+        <v>284.89</v>
+      </c>
+      <c r="D320" t="n">
+        <v>269.6173684210527</v>
+      </c>
+      <c r="E320" t="n">
+        <v>285.1714285714286</v>
+      </c>
+      <c r="F320" t="n">
+        <v>330.4366666666667</v>
+      </c>
+      <c r="G320" t="n">
+        <v>349.8918181818182</v>
+      </c>
+      <c r="H320" t="n">
+        <v>344.1671428571428</v>
+      </c>
+      <c r="I320" t="n">
+        <v>338.7613043478261</v>
+      </c>
+      <c r="J320" t="n">
+        <v>332.6666666666667</v>
+      </c>
+      <c r="K320" t="n">
+        <v>341.1366666666667</v>
+      </c>
+      <c r="L320" t="n">
+        <v>351.6966666666667</v>
+      </c>
+      <c r="M320" t="n">
+        <v>354.4318181818182</v>
+      </c>
+      <c r="N320" t="n">
+        <v>352.95</v>
+      </c>
+      <c r="O320" t="n">
+        <v>359.1333333333333</v>
+      </c>
+      <c r="P320" t="n">
+        <v>363.5277777777778</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>370.7818181818182</v>
+      </c>
+      <c r="R320" t="n">
+        <v>367.7618181818182</v>
+      </c>
+      <c r="S320" t="n">
+        <v>364.5618181818182</v>
+      </c>
+      <c r="T320" t="n">
+        <v>364.4933333333333</v>
+      </c>
+      <c r="U320" t="n">
+        <v>373.7618181818182</v>
+      </c>
+      <c r="V320" t="n">
+        <v>367.9833333333333</v>
+      </c>
+      <c r="W320" t="n">
+        <v>367.2352380952381</v>
+      </c>
+      <c r="X320" t="n">
+        <v>380.5377777777778</v>
+      </c>
+      <c r="Y320" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>316.2058823529412</v>
+      </c>
+      <c r="C321" t="n">
+        <v>286.845</v>
+      </c>
+      <c r="D321" t="n">
+        <v>272.3089473684211</v>
+      </c>
+      <c r="E321" t="n">
+        <v>293.07</v>
+      </c>
+      <c r="F321" t="n">
+        <v>302.6633333333333</v>
+      </c>
+      <c r="G321" t="n">
+        <v>342.0054545454545</v>
+      </c>
+      <c r="H321" t="n">
+        <v>342.79</v>
+      </c>
+      <c r="I321" t="n">
+        <v>354.2791304347826</v>
+      </c>
+      <c r="J321" t="n">
+        <v>353.4433333333333</v>
+      </c>
+      <c r="K321" t="n">
+        <v>350.8133333333333</v>
+      </c>
+      <c r="L321" t="n">
+        <v>359.4033333333333</v>
+      </c>
+      <c r="M321" t="n">
+        <v>352.8554545454546</v>
+      </c>
+      <c r="N321" t="n">
+        <v>343.255</v>
+      </c>
+      <c r="O321" t="n">
+        <v>355.3466666666667</v>
+      </c>
+      <c r="P321" t="n">
+        <v>367.0522222222222</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>373.5054545454545</v>
+      </c>
+      <c r="R321" t="n">
+        <v>363.7054545454546</v>
+      </c>
+      <c r="S321" t="n">
+        <v>360.6854545454545</v>
+      </c>
+      <c r="T321" t="n">
+        <v>369.5766666666667</v>
+      </c>
+      <c r="U321" t="n">
+        <v>377.6254545454545</v>
+      </c>
+      <c r="V321" t="n">
+        <v>382.2466666666666</v>
+      </c>
+      <c r="W321" t="n">
+        <v>378.5633333333333</v>
+      </c>
+      <c r="X321" t="n">
+        <v>379.2822222222222</v>
+      </c>
+      <c r="Y321" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>306.0594117647058</v>
+      </c>
+      <c r="C322" t="n">
+        <v>277.665</v>
+      </c>
+      <c r="D322" t="n">
+        <v>260.2284210526316</v>
+      </c>
+      <c r="E322" t="n">
+        <v>279.3071428571428</v>
+      </c>
+      <c r="F322" t="n">
+        <v>336.9933333333333</v>
+      </c>
+      <c r="G322" t="n">
+        <v>344.2736363636364</v>
+      </c>
+      <c r="H322" t="n">
+        <v>350.1057142857143</v>
+      </c>
+      <c r="I322" t="n">
+        <v>338.3313043478261</v>
+      </c>
+      <c r="J322" t="n">
+        <v>335.0933333333333</v>
+      </c>
+      <c r="K322" t="n">
+        <v>345.7733333333333</v>
+      </c>
+      <c r="L322" t="n">
+        <v>347.5133333333333</v>
+      </c>
+      <c r="M322" t="n">
+        <v>354.3136363636364</v>
+      </c>
+      <c r="N322" t="n">
+        <v>349.755</v>
+      </c>
+      <c r="O322" t="n">
+        <v>358.9666666666667</v>
+      </c>
+      <c r="P322" t="n">
+        <v>358.0688888888889</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>362.9636363636364</v>
+      </c>
+      <c r="R322" t="n">
+        <v>359.1636363636364</v>
+      </c>
+      <c r="S322" t="n">
+        <v>357.6636363636364</v>
+      </c>
+      <c r="T322" t="n">
+        <v>366.7666666666667</v>
+      </c>
+      <c r="U322" t="n">
+        <v>378.9836363636364</v>
+      </c>
+      <c r="V322" t="n">
+        <v>375.0266666666667</v>
+      </c>
+      <c r="W322" t="n">
+        <v>378.0261904761905</v>
+      </c>
+      <c r="X322" t="n">
+        <v>378.6888888888889</v>
+      </c>
+      <c r="Y322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr"/>
+      <c r="C323" t="n">
+        <v>246.005</v>
+      </c>
+      <c r="D323" t="n">
+        <v>235.0968421052632</v>
+      </c>
+      <c r="E323" t="n">
+        <v>253.5328571428572</v>
+      </c>
+      <c r="F323" t="n">
+        <v>268.87</v>
+      </c>
+      <c r="G323" t="inlineStr"/>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
+      <c r="M323" t="n">
+        <v>250.0945454545455</v>
+      </c>
+      <c r="N323" t="n">
+        <v>294.105</v>
+      </c>
+      <c r="O323" t="n">
+        <v>375.83</v>
+      </c>
+      <c r="P323" t="n">
+        <v>365.8866666666667</v>
+      </c>
+      <c r="Q323" t="inlineStr"/>
+      <c r="R323" t="inlineStr"/>
+      <c r="S323" t="inlineStr"/>
+      <c r="T323" t="inlineStr"/>
+      <c r="U323" t="inlineStr"/>
+      <c r="V323" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="W323" t="n">
+        <v>364.7271428571429</v>
+      </c>
+      <c r="X323" t="n">
+        <v>432.1366666666667</v>
+      </c>
+      <c r="Y323" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:00+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>320.5852941176471</v>
+      </c>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" t="inlineStr"/>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="n">
+        <v>307.78</v>
+      </c>
+      <c r="G324" t="n">
+        <v>341.240909090909</v>
+      </c>
+      <c r="H324" t="n">
+        <v>339.0214285714285</v>
+      </c>
+      <c r="I324" t="n">
+        <v>344.71</v>
+      </c>
+      <c r="J324" t="n">
+        <v>360.49</v>
+      </c>
+      <c r="K324" t="n">
+        <v>343.52</v>
+      </c>
+      <c r="L324" t="n">
+        <v>297.53</v>
+      </c>
+      <c r="M324" t="n">
+        <v>287.3309090909091</v>
+      </c>
+      <c r="N324" t="n">
+        <v>302.23</v>
+      </c>
+      <c r="O324" t="n">
+        <v>351.12</v>
+      </c>
+      <c r="P324" t="n">
+        <v>352.4266666666667</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>359.8209090909091</v>
+      </c>
+      <c r="R324" t="n">
+        <v>360.180909090909</v>
+      </c>
+      <c r="S324" t="n">
+        <v>367.110909090909</v>
+      </c>
+      <c r="T324" t="n">
+        <v>364.77</v>
+      </c>
+      <c r="U324" t="n">
+        <v>372.3109090909091</v>
+      </c>
+      <c r="V324" t="n">
+        <v>372.23</v>
+      </c>
+      <c r="W324" t="n">
+        <v>390.5657142857143</v>
+      </c>
+      <c r="X324" t="n">
+        <v>401.2866666666667</v>
+      </c>
+      <c r="Y324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22248,7 +22623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B328"/>
+  <dimension ref="A1:B333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25536,6 +25911,56 @@
       </c>
       <c r="B328" t="n">
         <v>-0.38</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>
@@ -25709,28 +26134,28 @@
         <v>0.09660000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3820223733490895</v>
+        <v>-0.3969694241397151</v>
       </c>
       <c r="J2" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K2" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06408506641033196</v>
+        <v>0.0703906583163354</v>
       </c>
       <c r="M2" t="n">
-        <v>8.382046697052962</v>
+        <v>8.338385439925631</v>
       </c>
       <c r="N2" t="n">
-        <v>113.2160791849819</v>
+        <v>112.2000701095527</v>
       </c>
       <c r="O2" t="n">
-        <v>10.64030446862222</v>
+        <v>10.59245345090327</v>
       </c>
       <c r="P2" t="n">
-        <v>328.3861709263727</v>
+        <v>328.5330908539265</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25787,28 +26212,28 @@
         <v>0.092</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4348962903636795</v>
+        <v>-0.4819261832682645</v>
       </c>
       <c r="J3" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K3" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04592283127856278</v>
+        <v>0.05542392820478048</v>
       </c>
       <c r="M3" t="n">
-        <v>10.93727110268201</v>
+        <v>11.02607955174318</v>
       </c>
       <c r="N3" t="n">
-        <v>208.2031900227913</v>
+        <v>212.9116642311211</v>
       </c>
       <c r="O3" t="n">
-        <v>14.4292477289286</v>
+        <v>14.59149287191414</v>
       </c>
       <c r="P3" t="n">
-        <v>300.4062231779234</v>
+        <v>300.8685037638601</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25865,28 +26290,28 @@
         <v>0.1117</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08785626399078003</v>
+        <v>-0.1426922287977523</v>
       </c>
       <c r="J4" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K4" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001226485199289251</v>
+        <v>0.003261073916867141</v>
       </c>
       <c r="M4" t="n">
-        <v>14.59609076706026</v>
+        <v>14.61374812658096</v>
       </c>
       <c r="N4" t="n">
-        <v>336.4106303539326</v>
+        <v>338.9639250080592</v>
       </c>
       <c r="O4" t="n">
-        <v>18.34150022091793</v>
+        <v>18.41097295115224</v>
       </c>
       <c r="P4" t="n">
-        <v>278.4225642285884</v>
+        <v>278.9501086332862</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25943,28 +26368,28 @@
         <v>0.0861</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2152162369556269</v>
+        <v>-0.252774821509355</v>
       </c>
       <c r="J5" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K5" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007123375058316062</v>
+        <v>0.009943970958547599</v>
       </c>
       <c r="M5" t="n">
-        <v>14.12495291394614</v>
+        <v>14.13033503517143</v>
       </c>
       <c r="N5" t="n">
-        <v>339.8658700446744</v>
+        <v>340.1141437258041</v>
       </c>
       <c r="O5" t="n">
-        <v>18.43545144672824</v>
+        <v>18.44218381119232</v>
       </c>
       <c r="P5" t="n">
-        <v>295.1166984595167</v>
+        <v>295.4886308965171</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26021,28 +26446,28 @@
         <v>0.09420000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2124734454590493</v>
+        <v>-0.2133268734149104</v>
       </c>
       <c r="J6" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K6" t="n">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005093842306687413</v>
+        <v>0.005211901857263612</v>
       </c>
       <c r="M6" t="n">
-        <v>17.74074298809483</v>
+        <v>17.77711299912455</v>
       </c>
       <c r="N6" t="n">
-        <v>444.8342166145276</v>
+        <v>447.5769095177116</v>
       </c>
       <c r="O6" t="n">
-        <v>21.09109330059795</v>
+        <v>21.15601355448875</v>
       </c>
       <c r="P6" t="n">
-        <v>314.8623258797193</v>
+        <v>314.8721807593631</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26099,28 +26524,28 @@
         <v>0.0616</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0912344530875607</v>
+        <v>0.1147814152932865</v>
       </c>
       <c r="J7" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K7" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001301518790311262</v>
+        <v>0.002112464022648863</v>
       </c>
       <c r="M7" t="n">
-        <v>13.97741235563519</v>
+        <v>13.89220907687276</v>
       </c>
       <c r="N7" t="n">
-        <v>320.8166038527896</v>
+        <v>317.2325537266658</v>
       </c>
       <c r="O7" t="n">
-        <v>17.91135404855785</v>
+        <v>17.81102337673683</v>
       </c>
       <c r="P7" t="n">
-        <v>333.8276035065953</v>
+        <v>333.589014017112</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26171,28 +26596,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.3071636520240199</v>
+        <v>0.3295579354775514</v>
       </c>
       <c r="J8" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K8" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01383467186144716</v>
+        <v>0.01639508435118753</v>
       </c>
       <c r="M8" t="n">
-        <v>14.37912262363371</v>
+        <v>14.23340553857309</v>
       </c>
       <c r="N8" t="n">
-        <v>346.7645545898336</v>
+        <v>341.6822061684898</v>
       </c>
       <c r="O8" t="n">
-        <v>18.62161525190104</v>
+        <v>18.48464785081095</v>
       </c>
       <c r="P8" t="n">
-        <v>329.5877775236324</v>
+        <v>329.3641627788606</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26243,28 +26668,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>0.2076358127377525</v>
+        <v>0.2415303061409593</v>
       </c>
       <c r="J9" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K9" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006442694493326795</v>
+        <v>0.008954339220451524</v>
       </c>
       <c r="M9" t="n">
-        <v>14.62651194843483</v>
+        <v>14.52900055548455</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8449251465311</v>
+        <v>347.6562088252447</v>
       </c>
       <c r="O9" t="n">
-        <v>18.75752982528699</v>
+        <v>18.64554125857559</v>
       </c>
       <c r="P9" t="n">
-        <v>329.1146680951273</v>
+        <v>328.7810133061945</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26321,28 +26746,28 @@
         <v>0.0419</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6043282948170121</v>
+        <v>-0.5071130845127748</v>
       </c>
       <c r="J10" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K10" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01642023047111374</v>
+        <v>0.01193684699971576</v>
       </c>
       <c r="M10" t="n">
-        <v>21.74249979913105</v>
+        <v>21.59645067169294</v>
       </c>
       <c r="N10" t="n">
-        <v>1209.777209513944</v>
+        <v>1199.1978995589</v>
       </c>
       <c r="O10" t="n">
-        <v>34.78185172635212</v>
+        <v>34.62943689347114</v>
       </c>
       <c r="P10" t="n">
-        <v>335.7073049085706</v>
+        <v>334.7747299830933</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26399,28 +26824,28 @@
         <v>0.0394</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.4582634758020949</v>
+        <v>-0.3471309150564481</v>
       </c>
       <c r="J11" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K11" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004568502724842438</v>
+        <v>0.002731162805643339</v>
       </c>
       <c r="M11" t="n">
-        <v>31.82781220313577</v>
+        <v>31.51628378174447</v>
       </c>
       <c r="N11" t="n">
-        <v>2262.281460543163</v>
+        <v>2227.110614473637</v>
       </c>
       <c r="O11" t="n">
-        <v>47.56344668485625</v>
+        <v>47.19227282589426</v>
       </c>
       <c r="P11" t="n">
-        <v>331.0612376431814</v>
+        <v>329.9359598845036</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26477,28 +26902,28 @@
         <v>0.0363</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1140769215154494</v>
+        <v>0.1479783564614736</v>
       </c>
       <c r="J12" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K12" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0005774946437921979</v>
+        <v>0.001000363552810635</v>
       </c>
       <c r="M12" t="n">
-        <v>27.4761158600112</v>
+        <v>27.41051565887048</v>
       </c>
       <c r="N12" t="n">
-        <v>1158.043600114848</v>
+        <v>1148.655837716209</v>
       </c>
       <c r="O12" t="n">
-        <v>34.03003967254296</v>
+        <v>33.89182552941357</v>
       </c>
       <c r="P12" t="n">
-        <v>327.1063882841339</v>
+        <v>326.775807676897</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26549,28 +26974,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.5156858195503364</v>
+        <v>0.4424249880220512</v>
       </c>
       <c r="J13" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K13" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0140496045618449</v>
+        <v>0.01030541097247817</v>
       </c>
       <c r="M13" t="n">
-        <v>24.00850395923656</v>
+        <v>24.3919969495341</v>
       </c>
       <c r="N13" t="n">
-        <v>967.9667246090593</v>
+        <v>995.1489278561</v>
       </c>
       <c r="O13" t="n">
-        <v>31.11216361182647</v>
+        <v>31.54598116806799</v>
       </c>
       <c r="P13" t="n">
-        <v>323.8565938393475</v>
+        <v>324.5951433224213</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26627,28 +27052,28 @@
         <v>0.1188</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3197844463928935</v>
+        <v>0.3043944862271576</v>
       </c>
       <c r="J14" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K14" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00438254670761995</v>
+        <v>0.004094330376086197</v>
       </c>
       <c r="M14" t="n">
-        <v>27.71892898322892</v>
+        <v>27.65692449945166</v>
       </c>
       <c r="N14" t="n">
-        <v>1183.609772894555</v>
+        <v>1172.224758399268</v>
       </c>
       <c r="O14" t="n">
-        <v>34.40363022843019</v>
+        <v>34.23776801135359</v>
       </c>
       <c r="P14" t="n">
-        <v>324.105999616191</v>
+        <v>324.262822306292</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26705,28 +27130,28 @@
         <v>0.0794</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.01247025138305058</v>
+        <v>0.09029804437449943</v>
       </c>
       <c r="J15" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K15" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L15" t="n">
-        <v>5.952789853158613e-06</v>
+        <v>0.0003214505180790805</v>
       </c>
       <c r="M15" t="n">
-        <v>28.79954748212209</v>
+        <v>28.56024079449459</v>
       </c>
       <c r="N15" t="n">
-        <v>1274.778426614071</v>
+        <v>1262.263750101675</v>
       </c>
       <c r="O15" t="n">
-        <v>35.70403935991096</v>
+        <v>35.52835135636996</v>
       </c>
       <c r="P15" t="n">
-        <v>335.0541832067867</v>
+        <v>333.9842467991102</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26783,28 +27208,28 @@
         <v>0.0488</v>
       </c>
       <c r="I16" t="n">
-        <v>0.004092901787974489</v>
+        <v>0.03585531489578406</v>
       </c>
       <c r="J16" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K16" t="n">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L16" t="n">
-        <v>2.217269461368687e-06</v>
+        <v>0.0001758778807292583</v>
       </c>
       <c r="M16" t="n">
-        <v>15.70891269842243</v>
+        <v>15.55102003721588</v>
       </c>
       <c r="N16" t="n">
-        <v>390.030620389998</v>
+        <v>384.0668124289176</v>
       </c>
       <c r="O16" t="n">
-        <v>19.74919290477457</v>
+        <v>19.59762262186201</v>
       </c>
       <c r="P16" t="n">
-        <v>352.8619553355302</v>
+        <v>352.5416907054552</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26861,28 +27286,28 @@
         <v>0.0603</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2101877414383045</v>
+        <v>0.2451850090976747</v>
       </c>
       <c r="J17" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K17" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L17" t="n">
-        <v>0.007804088510151574</v>
+        <v>0.01084362727380195</v>
       </c>
       <c r="M17" t="n">
-        <v>13.5625395021822</v>
+        <v>13.51535870918272</v>
       </c>
       <c r="N17" t="n">
-        <v>298.3259392717483</v>
+        <v>295.9165242352886</v>
       </c>
       <c r="O17" t="n">
-        <v>17.27211449915002</v>
+        <v>17.20222439788787</v>
       </c>
       <c r="P17" t="n">
-        <v>350.173542509881</v>
+        <v>349.8321135190361</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26933,28 +27358,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.2883241131975335</v>
+        <v>0.3128212164983441</v>
       </c>
       <c r="J18" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K18" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01532355752702874</v>
+        <v>0.01845984547368451</v>
       </c>
       <c r="M18" t="n">
-        <v>13.81748940155501</v>
+        <v>13.72170927510884</v>
       </c>
       <c r="N18" t="n">
-        <v>286.3272929999534</v>
+        <v>283.0155281042104</v>
       </c>
       <c r="O18" t="n">
-        <v>16.92120837883493</v>
+        <v>16.82306535992208</v>
       </c>
       <c r="P18" t="n">
-        <v>347.0989989234292</v>
+        <v>346.8604874203359</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27011,28 +27436,28 @@
         <v>0.0659</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2712193944091564</v>
+        <v>0.3083649714960367</v>
       </c>
       <c r="J19" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K19" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01339417069759863</v>
+        <v>0.01760396318271307</v>
       </c>
       <c r="M19" t="n">
-        <v>13.87920864726733</v>
+        <v>13.84802959349772</v>
       </c>
       <c r="N19" t="n">
-        <v>292.5527274060524</v>
+        <v>290.3978213826838</v>
       </c>
       <c r="O19" t="n">
-        <v>17.10417280683437</v>
+        <v>17.04106280085499</v>
       </c>
       <c r="P19" t="n">
-        <v>343.1610331704316</v>
+        <v>342.7958716537822</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27089,28 +27514,28 @@
         <v>0.0699</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4896786008135389</v>
+        <v>0.5483599387367298</v>
       </c>
       <c r="J20" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K20" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03298946754989007</v>
+        <v>0.04165185895680701</v>
       </c>
       <c r="M20" t="n">
-        <v>14.93139726292471</v>
+        <v>14.98375495723501</v>
       </c>
       <c r="N20" t="n">
-        <v>368.9415085227285</v>
+        <v>368.5755410206249</v>
       </c>
       <c r="O20" t="n">
-        <v>19.20785017962001</v>
+        <v>19.19832130735979</v>
       </c>
       <c r="P20" t="n">
-        <v>335.0791808858705</v>
+        <v>334.4952849157012</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27167,28 +27592,28 @@
         <v>0.0607</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5841130444546463</v>
+        <v>0.6676670155614983</v>
       </c>
       <c r="J21" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K21" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L21" t="n">
-        <v>0.04621091518649645</v>
+        <v>0.05954987447290072</v>
       </c>
       <c r="M21" t="n">
-        <v>15.52508098138501</v>
+        <v>15.69700040493265</v>
       </c>
       <c r="N21" t="n">
-        <v>378.149256643232</v>
+        <v>383.6418317148092</v>
       </c>
       <c r="O21" t="n">
-        <v>19.44606018306104</v>
+        <v>19.5867769608685</v>
       </c>
       <c r="P21" t="n">
-        <v>333.9251274443679</v>
+        <v>333.106276199834</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -27245,28 +27670,28 @@
         <v>0.0765</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5166988923257921</v>
+        <v>0.5943171828075879</v>
       </c>
       <c r="J22" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K22" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03370313126366686</v>
+        <v>0.04422481249521726</v>
       </c>
       <c r="M22" t="n">
-        <v>16.2672140165494</v>
+        <v>16.45562510038853</v>
       </c>
       <c r="N22" t="n">
-        <v>411.6082471767033</v>
+        <v>417.3402915934112</v>
       </c>
       <c r="O22" t="n">
-        <v>20.2881306969544</v>
+        <v>20.42890823302634</v>
       </c>
       <c r="P22" t="n">
-        <v>332.5491366779984</v>
+        <v>331.7820358647381</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -27317,28 +27742,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>0.352232547876353</v>
+        <v>0.4794079878547611</v>
       </c>
       <c r="J23" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K23" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01644034808721384</v>
+        <v>0.02938305547009701</v>
       </c>
       <c r="M23" t="n">
-        <v>15.77098815601397</v>
+        <v>16.15987807396603</v>
       </c>
       <c r="N23" t="n">
-        <v>394.8623820720397</v>
+        <v>411.030260679824</v>
       </c>
       <c r="O23" t="n">
-        <v>19.87114445803361</v>
+        <v>20.27388124360563</v>
       </c>
       <c r="P23" t="n">
-        <v>332.7486583589898</v>
+        <v>331.491218242869</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -27395,28 +27820,28 @@
         <v>0.0547</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4723760574457125</v>
+        <v>0.6765933711715758</v>
       </c>
       <c r="J24" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K24" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02727583479716944</v>
+        <v>0.04919924930672681</v>
       </c>
       <c r="M24" t="n">
-        <v>16.23895119190523</v>
+        <v>17.12245210161055</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3608928855083</v>
+        <v>479.3496464597963</v>
       </c>
       <c r="O24" t="n">
-        <v>20.57573553692573</v>
+        <v>21.89405504834123</v>
       </c>
       <c r="P24" t="n">
-        <v>329.2842585051444</v>
+        <v>327.2677850239505</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -27454,7 +27879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y319"/>
+  <dimension ref="A1:Y324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59807,6 +60232,581 @@
         </is>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>-38.49569645158986,174.63594161936615</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>-38.49512329024203,174.63655562489464</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>-38.49451226085451,174.63703684301103</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>-38.49380649917108,174.63718584040822</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>-38.49299508460806,174.6370213586532</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>-38.49226127588845,174.63701244428609</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>-38.491550788076445,174.63707934700196</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>-38.49084710403124,174.63714133050976</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>-38.4901433405996,174.63721120847745</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>-38.48944110354755,174.63711413306208</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>-38.48873907949712,174.636993102436</t>
+        </is>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>-38.48803591330165,174.63696186965106</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>-38.48733206175911,174.63695010875347</t>
+        </is>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>-38.48663413349777,174.6368209501645</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>-38.48593550362854,174.63671218344152</t>
+        </is>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>-38.485238844136155,174.6365707349402</t>
+        </is>
+      </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>-38.484535073741895,174.63654671041166</t>
+        </is>
+      </c>
+      <c r="S320" t="inlineStr">
+        <is>
+          <t>-38.4838311720793,174.6365247424217</t>
+        </is>
+      </c>
+      <c r="T320" t="inlineStr">
+        <is>
+          <t>-38.4831294288785,174.63646698421863</t>
+        </is>
+      </c>
+      <c r="U320" t="inlineStr">
+        <is>
+          <t>-38.4824341347256,174.63630251651983</t>
+        </is>
+      </c>
+      <c r="V320" t="inlineStr">
+        <is>
+          <t>-38.48172842977845,174.63631001659826</t>
+        </is>
+      </c>
+      <c r="W320" t="inlineStr">
+        <is>
+          <t>-38.48102619616746,174.63626002566528</t>
+        </is>
+      </c>
+      <c r="X320" t="inlineStr">
+        <is>
+          <t>-38.480333670483105,174.63604945861792</t>
+        </is>
+      </c>
+      <c r="Y320" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>-38.4956850130284,174.63590150283306</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>-38.49511728273798,174.63653455560208</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>-38.49450399001056,174.63700783571966</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>-38.49378222796328,174.63710071792417</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>-38.49306496707172,174.637327089229</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>-38.49226849734227,174.6371023859359</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>-38.491550643107686,174.637095133423</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>-38.4908487374748,174.63696344877502</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>-38.490145527641324,174.63697304667042</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>-38.48944212210461,174.6370032110312</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>-38.48873989059593,174.63690476304282</t>
+        </is>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>-38.48803551911529,174.63697993316828</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>-38.48732679441599,174.6370610430351</t>
+        </is>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>-38.4866315150975,174.63686422935402</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>-38.48593794065624,174.63667190166584</t>
+        </is>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>-38.485240727397496,174.63653960609963</t>
+        </is>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>-38.48453226895884,174.63659307073485</t>
+        </is>
+      </c>
+      <c r="S321" t="inlineStr">
+        <is>
+          <t>-38.4838284917662,174.6365690450886</t>
+        </is>
+      </c>
+      <c r="T321" t="inlineStr">
+        <is>
+          <t>-38.48313294369765,174.6364088877402</t>
+        </is>
+      </c>
+      <c r="U321" t="inlineStr">
+        <is>
+          <t>-38.4824368061387,174.6362583601497</t>
+        </is>
+      </c>
+      <c r="V321" t="inlineStr">
+        <is>
+          <t>-38.48173829172616,174.63614700670516</t>
+        </is>
+      </c>
+      <c r="W321" t="inlineStr">
+        <is>
+          <t>-38.48103402859806,174.63613056268005</t>
+        </is>
+      </c>
+      <c r="X321" t="inlineStr">
+        <is>
+          <t>-38.48033280238831,174.63606380758188</t>
+        </is>
+      </c>
+      <c r="Y321" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>-38.495716192474916,174.63601085338007</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-38.49514549185381,174.63663348970078</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>-38.494541111713275,174.63713802825305</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>-38.49382451926183,174.63724903953903</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>-38.49297858679319,174.63694918254228</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>-38.492266420401,174.63707651799007</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>-38.49155141319225,174.63701127215344</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>-38.49084705876457,174.63714625962427</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>-38.490143596066,174.63718339173028</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>-38.48944159161193,174.63706098371918</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>-38.48873863918852,174.63704105482972</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>-38.48803588374915,174.63696322389399</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>-38.48733032591083,174.63698666729408</t>
+        </is>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>-38.48663401825162,174.63682285505848</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>-38.48593172897421,174.63677457447048</t>
+        </is>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>-38.48523343819999,174.63666009007926</t>
+        </is>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>-38.484529128485285,174.6366449793301</t>
+        </is>
+      </c>
+      <c r="S322" t="inlineStr">
+        <is>
+          <t>-38.48382640231729,174.63660358121743</t>
+        </is>
+      </c>
+      <c r="T322" t="inlineStr">
+        <is>
+          <t>-38.48313100075526,174.63644100271242</t>
+        </is>
+      </c>
+      <c r="U322" t="inlineStr">
+        <is>
+          <t>-38.48243774521504,174.63624283788596</t>
+        </is>
+      </c>
+      <c r="V322" t="inlineStr">
+        <is>
+          <t>-38.481733299705155,174.63622952118436</t>
+        </is>
+      </c>
+      <c r="W322" t="inlineStr">
+        <is>
+          <t>-38.4810336572119,174.63613670141075</t>
+        </is>
+      </c>
+      <c r="X322" t="inlineStr">
+        <is>
+          <t>-38.48033239215528,174.63607058841959</t>
+        </is>
+      </c>
+      <c r="Y322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr"/>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>-38.495242778846155,174.6369746943651</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>-38.494618336931,174.63740887315214</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>-38.49390371945191,174.63752680816262</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>-38.493149995790915,174.63769908909964</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr"/>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>-38.48800981666257,174.63815746758942</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>-38.48730008935762,174.63762343777142</t>
+        </is>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>-38.48664567870126,174.63663011784894</t>
+        </is>
+      </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>-38.48593713471765,174.6366852230983</t>
+        </is>
+      </c>
+      <c r="Q323" t="inlineStr"/>
+      <c r="R323" t="inlineStr"/>
+      <c r="S323" t="inlineStr"/>
+      <c r="T323" t="inlineStr"/>
+      <c r="U323" t="inlineStr"/>
+      <c r="V323" t="inlineStr">
+        <is>
+          <t>-38.481705277858794,174.63669268392533</t>
+        </is>
+      </c>
+      <c r="W323" t="inlineStr">
+        <is>
+          <t>-38.48102446201006,174.63628868939372</t>
+        </is>
+      </c>
+      <c r="X323" t="inlineStr">
+        <is>
+          <t>-38.48036934459227,174.63545976663988</t>
+        </is>
+      </c>
+      <c r="Y323" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:00+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>-38.49567155534762,174.63585430506296</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" t="inlineStr"/>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>-38.49305209272305,174.63727076460253</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>-38.492269197424186,174.63711110535198</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>-38.4915502463877,174.63713833319287</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>-38.49084773023712,174.63707314027076</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>-38.49014626929396,174.6368922711041</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>-38.48944135442477,174.63708681330658</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>-38.48873337677181,174.63761399986421</t>
+        </is>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>-38.48801913154962,174.63773077727203</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>-38.487304504163916,174.63753046817843</t>
+        </is>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>-38.486628592427685,174.63691253745907</t>
+        </is>
+      </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>-38.4859278275157,174.6368390608546</t>
+        </is>
+      </c>
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>-38.48523126512024,174.6366960087627</t>
+        </is>
+      </c>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>-38.484529831887976,174.63663335288578</t>
+        </is>
+      </c>
+      <c r="S324" t="inlineStr">
+        <is>
+          <t>-38.48383293464007,174.63649560905233</t>
+        </is>
+      </c>
+      <c r="T324" t="inlineStr">
+        <is>
+          <t>-38.48312962017759,174.63646382224655</t>
+        </is>
+      </c>
+      <c r="U324" t="inlineStr">
+        <is>
+          <t>-38.482433131527124,174.63631909853453</t>
+        </is>
+      </c>
+      <c r="V324" t="inlineStr">
+        <is>
+          <t>-38.48173136603049,174.63626148316047</t>
+        </is>
+      </c>
+      <c r="W324" t="inlineStr">
+        <is>
+          <t>-38.481042327085326,174.63599339359334</t>
+        </is>
+      </c>
+      <c r="X324" t="inlineStr">
+        <is>
+          <t>-38.48034801607246,174.63581233240592</t>
+        </is>
+      </c>
+      <c r="Y324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0260/nzd0260.xlsx
+++ b/data/nzd0260/nzd0260.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y324"/>
+  <dimension ref="A1:Y326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22546,9 +22546,15 @@
       <c r="B324" t="n">
         <v>320.5852941176471</v>
       </c>
-      <c r="C324" t="inlineStr"/>
-      <c r="D324" t="inlineStr"/>
-      <c r="E324" t="inlineStr"/>
+      <c r="C324" t="n">
+        <v>292.24</v>
+      </c>
+      <c r="D324" t="n">
+        <v>278.9163157894737</v>
+      </c>
+      <c r="E324" t="n">
+        <v>297.6242857142857</v>
+      </c>
       <c r="F324" t="n">
         <v>307.78</v>
       </c>
@@ -22609,6 +22615,154 @@
       <c r="Y324" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>330.5258823529412</v>
+      </c>
+      <c r="C325" t="n">
+        <v>303.3</v>
+      </c>
+      <c r="D325" t="n">
+        <v>279.3163157894737</v>
+      </c>
+      <c r="E325" t="n">
+        <v>297.9228571428571</v>
+      </c>
+      <c r="F325" t="n">
+        <v>307.4166666666666</v>
+      </c>
+      <c r="G325" t="n">
+        <v>342.11</v>
+      </c>
+      <c r="H325" t="n">
+        <v>344.6542857142857</v>
+      </c>
+      <c r="I325" t="n">
+        <v>349.2130434782609</v>
+      </c>
+      <c r="J325" t="n">
+        <v>229.0566666666667</v>
+      </c>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>308.6566666666667</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+      <c r="N325" t="n">
+        <v>298.9</v>
+      </c>
+      <c r="O325" t="n">
+        <v>306.7533333333333</v>
+      </c>
+      <c r="P325" t="n">
+        <v>369.4111111111112</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>363.65</v>
+      </c>
+      <c r="R325" t="n">
+        <v>357.64</v>
+      </c>
+      <c r="S325" t="n">
+        <v>358.97</v>
+      </c>
+      <c r="T325" t="n">
+        <v>353.1733333333333</v>
+      </c>
+      <c r="U325" t="n">
+        <v>329.89</v>
+      </c>
+      <c r="V325" t="n">
+        <v>348.8133333333333</v>
+      </c>
+      <c r="W325" t="n">
+        <v>373.0638095238096</v>
+      </c>
+      <c r="X325" t="inlineStr"/>
+      <c r="Y325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>320.1782352941176</v>
+      </c>
+      <c r="C326" t="n">
+        <v>282.83</v>
+      </c>
+      <c r="D326" t="n">
+        <v>251.3978947368421</v>
+      </c>
+      <c r="E326" t="n">
+        <v>280.8585714285715</v>
+      </c>
+      <c r="F326" t="inlineStr"/>
+      <c r="G326" t="n">
+        <v>326.3363636363636</v>
+      </c>
+      <c r="H326" t="n">
+        <v>322.8928571428572</v>
+      </c>
+      <c r="I326" t="n">
+        <v>318.63</v>
+      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
+      <c r="M326" t="n">
+        <v>271.0063636363636</v>
+      </c>
+      <c r="N326" t="n">
+        <v>270.44</v>
+      </c>
+      <c r="O326" t="n">
+        <v>267.8633333333333</v>
+      </c>
+      <c r="P326" t="n">
+        <v>352.8877777777778</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>353.1663636363636</v>
+      </c>
+      <c r="R326" t="n">
+        <v>357.9163636363636</v>
+      </c>
+      <c r="S326" t="n">
+        <v>348.9763636363636</v>
+      </c>
+      <c r="T326" t="n">
+        <v>351.2833333333333</v>
+      </c>
+      <c r="U326" t="n">
+        <v>344.9163636363636</v>
+      </c>
+      <c r="V326" t="n">
+        <v>351.9333333333333</v>
+      </c>
+      <c r="W326" t="n">
+        <v>363.2480952380952</v>
+      </c>
+      <c r="X326" t="n">
+        <v>362.2077777777778</v>
+      </c>
+      <c r="Y326" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -22623,7 +22777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B333"/>
+  <dimension ref="A1:B335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25961,6 +26115,26 @@
       </c>
       <c r="B333" t="n">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>-0.46</v>
       </c>
     </row>
   </sheetData>
@@ -26134,28 +26308,28 @@
         <v>0.09660000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3969694241397151</v>
+        <v>-0.3866019883221768</v>
       </c>
       <c r="J2" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K2" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0703906583163354</v>
+        <v>0.06763401902008348</v>
       </c>
       <c r="M2" t="n">
-        <v>8.338385439925631</v>
+        <v>8.326263788894725</v>
       </c>
       <c r="N2" t="n">
-        <v>112.2000701095527</v>
+        <v>111.8800639031444</v>
       </c>
       <c r="O2" t="n">
-        <v>10.59245345090327</v>
+        <v>10.57733727849993</v>
       </c>
       <c r="P2" t="n">
-        <v>328.5330908539265</v>
+        <v>328.4303959481645</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26212,28 +26386,28 @@
         <v>0.092</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4819261832682645</v>
+        <v>-0.4728415341772245</v>
       </c>
       <c r="J3" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K3" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05542392820478048</v>
+        <v>0.05437285816983384</v>
       </c>
       <c r="M3" t="n">
-        <v>11.02607955174318</v>
+        <v>10.98619378204975</v>
       </c>
       <c r="N3" t="n">
-        <v>212.9116642311211</v>
+        <v>211.4056777438443</v>
       </c>
       <c r="O3" t="n">
-        <v>14.59149287191414</v>
+        <v>14.53979634464817</v>
       </c>
       <c r="P3" t="n">
-        <v>300.8685037638601</v>
+        <v>300.7789143780253</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26290,28 +26464,28 @@
         <v>0.1117</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1426922287977523</v>
+        <v>-0.1556514579872485</v>
       </c>
       <c r="J4" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K4" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003261073916867141</v>
+        <v>0.003946381865411963</v>
       </c>
       <c r="M4" t="n">
-        <v>14.61374812658096</v>
+        <v>14.55778166374485</v>
       </c>
       <c r="N4" t="n">
-        <v>338.9639250080592</v>
+        <v>337.2043211049249</v>
       </c>
       <c r="O4" t="n">
-        <v>18.41097295115224</v>
+        <v>18.36312394732783</v>
       </c>
       <c r="P4" t="n">
-        <v>278.9501086332862</v>
+        <v>279.0756473149691</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26368,28 +26542,28 @@
         <v>0.0861</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.252774821509355</v>
+        <v>-0.2458061992440888</v>
       </c>
       <c r="J5" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K5" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009943970958547599</v>
+        <v>0.009604017093165162</v>
       </c>
       <c r="M5" t="n">
-        <v>14.13033503517143</v>
+        <v>14.05734121466968</v>
       </c>
       <c r="N5" t="n">
-        <v>340.1141437258041</v>
+        <v>336.7827604405289</v>
       </c>
       <c r="O5" t="n">
-        <v>18.44218381119232</v>
+        <v>18.35164190040033</v>
       </c>
       <c r="P5" t="n">
-        <v>295.4886308965171</v>
+        <v>295.4195539020784</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26446,28 +26620,28 @@
         <v>0.09420000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2133268734149104</v>
+        <v>-0.2149619980695254</v>
       </c>
       <c r="J6" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K6" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005211901857263612</v>
+        <v>0.005334468320271291</v>
       </c>
       <c r="M6" t="n">
-        <v>17.77711299912455</v>
+        <v>17.71277915255852</v>
       </c>
       <c r="N6" t="n">
-        <v>447.5769095177116</v>
+        <v>445.7670010662782</v>
       </c>
       <c r="O6" t="n">
-        <v>21.15601355448875</v>
+        <v>21.11319495164761</v>
       </c>
       <c r="P6" t="n">
-        <v>314.8721807593631</v>
+        <v>314.8887164215197</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26524,28 +26698,28 @@
         <v>0.0616</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1147814152932865</v>
+        <v>0.1115358064359876</v>
       </c>
       <c r="J7" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K7" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002112464022648863</v>
+        <v>0.002020780536720612</v>
       </c>
       <c r="M7" t="n">
-        <v>13.89220907687276</v>
+        <v>13.84843208175039</v>
       </c>
       <c r="N7" t="n">
-        <v>317.2325537266658</v>
+        <v>315.4147831047715</v>
       </c>
       <c r="O7" t="n">
-        <v>17.81102337673683</v>
+        <v>17.75992069534015</v>
       </c>
       <c r="P7" t="n">
-        <v>333.589014017112</v>
+        <v>333.6221956985755</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26596,28 +26770,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.3295579354775514</v>
+        <v>0.3230073007707669</v>
       </c>
       <c r="J8" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K8" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01639508435118753</v>
+        <v>0.01596965761178337</v>
       </c>
       <c r="M8" t="n">
-        <v>14.23340553857309</v>
+        <v>14.20612122385923</v>
       </c>
       <c r="N8" t="n">
-        <v>341.6822061684898</v>
+        <v>339.8652558822067</v>
       </c>
       <c r="O8" t="n">
-        <v>18.48464785081095</v>
+        <v>18.43543478961662</v>
       </c>
       <c r="P8" t="n">
-        <v>329.3641627788606</v>
+        <v>329.4301464101178</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26668,28 +26842,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>0.2415303061409593</v>
+        <v>0.2398040728106927</v>
       </c>
       <c r="J9" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K9" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008954339220451524</v>
+        <v>0.008927270588501512</v>
       </c>
       <c r="M9" t="n">
-        <v>14.52900055548455</v>
+        <v>14.53614976862854</v>
       </c>
       <c r="N9" t="n">
-        <v>347.6562088252447</v>
+        <v>346.6019570522265</v>
       </c>
       <c r="O9" t="n">
-        <v>18.64554125857559</v>
+        <v>18.61724891202313</v>
       </c>
       <c r="P9" t="n">
-        <v>328.7810133061945</v>
+        <v>328.7982738855083</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26746,28 +26920,28 @@
         <v>0.0419</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5071130845127748</v>
+        <v>-0.5970331869610991</v>
       </c>
       <c r="J10" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K10" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01193684699971576</v>
+        <v>0.01602031414116345</v>
       </c>
       <c r="M10" t="n">
-        <v>21.59645067169294</v>
+        <v>22.17380034419065</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.1978995589</v>
+        <v>1238.839377418406</v>
       </c>
       <c r="O10" t="n">
-        <v>34.62943689347114</v>
+        <v>35.19715013205481</v>
       </c>
       <c r="P10" t="n">
-        <v>334.7747299830933</v>
+        <v>335.6422219432305</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26827,7 +27001,7 @@
         <v>-0.3471309150564481</v>
       </c>
       <c r="J11" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K11" t="n">
         <v>185</v>
@@ -26902,28 +27076,28 @@
         <v>0.0363</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1479783564614736</v>
+        <v>0.1273554688380151</v>
       </c>
       <c r="J12" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K12" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001000363552810635</v>
+        <v>0.0007470579402021338</v>
       </c>
       <c r="M12" t="n">
-        <v>27.41051565887048</v>
+        <v>27.39636967774287</v>
       </c>
       <c r="N12" t="n">
-        <v>1148.655837716209</v>
+        <v>1145.414795498374</v>
       </c>
       <c r="O12" t="n">
-        <v>33.89182552941357</v>
+        <v>33.84397724113366</v>
       </c>
       <c r="P12" t="n">
-        <v>326.775807676897</v>
+        <v>326.9791913395262</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26974,28 +27148,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.4424249880220512</v>
+        <v>0.3873297552558904</v>
       </c>
       <c r="J13" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K13" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01030541097247817</v>
+        <v>0.007835993360101434</v>
       </c>
       <c r="M13" t="n">
-        <v>24.3919969495341</v>
+        <v>24.64728055299031</v>
       </c>
       <c r="N13" t="n">
-        <v>995.1489278561</v>
+        <v>1009.535703666001</v>
       </c>
       <c r="O13" t="n">
-        <v>31.54598116806799</v>
+        <v>31.77319158765768</v>
       </c>
       <c r="P13" t="n">
-        <v>324.5951433224213</v>
+        <v>325.1514824356726</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27052,28 +27226,28 @@
         <v>0.1188</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3043944862271576</v>
+        <v>0.2291272426633789</v>
       </c>
       <c r="J14" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K14" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004094330376086197</v>
+        <v>0.002322160506274984</v>
       </c>
       <c r="M14" t="n">
-        <v>27.65692449945166</v>
+        <v>27.94523929113427</v>
       </c>
       <c r="N14" t="n">
-        <v>1172.224758399268</v>
+        <v>1182.344007062157</v>
       </c>
       <c r="O14" t="n">
-        <v>34.23776801135359</v>
+        <v>34.38522948974104</v>
       </c>
       <c r="P14" t="n">
-        <v>324.262822306292</v>
+        <v>325.0237941253782</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27130,28 +27304,28 @@
         <v>0.0794</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09029804437449943</v>
+        <v>0.01181161793941882</v>
       </c>
       <c r="J15" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K15" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003214505180790805</v>
+        <v>5.491163251991615e-06</v>
       </c>
       <c r="M15" t="n">
-        <v>28.56024079449459</v>
+        <v>28.8402042464351</v>
       </c>
       <c r="N15" t="n">
-        <v>1262.263750101675</v>
+        <v>1274.299068422892</v>
       </c>
       <c r="O15" t="n">
-        <v>35.52835135636996</v>
+        <v>35.697325788116</v>
       </c>
       <c r="P15" t="n">
-        <v>333.9842467991102</v>
+        <v>334.8062488980526</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27208,28 +27382,28 @@
         <v>0.0488</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03585531489578406</v>
+        <v>0.04733809450288361</v>
       </c>
       <c r="J16" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K16" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001758778807292583</v>
+        <v>0.0003102857567393036</v>
       </c>
       <c r="M16" t="n">
-        <v>15.55102003721588</v>
+        <v>15.48746274034346</v>
       </c>
       <c r="N16" t="n">
-        <v>384.0668124289176</v>
+        <v>381.9871531618432</v>
       </c>
       <c r="O16" t="n">
-        <v>19.59762262186201</v>
+        <v>19.5444916322181</v>
       </c>
       <c r="P16" t="n">
-        <v>352.5416907054552</v>
+        <v>352.4251572935519</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27286,28 +27460,28 @@
         <v>0.0603</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2451850090976747</v>
+        <v>0.2487976446964057</v>
       </c>
       <c r="J17" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K17" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01084362727380195</v>
+        <v>0.01132820429316539</v>
       </c>
       <c r="M17" t="n">
-        <v>13.51535870918272</v>
+        <v>13.44660678952869</v>
       </c>
       <c r="N17" t="n">
-        <v>295.9165242352886</v>
+        <v>293.7609974469221</v>
       </c>
       <c r="O17" t="n">
-        <v>17.20222439788787</v>
+        <v>17.13945732650022</v>
       </c>
       <c r="P17" t="n">
-        <v>349.8321135190361</v>
+        <v>349.796642779939</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27358,28 +27532,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.3128212164983441</v>
+        <v>0.317173989090395</v>
       </c>
       <c r="J18" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K18" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01845984547368451</v>
+        <v>0.01924388719634773</v>
       </c>
       <c r="M18" t="n">
-        <v>13.72170927510884</v>
+        <v>13.6352942855574</v>
       </c>
       <c r="N18" t="n">
-        <v>283.0155281042104</v>
+        <v>280.8558596982064</v>
       </c>
       <c r="O18" t="n">
-        <v>16.82306535992208</v>
+        <v>16.75875471800355</v>
       </c>
       <c r="P18" t="n">
-        <v>346.8604874203359</v>
+        <v>346.8177806644915</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27436,28 +27610,28 @@
         <v>0.0659</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3083649714960367</v>
+        <v>0.3132944906675421</v>
       </c>
       <c r="J19" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K19" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01760396318271307</v>
+        <v>0.01840726255582259</v>
       </c>
       <c r="M19" t="n">
-        <v>13.84802959349772</v>
+        <v>13.77439811648803</v>
       </c>
       <c r="N19" t="n">
-        <v>290.3978213826838</v>
+        <v>288.3128581003633</v>
       </c>
       <c r="O19" t="n">
-        <v>17.04106280085499</v>
+        <v>16.97977791669736</v>
       </c>
       <c r="P19" t="n">
-        <v>342.7958716537822</v>
+        <v>342.7471216666613</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27514,28 +27688,28 @@
         <v>0.0699</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5483599387367298</v>
+        <v>0.5542185835712322</v>
       </c>
       <c r="J20" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K20" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04165185895680701</v>
+        <v>0.04312720971996253</v>
       </c>
       <c r="M20" t="n">
-        <v>14.98375495723501</v>
+        <v>14.89074017792061</v>
       </c>
       <c r="N20" t="n">
-        <v>368.5755410206249</v>
+        <v>365.6553710319837</v>
       </c>
       <c r="O20" t="n">
-        <v>19.19832130735979</v>
+        <v>19.12211732606993</v>
       </c>
       <c r="P20" t="n">
-        <v>334.4952849157012</v>
+        <v>334.4365991305021</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27592,28 +27766,28 @@
         <v>0.0607</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6676670155614983</v>
+        <v>0.6483629600487827</v>
       </c>
       <c r="J21" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K21" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05954987447290072</v>
+        <v>0.05692719600207241</v>
       </c>
       <c r="M21" t="n">
-        <v>15.69700040493265</v>
+        <v>15.67392641926972</v>
       </c>
       <c r="N21" t="n">
-        <v>383.6418317148092</v>
+        <v>382.2001676515548</v>
       </c>
       <c r="O21" t="n">
-        <v>19.5867769608685</v>
+        <v>19.54994034905362</v>
       </c>
       <c r="P21" t="n">
-        <v>333.106276199834</v>
+        <v>333.2967282720069</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -27670,28 +27844,28 @@
         <v>0.0765</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5943171828075879</v>
+        <v>0.5995268570912635</v>
       </c>
       <c r="J22" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K22" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L22" t="n">
-        <v>0.04422481249521726</v>
+        <v>0.04558885297705206</v>
       </c>
       <c r="M22" t="n">
-        <v>16.45562510038853</v>
+        <v>16.34764404345507</v>
       </c>
       <c r="N22" t="n">
-        <v>417.3402915934112</v>
+        <v>413.9836920693932</v>
       </c>
       <c r="O22" t="n">
-        <v>20.42890823302634</v>
+        <v>20.34658919989769</v>
       </c>
       <c r="P22" t="n">
-        <v>331.7820358647381</v>
+        <v>331.7301457610146</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -27742,28 +27916,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>0.4794079878547611</v>
+        <v>0.5154452098989276</v>
       </c>
       <c r="J23" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K23" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02938305547009701</v>
+        <v>0.03390043226251771</v>
       </c>
       <c r="M23" t="n">
-        <v>16.15987807396603</v>
+        <v>16.22896881664579</v>
       </c>
       <c r="N23" t="n">
-        <v>411.030260679824</v>
+        <v>412.6518753024142</v>
       </c>
       <c r="O23" t="n">
-        <v>20.27388124360563</v>
+        <v>20.31383457898617</v>
       </c>
       <c r="P23" t="n">
-        <v>331.491218242869</v>
+        <v>331.132760424306</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -27820,28 +27994,28 @@
         <v>0.0547</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6765933711715758</v>
+        <v>0.6902421949282013</v>
       </c>
       <c r="J24" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K24" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04919924930672681</v>
+        <v>0.05134412951103395</v>
       </c>
       <c r="M24" t="n">
-        <v>17.12245210161055</v>
+        <v>17.1335985182561</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3496464597963</v>
+        <v>478.6509375010282</v>
       </c>
       <c r="O24" t="n">
-        <v>21.89405504834123</v>
+        <v>21.8780926385512</v>
       </c>
       <c r="P24" t="n">
-        <v>327.2677850239505</v>
+        <v>327.1321612624308</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -27879,7 +28053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y324"/>
+  <dimension ref="A1:Y326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60703,9 +60877,21 @@
           <t>-38.49567155534762,174.63585430506296</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr"/>
-      <c r="D324" t="inlineStr"/>
-      <c r="E324" t="inlineStr"/>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>-38.495100704464996,174.6364764129939</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-38.49448368646447,174.63693662778127</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>-38.49376823325005,174.63705163665446</t>
+        </is>
+      </c>
       <c r="F324" t="inlineStr">
         <is>
           <t>-38.49305209272305,174.63727076460253</t>
@@ -60804,6 +60990,232 @@
       <c r="Y324" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>-38.495641008418836,174.63574717347828</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>-38.495066718144905,174.6363572180334</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>-38.49448245731736,174.6369323169626</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>-38.493767315779095,174.63704841896833</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>-38.49305300692853,174.63727476420078</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>-38.49226840161164,174.6371011936257</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>-38.49155083935639,174.6370737628011</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>-38.490848204236045,174.63702152162372</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>-38.49013242693555,174.63839888383245</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>-38.48873454846789,174.63748645799782</t>
+        </is>
+      </c>
+      <c r="M325" t="inlineStr"/>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>-38.48730269478144,174.63756857141024</t>
+        </is>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>-38.48659791241664,174.63741961989209</t>
+        </is>
+      </c>
+      <c r="P325" t="inlineStr">
+        <is>
+          <t>-38.485939571736125,174.63664494132047</t>
+        </is>
+      </c>
+      <c r="Q325" t="inlineStr">
+        <is>
+          <t>-38.48523391279362,174.6366522455299</t>
+        </is>
+      </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>-38.484528074950596,174.63666239302097</t>
+        </is>
+      </c>
+      <c r="S325" t="inlineStr">
+        <is>
+          <t>-38.48382730560918,174.63658865088766</t>
+        </is>
+      </c>
+      <c r="T325" t="inlineStr">
+        <is>
+          <t>-38.48312160167646,174.63659635838525</t>
+        </is>
+      </c>
+      <c r="U325" t="inlineStr">
+        <is>
+          <t>-38.48240379950954,174.63680391442963</t>
+        </is>
+      </c>
+      <c r="V325" t="inlineStr">
+        <is>
+          <t>-38.481715174909446,174.6365291027261</t>
+        </is>
+      </c>
+      <c r="W325" t="inlineStr">
+        <is>
+          <t>-38.48103022615503,174.63619341391862</t>
+        </is>
+      </c>
+      <c r="X325" t="inlineStr"/>
+      <c r="Y325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>-38.49567280621682,174.63585869201415</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>-38.49512962039556,174.6365778257897</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>-38.49456824654443,174.6372331954295</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>-38.49381975195255,174.63723231986347</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr"/>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>-38.49228284514501,174.63728108733935</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>-38.49154854834244,174.63732321771528</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>-38.49084498455941,174.6373720967852</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>-38.48801504806334,174.63791783974432</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>-38.487287230305654,174.63789422235863</t>
+        </is>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>-38.48657101777889,174.63786410713308</t>
+        </is>
+      </c>
+      <c r="P326" t="inlineStr">
+        <is>
+          <t>-38.48592814636409,174.63683379069946</t>
+        </is>
+      </c>
+      <c r="Q326" t="inlineStr">
+        <is>
+          <t>-38.48522666371181,174.6367720645144</t>
+        </is>
+      </c>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>-38.4845282660454,174.6366592344518</t>
+        </is>
+      </c>
+      <c r="S326" t="inlineStr">
+        <is>
+          <t>-38.483820395409495,174.63670286737968</t>
+        </is>
+      </c>
+      <c r="T326" t="inlineStr">
+        <is>
+          <t>-38.4831202948241,174.6366179588392</t>
+        </is>
+      </c>
+      <c r="U326" t="inlineStr">
+        <is>
+          <t>-38.48241418974564,174.6366321826625</t>
+        </is>
+      </c>
+      <c r="V326" t="inlineStr">
+        <is>
+          <t>-38.48171733222422,174.63649344552238</t>
+        </is>
+      </c>
+      <c r="W326" t="inlineStr">
+        <is>
+          <t>-38.48102343935768,174.6363055926663</t>
+        </is>
+      </c>
+      <c r="X326" t="inlineStr">
+        <is>
+          <t>-38.48032099689328,174.6362589407531</t>
+        </is>
+      </c>
+      <c r="Y326" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0260/nzd0260.xlsx
+++ b/data/nzd0260/nzd0260.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y326"/>
+  <dimension ref="A1:Y327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22721,9 +22721,15 @@
       <c r="I326" t="n">
         <v>318.63</v>
       </c>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>153.3666666666666</v>
+      </c>
+      <c r="K326" t="n">
+        <v>162.9066666666667</v>
+      </c>
+      <c r="L326" t="n">
+        <v>235.1166666666666</v>
+      </c>
       <c r="M326" t="n">
         <v>271.0063636363636</v>
       </c>
@@ -22761,6 +22767,81 @@
         <v>362.2077777777778</v>
       </c>
       <c r="Y326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>318.6023529411765</v>
+      </c>
+      <c r="C327" t="n">
+        <v>290.23</v>
+      </c>
+      <c r="D327" t="n">
+        <v>254.9542105263158</v>
+      </c>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="n">
+        <v>282.6933333333333</v>
+      </c>
+      <c r="G327" t="n">
+        <v>326.0590909090909</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>171.4033333333333</v>
+      </c>
+      <c r="K327" t="n">
+        <v>178.7333333333333</v>
+      </c>
+      <c r="L327" t="n">
+        <v>253.5533333333333</v>
+      </c>
+      <c r="M327" t="n">
+        <v>262.6090909090909</v>
+      </c>
+      <c r="N327" t="n">
+        <v>270.04</v>
+      </c>
+      <c r="O327" t="n">
+        <v>270.1066666666667</v>
+      </c>
+      <c r="P327" t="n">
+        <v>345.8355555555555</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>341.2490909090909</v>
+      </c>
+      <c r="R327" t="n">
+        <v>337.0890909090909</v>
+      </c>
+      <c r="S327" t="n">
+        <v>348.879090909091</v>
+      </c>
+      <c r="T327" t="n">
+        <v>344.4166666666667</v>
+      </c>
+      <c r="U327" t="n">
+        <v>352.7490909090909</v>
+      </c>
+      <c r="V327" t="n">
+        <v>355.8166666666667</v>
+      </c>
+      <c r="W327" t="n">
+        <v>350.4076190476191</v>
+      </c>
+      <c r="X327" t="n">
+        <v>358.9055555555556</v>
+      </c>
+      <c r="Y327" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -22777,7 +22858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B335"/>
+  <dimension ref="A1:B336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26135,6 +26216,16 @@
       </c>
       <c r="B335" t="n">
         <v>-0.46</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -26308,28 +26399,28 @@
         <v>0.09660000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3866019883221768</v>
+        <v>-0.38659342174018</v>
       </c>
       <c r="J2" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K2" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06763401902008348</v>
+        <v>0.06811498306051922</v>
       </c>
       <c r="M2" t="n">
-        <v>8.326263788894725</v>
+        <v>8.292463472205892</v>
       </c>
       <c r="N2" t="n">
-        <v>111.8800639031444</v>
+        <v>111.4252674164237</v>
       </c>
       <c r="O2" t="n">
-        <v>10.57733727849993</v>
+        <v>10.55581675742923</v>
       </c>
       <c r="P2" t="n">
-        <v>328.4303959481645</v>
+        <v>328.430310602022</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26386,28 +26477,28 @@
         <v>0.092</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4728415341772245</v>
+        <v>-0.4717508123770683</v>
       </c>
       <c r="J3" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K3" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05437285816983384</v>
+        <v>0.05451910601980181</v>
       </c>
       <c r="M3" t="n">
-        <v>10.98619378204975</v>
+        <v>10.94812312906178</v>
       </c>
       <c r="N3" t="n">
-        <v>211.4056777438443</v>
+        <v>210.5787038501307</v>
       </c>
       <c r="O3" t="n">
-        <v>14.53979634464817</v>
+        <v>14.51133018886038</v>
       </c>
       <c r="P3" t="n">
-        <v>300.7789143780253</v>
+        <v>300.7680812827023</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26464,28 +26555,28 @@
         <v>0.1117</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1556514579872485</v>
+        <v>-0.1715119214754603</v>
       </c>
       <c r="J4" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K4" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003946381865411963</v>
+        <v>0.004803168115450673</v>
       </c>
       <c r="M4" t="n">
-        <v>14.55778166374485</v>
+        <v>14.57639006260364</v>
       </c>
       <c r="N4" t="n">
-        <v>337.2043211049249</v>
+        <v>337.4728965948423</v>
       </c>
       <c r="O4" t="n">
-        <v>18.36312394732783</v>
+        <v>18.37043539480876</v>
       </c>
       <c r="P4" t="n">
-        <v>279.0756473149691</v>
+        <v>279.2298380016654</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26545,7 +26636,7 @@
         <v>-0.2458061992440888</v>
       </c>
       <c r="J5" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K5" t="n">
         <v>241</v>
@@ -26620,28 +26711,28 @@
         <v>0.09420000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2149619980695254</v>
+        <v>-0.2362518210274989</v>
       </c>
       <c r="J6" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K6" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005334468320271291</v>
+        <v>0.006447429584843234</v>
       </c>
       <c r="M6" t="n">
-        <v>17.71277915255852</v>
+        <v>17.74627615735233</v>
       </c>
       <c r="N6" t="n">
-        <v>445.7670010662782</v>
+        <v>446.8228117514776</v>
       </c>
       <c r="O6" t="n">
-        <v>21.11319495164761</v>
+        <v>21.13818373823725</v>
       </c>
       <c r="P6" t="n">
-        <v>314.8887164215197</v>
+        <v>315.1051826603581</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26698,28 +26789,28 @@
         <v>0.0616</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1115358064359876</v>
+        <v>0.1041544972773568</v>
       </c>
       <c r="J7" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K7" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002020780536720612</v>
+        <v>0.00177317360578011</v>
       </c>
       <c r="M7" t="n">
-        <v>13.84843208175039</v>
+        <v>13.83560558030249</v>
       </c>
       <c r="N7" t="n">
-        <v>315.4147831047715</v>
+        <v>314.659768781635</v>
       </c>
       <c r="O7" t="n">
-        <v>17.75992069534015</v>
+        <v>17.73865183100551</v>
       </c>
       <c r="P7" t="n">
-        <v>333.6221956985755</v>
+        <v>333.6978842154985</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26773,7 +26864,7 @@
         <v>0.3230073007707669</v>
       </c>
       <c r="J8" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K8" t="n">
         <v>229</v>
@@ -26845,7 +26936,7 @@
         <v>0.2398040728106927</v>
       </c>
       <c r="J9" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K9" t="n">
         <v>214</v>
@@ -26920,28 +27011,28 @@
         <v>0.0419</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5970331869610991</v>
+        <v>-0.8959342559801416</v>
       </c>
       <c r="J10" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K10" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01602031414116345</v>
+        <v>0.02988457043074255</v>
       </c>
       <c r="M10" t="n">
-        <v>22.17380034419065</v>
+        <v>24.31269391181401</v>
       </c>
       <c r="N10" t="n">
-        <v>1238.839377418406</v>
+        <v>1487.139677443777</v>
       </c>
       <c r="O10" t="n">
-        <v>35.19715013205481</v>
+        <v>38.56345001998365</v>
       </c>
       <c r="P10" t="n">
-        <v>335.6422219432305</v>
+        <v>338.5362685371393</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26998,28 +27089,28 @@
         <v>0.0394</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3471309150564481</v>
+        <v>-0.6658060158774937</v>
       </c>
       <c r="J11" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K11" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002731162805643339</v>
+        <v>0.009222598131058635</v>
       </c>
       <c r="M11" t="n">
-        <v>31.51628378174447</v>
+        <v>33.30738764781835</v>
       </c>
       <c r="N11" t="n">
-        <v>2227.110614473637</v>
+        <v>2437.77465562019</v>
       </c>
       <c r="O11" t="n">
-        <v>47.19227282589426</v>
+        <v>49.37382561256712</v>
       </c>
       <c r="P11" t="n">
-        <v>329.9359598845036</v>
+        <v>333.1904742812797</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27076,28 +27167,28 @@
         <v>0.0363</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1273554688380151</v>
+        <v>-0.03090551587884548</v>
       </c>
       <c r="J12" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K12" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0007470579402021338</v>
+        <v>4.232785660240879e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>27.39636967774287</v>
+        <v>28.02089910077683</v>
       </c>
       <c r="N12" t="n">
-        <v>1145.414795498374</v>
+        <v>1203.272689269952</v>
       </c>
       <c r="O12" t="n">
-        <v>33.84397724113366</v>
+        <v>34.68822118918685</v>
       </c>
       <c r="P12" t="n">
-        <v>326.9791913395262</v>
+        <v>328.5446365967046</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27148,28 +27239,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.3873297552558904</v>
+        <v>0.3260416756839486</v>
       </c>
       <c r="J13" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K13" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007835993360101434</v>
+        <v>0.00548460933625694</v>
       </c>
       <c r="M13" t="n">
-        <v>24.64728055299031</v>
+        <v>24.94060048784954</v>
       </c>
       <c r="N13" t="n">
-        <v>1009.535703666001</v>
+        <v>1028.464597276165</v>
       </c>
       <c r="O13" t="n">
-        <v>31.77319158765768</v>
+        <v>32.06968346080399</v>
       </c>
       <c r="P13" t="n">
-        <v>325.1514824356726</v>
+        <v>325.7732449017536</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27226,28 +27317,28 @@
         <v>0.1188</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2291272426633789</v>
+        <v>0.1808824408669801</v>
       </c>
       <c r="J14" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K14" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002322160506274984</v>
+        <v>0.001441628228372238</v>
       </c>
       <c r="M14" t="n">
-        <v>27.94523929113427</v>
+        <v>28.15897184581371</v>
       </c>
       <c r="N14" t="n">
-        <v>1182.344007062157</v>
+        <v>1192.598341018299</v>
       </c>
       <c r="O14" t="n">
-        <v>34.38522948974104</v>
+        <v>34.53401715726537</v>
       </c>
       <c r="P14" t="n">
-        <v>325.0237941253782</v>
+        <v>325.5139448657797</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27304,28 +27395,28 @@
         <v>0.0794</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01181161793941882</v>
+        <v>-0.04015957965793625</v>
       </c>
       <c r="J15" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K15" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L15" t="n">
-        <v>5.491163251991615e-06</v>
+        <v>6.312236173910968e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>28.8402042464351</v>
+        <v>29.07030958590269</v>
       </c>
       <c r="N15" t="n">
-        <v>1274.299068422892</v>
+        <v>1286.234445750632</v>
       </c>
       <c r="O15" t="n">
-        <v>35.697325788116</v>
+        <v>35.86411083173027</v>
       </c>
       <c r="P15" t="n">
-        <v>334.8062488980526</v>
+        <v>335.3531226671473</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27382,28 +27473,28 @@
         <v>0.0488</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04733809450288361</v>
+        <v>0.04152662797162229</v>
       </c>
       <c r="J16" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K16" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003102857567393036</v>
+        <v>0.0002404168303524745</v>
       </c>
       <c r="M16" t="n">
-        <v>15.48746274034346</v>
+        <v>15.45858735491757</v>
       </c>
       <c r="N16" t="n">
-        <v>381.9871531618432</v>
+        <v>380.6942824465788</v>
       </c>
       <c r="O16" t="n">
-        <v>19.5444916322181</v>
+        <v>19.51138853199789</v>
       </c>
       <c r="P16" t="n">
-        <v>352.4251572935519</v>
+        <v>352.484485467742</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27460,28 +27551,28 @@
         <v>0.0603</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2487976446964057</v>
+        <v>0.2374084760919502</v>
       </c>
       <c r="J17" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K17" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01132820429316539</v>
+        <v>0.01037495135948363</v>
       </c>
       <c r="M17" t="n">
-        <v>13.44660678952869</v>
+        <v>13.45468088922203</v>
       </c>
       <c r="N17" t="n">
-        <v>293.7609974469221</v>
+        <v>293.4549018927211</v>
       </c>
       <c r="O17" t="n">
-        <v>17.13945732650022</v>
+        <v>17.13052544123271</v>
       </c>
       <c r="P17" t="n">
-        <v>349.796642779939</v>
+        <v>349.909196808658</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27532,28 +27623,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.317173989090395</v>
+        <v>0.3042263202353265</v>
       </c>
       <c r="J18" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K18" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01924388719634773</v>
+        <v>0.017786024901155</v>
       </c>
       <c r="M18" t="n">
-        <v>13.6352942855574</v>
+        <v>13.65662860416462</v>
       </c>
       <c r="N18" t="n">
-        <v>280.8558596982064</v>
+        <v>280.9830389512964</v>
       </c>
       <c r="O18" t="n">
-        <v>16.75875471800355</v>
+        <v>16.76254870093735</v>
       </c>
       <c r="P18" t="n">
-        <v>346.8177806644915</v>
+        <v>346.9454855377</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27610,28 +27701,28 @@
         <v>0.0659</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3132944906675421</v>
+        <v>0.3119430873190355</v>
       </c>
       <c r="J19" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K19" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01840726255582259</v>
+        <v>0.0183829471322865</v>
       </c>
       <c r="M19" t="n">
-        <v>13.77439811648803</v>
+        <v>13.72591035592773</v>
       </c>
       <c r="N19" t="n">
-        <v>288.3128581003633</v>
+        <v>287.1497579321986</v>
       </c>
       <c r="O19" t="n">
-        <v>16.97977791669736</v>
+        <v>16.94549373527365</v>
       </c>
       <c r="P19" t="n">
-        <v>342.7471216666613</v>
+        <v>342.7605731579587</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27688,28 +27779,28 @@
         <v>0.0699</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5542185835712322</v>
+        <v>0.5510691995590947</v>
       </c>
       <c r="J20" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K20" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04312720971996253</v>
+        <v>0.04296651859172362</v>
       </c>
       <c r="M20" t="n">
-        <v>14.89074017792061</v>
+        <v>14.84668790400549</v>
       </c>
       <c r="N20" t="n">
-        <v>365.6553710319837</v>
+        <v>364.219830290187</v>
       </c>
       <c r="O20" t="n">
-        <v>19.12211732606993</v>
+        <v>19.08454427777061</v>
       </c>
       <c r="P20" t="n">
-        <v>334.4365991305021</v>
+        <v>334.4683182181738</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27766,28 +27857,28 @@
         <v>0.0607</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6483629600487827</v>
+        <v>0.6506147454947508</v>
       </c>
       <c r="J21" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K21" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05692719600207241</v>
+        <v>0.05771429507314307</v>
       </c>
       <c r="M21" t="n">
-        <v>15.67392641926972</v>
+        <v>15.62023094633675</v>
       </c>
       <c r="N21" t="n">
-        <v>382.2001676515548</v>
+        <v>380.6370048758053</v>
       </c>
       <c r="O21" t="n">
-        <v>19.54994034905362</v>
+        <v>19.5099206783576</v>
       </c>
       <c r="P21" t="n">
-        <v>333.2967282720069</v>
+        <v>333.2743833991964</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -27844,28 +27935,28 @@
         <v>0.0765</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5995268570912635</v>
+        <v>0.6060400707686028</v>
       </c>
       <c r="J22" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K22" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L22" t="n">
-        <v>0.04558885297705206</v>
+        <v>0.04682867219928366</v>
       </c>
       <c r="M22" t="n">
-        <v>16.34764404345507</v>
+        <v>16.31682711770713</v>
       </c>
       <c r="N22" t="n">
-        <v>413.9836920693932</v>
+        <v>412.5856048747122</v>
       </c>
       <c r="O22" t="n">
-        <v>20.34658919989769</v>
+        <v>20.31220334859594</v>
       </c>
       <c r="P22" t="n">
-        <v>331.7301457610146</v>
+        <v>331.6649227368791</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -27916,28 +28007,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>0.5154452098989276</v>
+        <v>0.5199651075067679</v>
       </c>
       <c r="J23" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K23" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03390043226251771</v>
+        <v>0.03471074576652</v>
       </c>
       <c r="M23" t="n">
-        <v>16.22896881664579</v>
+        <v>16.18825652248108</v>
       </c>
       <c r="N23" t="n">
-        <v>412.6518753024142</v>
+        <v>411.1390423968738</v>
       </c>
       <c r="O23" t="n">
-        <v>20.31383457898617</v>
+        <v>20.27656387055938</v>
       </c>
       <c r="P23" t="n">
-        <v>331.132760424306</v>
+        <v>331.0875506730318</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -27994,28 +28085,28 @@
         <v>0.0547</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6902421949282013</v>
+        <v>0.7011134499576416</v>
       </c>
       <c r="J24" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K24" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L24" t="n">
-        <v>0.05134412951103395</v>
+        <v>0.05318882145165027</v>
       </c>
       <c r="M24" t="n">
-        <v>17.1335985182561</v>
+        <v>17.12735878694328</v>
       </c>
       <c r="N24" t="n">
-        <v>478.6509375010282</v>
+        <v>477.4874823998259</v>
       </c>
       <c r="O24" t="n">
-        <v>21.8780926385512</v>
+        <v>21.85148696084149</v>
       </c>
       <c r="P24" t="n">
-        <v>327.1321612624308</v>
+        <v>327.0236214610158</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -28053,7 +28144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y326"/>
+  <dimension ref="A1:Y327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28206,7 +28297,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-38.49446813127235,174.636882073247</t>
+          <t>-38.49446813127234,174.636882073247</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -29666,7 +29757,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-38.482403706474635,174.6368054521087</t>
+          <t>-38.48240370647464,174.6368054521087</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -30935,7 +31026,7 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>-38.48449831215877,174.63715431915085</t>
+          <t>-38.48449831215876,174.63715431915085</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -31937,7 +32028,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>-38.48729755454637,174.63767681661452</t>
+          <t>-38.487297554546366,174.63767681661452</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -32777,7 +32868,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-38.49304304292008,174.63723117225445</t>
+          <t>-38.493043042920085,174.63723117225445</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -42666,7 +42757,7 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>-38.491552022931536,174.63694486764993</t>
+          <t>-38.49155202293154,174.63694486764993</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -49042,7 +49133,7 @@
       </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>-38.48593519631006,174.63671726311034</t>
+          <t>-38.485935196310066,174.63671726311034</t>
         </is>
       </c>
       <c r="Q202" t="inlineStr">
@@ -51464,7 +51555,7 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>-38.48873403143638,174.63754273995497</t>
+          <t>-38.48873403143639,174.63754273995497</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
@@ -52008,7 +52099,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>-38.488040317815305,174.6367600249308</t>
+          <t>-38.48804031781531,174.6367600249308</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
@@ -57050,7 +57141,7 @@
       </c>
       <c r="W289" t="inlineStr">
         <is>
-          <t>-38.481004088512165,174.63662543229972</t>
+          <t>-38.48100408851217,174.63662543229972</t>
         </is>
       </c>
       <c r="X289" t="inlineStr">
@@ -59286,7 +59377,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>-38.494517190364625,174.6370541316774</t>
+          <t>-38.49451719036462,174.6370541316774</t>
         </is>
       </c>
       <c r="E310" t="inlineStr"/>
@@ -59934,7 +60025,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>-38.49298272173529,174.63696727243394</t>
+          <t>-38.49298272173528,174.63696727243394</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -61150,9 +61241,21 @@
           <t>-38.49084498455941,174.6373720967852</t>
         </is>
       </c>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>-38.49012444658804,174.63926651336413</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>-38.48942232443911,174.6391571528642</t>
+        </is>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>-38.48872680174813,174.63832942626962</t>
+        </is>
+      </c>
       <c r="M326" t="inlineStr">
         <is>
           <t>-38.48801504806334,174.63791783974432</t>
@@ -61214,6 +61317,121 @@
         </is>
       </c>
       <c r="Y326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>-38.49567764881436,174.6358756756026</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>-38.49510688098906,174.63649807501915</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>-38.49455731854976,174.63719486876656</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>-38.49311521451011,174.63754692057645</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>-38.49228309903438,174.63728424955434</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>-38.490126348860585,174.63905976026925</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>-38.489423993448796,174.638975734604</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>-38.48872874444037,174.6381180919987</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>-38.488012947420145,174.63801406382595</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>-38.48728701294888,174.63789879932082</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>-38.48657256921663,174.6378384673123</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>-38.48592326987898,174.63691439231934</t>
+        </is>
+      </c>
+      <c r="Q327" t="inlineStr">
+        <is>
+          <t>-38.485218423170394,174.63690826870015</t>
+        </is>
+      </c>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>-38.484513864552326,174.63689726998882</t>
+        </is>
+      </c>
+      <c r="S327" t="inlineStr">
+        <is>
+          <t>-38.48382032814875,174.636703979102</t>
+        </is>
+      </c>
+      <c r="T327" t="inlineStr">
+        <is>
+          <t>-38.48311554679091,174.6366964366711</t>
+        </is>
+      </c>
+      <c r="U327" t="inlineStr">
+        <is>
+          <t>-38.48241960571943,174.63654266476743</t>
+        </is>
+      </c>
+      <c r="V327" t="inlineStr">
+        <is>
+          <t>-38.48172001732849,174.63644906449076</t>
+        </is>
+      </c>
+      <c r="W327" t="inlineStr">
+        <is>
+          <t>-38.48101456101289,174.63645233982376</t>
+        </is>
+      </c>
+      <c r="X327" t="inlineStr">
+        <is>
+          <t>-38.48031871365613,174.63629667978162</t>
+        </is>
+      </c>
+      <c r="Y327" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0260/nzd0260.xlsx
+++ b/data/nzd0260/nzd0260.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y327"/>
+  <dimension ref="A1:Y328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22847,6 +22847,81 @@
         </is>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>326.01</v>
+      </c>
+      <c r="C328" t="n">
+        <v>301.155</v>
+      </c>
+      <c r="D328" t="n">
+        <v>254.2594736842105</v>
+      </c>
+      <c r="E328" t="inlineStr"/>
+      <c r="F328" t="n">
+        <v>282.6566666666666</v>
+      </c>
+      <c r="G328" t="n">
+        <v>326.1409090909091</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>171.5266666666667</v>
+      </c>
+      <c r="K328" t="n">
+        <v>177.4266666666666</v>
+      </c>
+      <c r="L328" t="n">
+        <v>253.9566666666666</v>
+      </c>
+      <c r="M328" t="n">
+        <v>265.2009090909091</v>
+      </c>
+      <c r="N328" t="n">
+        <v>273.605</v>
+      </c>
+      <c r="O328" t="n">
+        <v>272.3933333333333</v>
+      </c>
+      <c r="P328" t="n">
+        <v>347.6777777777777</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>349.4509090909091</v>
+      </c>
+      <c r="R328" t="n">
+        <v>359.5709090909091</v>
+      </c>
+      <c r="S328" t="n">
+        <v>373.6909090909091</v>
+      </c>
+      <c r="T328" t="n">
+        <v>354.2233333333333</v>
+      </c>
+      <c r="U328" t="n">
+        <v>345.5709090909091</v>
+      </c>
+      <c r="V328" t="n">
+        <v>356.0933333333333</v>
+      </c>
+      <c r="W328" t="n">
+        <v>353.7280952380952</v>
+      </c>
+      <c r="X328" t="n">
+        <v>355.9877777777777</v>
+      </c>
+      <c r="Y328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22858,7 +22933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B336"/>
+  <dimension ref="A1:B337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26226,6 +26301,16 @@
       </c>
       <c r="B336" t="n">
         <v>0.16</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -26399,28 +26484,28 @@
         <v>0.09660000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.38659342174018</v>
+        <v>-0.3810586215613004</v>
       </c>
       <c r="J2" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K2" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06811498306051922</v>
+        <v>0.06665278530386243</v>
       </c>
       <c r="M2" t="n">
-        <v>8.292463472205892</v>
+        <v>8.289212416750376</v>
       </c>
       <c r="N2" t="n">
-        <v>111.4252674164237</v>
+        <v>111.194916894337</v>
       </c>
       <c r="O2" t="n">
-        <v>10.55581675742923</v>
+        <v>10.54490004193198</v>
       </c>
       <c r="P2" t="n">
-        <v>328.430310602022</v>
+        <v>328.3751043234212</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26477,28 +26562,28 @@
         <v>0.092</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4717508123770683</v>
+        <v>-0.4627262322112906</v>
       </c>
       <c r="J3" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K3" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05451910601980181</v>
+        <v>0.05278964509293893</v>
       </c>
       <c r="M3" t="n">
-        <v>10.94812312906178</v>
+        <v>10.9492108244037</v>
       </c>
       <c r="N3" t="n">
-        <v>210.5787038501307</v>
+        <v>210.3485363741898</v>
       </c>
       <c r="O3" t="n">
-        <v>14.51133018886038</v>
+        <v>14.5033974079934</v>
       </c>
       <c r="P3" t="n">
-        <v>300.7680812827023</v>
+        <v>300.67834402566</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26555,28 +26640,28 @@
         <v>0.1117</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1715119214754603</v>
+        <v>-0.1875547492684519</v>
       </c>
       <c r="J4" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K4" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004803168115450673</v>
+        <v>0.005755339060188436</v>
       </c>
       <c r="M4" t="n">
-        <v>14.57639006260364</v>
+        <v>14.59612314465252</v>
       </c>
       <c r="N4" t="n">
-        <v>337.4728965948423</v>
+        <v>337.8134988806534</v>
       </c>
       <c r="O4" t="n">
-        <v>18.37043539480876</v>
+        <v>18.37970344920324</v>
       </c>
       <c r="P4" t="n">
-        <v>279.2298380016654</v>
+        <v>279.3859807020407</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26636,7 +26721,7 @@
         <v>-0.2458061992440888</v>
       </c>
       <c r="J5" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K5" t="n">
         <v>241</v>
@@ -26711,28 +26796,28 @@
         <v>0.09420000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2362518210274989</v>
+        <v>-0.2570982729308897</v>
       </c>
       <c r="J6" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K6" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006447429584843234</v>
+        <v>0.007640180205062186</v>
       </c>
       <c r="M6" t="n">
-        <v>17.74627615735233</v>
+        <v>17.77708629870515</v>
       </c>
       <c r="N6" t="n">
-        <v>446.8228117514776</v>
+        <v>447.8079154685525</v>
       </c>
       <c r="O6" t="n">
-        <v>21.13818373823725</v>
+        <v>21.16147243148625</v>
       </c>
       <c r="P6" t="n">
-        <v>315.1051826603581</v>
+        <v>315.3173692423041</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26789,28 +26874,28 @@
         <v>0.0616</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1041544972773568</v>
+        <v>0.09697119216338092</v>
       </c>
       <c r="J7" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K7" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00177317360578011</v>
+        <v>0.001546553318214849</v>
       </c>
       <c r="M7" t="n">
-        <v>13.83560558030249</v>
+        <v>13.8222045902701</v>
       </c>
       <c r="N7" t="n">
-        <v>314.659768781635</v>
+        <v>313.8961260865281</v>
       </c>
       <c r="O7" t="n">
-        <v>17.73865183100551</v>
+        <v>17.71711393219923</v>
       </c>
       <c r="P7" t="n">
-        <v>333.6978842154985</v>
+        <v>333.7716218178878</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26864,7 +26949,7 @@
         <v>0.3230073007707669</v>
       </c>
       <c r="J8" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K8" t="n">
         <v>229</v>
@@ -26936,7 +27021,7 @@
         <v>0.2398040728106927</v>
       </c>
       <c r="J9" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K9" t="n">
         <v>214</v>
@@ -27011,28 +27096,28 @@
         <v>0.0419</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.8959342559801416</v>
+        <v>-1.031142951395841</v>
       </c>
       <c r="J10" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K10" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02988457043074255</v>
+        <v>0.03693796584164022</v>
       </c>
       <c r="M10" t="n">
-        <v>24.31269391181401</v>
+        <v>25.27537803779454</v>
       </c>
       <c r="N10" t="n">
-        <v>1487.139677443777</v>
+        <v>1588.721489009284</v>
       </c>
       <c r="O10" t="n">
-        <v>38.56345001998365</v>
+        <v>39.8587692861845</v>
       </c>
       <c r="P10" t="n">
-        <v>338.5362685371393</v>
+        <v>339.850589756971</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27089,28 +27174,28 @@
         <v>0.0394</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6658060158774937</v>
+        <v>-0.8115770614121767</v>
       </c>
       <c r="J11" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K11" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009222598131058635</v>
+        <v>0.01324462298729334</v>
       </c>
       <c r="M11" t="n">
-        <v>33.30738764781835</v>
+        <v>34.15657078327171</v>
       </c>
       <c r="N11" t="n">
-        <v>2437.77465562019</v>
+        <v>2525.650275409425</v>
       </c>
       <c r="O11" t="n">
-        <v>49.37382561256712</v>
+        <v>50.25584817122704</v>
       </c>
       <c r="P11" t="n">
-        <v>333.1904742812797</v>
+        <v>334.6840772140463</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27167,28 +27252,28 @@
         <v>0.0363</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.03090551587884548</v>
+        <v>-0.09839457559460944</v>
       </c>
       <c r="J12" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K12" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L12" t="n">
-        <v>4.232785660240879e-05</v>
+        <v>0.0004240408465780998</v>
       </c>
       <c r="M12" t="n">
-        <v>28.02089910077683</v>
+        <v>28.26142603732444</v>
       </c>
       <c r="N12" t="n">
-        <v>1203.272689269952</v>
+        <v>1222.922871397695</v>
       </c>
       <c r="O12" t="n">
-        <v>34.68822118918685</v>
+        <v>34.97031414496723</v>
       </c>
       <c r="P12" t="n">
-        <v>328.5446365967046</v>
+        <v>329.214549074013</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27239,28 +27324,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.3260416756839486</v>
+        <v>0.2683567090527318</v>
       </c>
       <c r="J13" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K13" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00548460933625694</v>
+        <v>0.003677499857301925</v>
       </c>
       <c r="M13" t="n">
-        <v>24.94060048784954</v>
+        <v>25.21224676817788</v>
       </c>
       <c r="N13" t="n">
-        <v>1028.464597276165</v>
+        <v>1045.00216485065</v>
       </c>
       <c r="O13" t="n">
-        <v>32.06968346080399</v>
+        <v>32.32649323466203</v>
       </c>
       <c r="P13" t="n">
-        <v>325.7732449017536</v>
+        <v>326.3591353467068</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27317,28 +27402,28 @@
         <v>0.1188</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1808824408669801</v>
+        <v>0.1364902972993048</v>
       </c>
       <c r="J14" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K14" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001441628228372238</v>
+        <v>0.0008189276461261219</v>
       </c>
       <c r="M14" t="n">
-        <v>28.15897184581371</v>
+        <v>28.34404796704519</v>
       </c>
       <c r="N14" t="n">
-        <v>1192.598341018299</v>
+        <v>1200.710456454439</v>
       </c>
       <c r="O14" t="n">
-        <v>34.53401715726537</v>
+        <v>34.65126918966228</v>
       </c>
       <c r="P14" t="n">
-        <v>325.5139448657797</v>
+        <v>325.9654583073421</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27395,28 +27480,28 @@
         <v>0.0794</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.04015957965793625</v>
+        <v>-0.08920518332714632</v>
       </c>
       <c r="J15" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K15" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L15" t="n">
-        <v>6.312236173910968e-05</v>
+        <v>0.0003100464910130718</v>
       </c>
       <c r="M15" t="n">
-        <v>29.07030958590269</v>
+        <v>29.27825386585318</v>
       </c>
       <c r="N15" t="n">
-        <v>1286.234445750632</v>
+        <v>1296.499008692519</v>
       </c>
       <c r="O15" t="n">
-        <v>35.86411083173027</v>
+        <v>36.0069300092707</v>
       </c>
       <c r="P15" t="n">
-        <v>335.3531226671473</v>
+        <v>335.869775473737</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27473,28 +27558,28 @@
         <v>0.0488</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04152662797162229</v>
+        <v>0.03719374435938587</v>
       </c>
       <c r="J16" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K16" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002404168303524745</v>
+        <v>0.0001942212464471904</v>
       </c>
       <c r="M16" t="n">
-        <v>15.45858735491757</v>
+        <v>15.42144272130957</v>
       </c>
       <c r="N16" t="n">
-        <v>380.6942824465788</v>
+        <v>379.3075251635925</v>
       </c>
       <c r="O16" t="n">
-        <v>19.51138853199789</v>
+        <v>19.47581898569589</v>
       </c>
       <c r="P16" t="n">
-        <v>352.484485467742</v>
+        <v>352.5287708163436</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27551,28 +27636,28 @@
         <v>0.0603</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2374084760919502</v>
+        <v>0.2324771198165259</v>
       </c>
       <c r="J17" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K17" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01037495135948363</v>
+        <v>0.01002410110993324</v>
       </c>
       <c r="M17" t="n">
-        <v>13.45468088922203</v>
+        <v>13.42707604785068</v>
       </c>
       <c r="N17" t="n">
-        <v>293.4549018927211</v>
+        <v>292.4320178588439</v>
       </c>
       <c r="O17" t="n">
-        <v>17.13052544123271</v>
+        <v>17.10064378492353</v>
       </c>
       <c r="P17" t="n">
-        <v>349.909196808658</v>
+        <v>349.9579873334349</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27623,28 +27708,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.3042263202353265</v>
+        <v>0.3077404626766484</v>
       </c>
       <c r="J18" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K18" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L18" t="n">
-        <v>0.017786024901155</v>
+        <v>0.01831836975158208</v>
       </c>
       <c r="M18" t="n">
-        <v>13.65662860416462</v>
+        <v>13.62062703250135</v>
       </c>
       <c r="N18" t="n">
-        <v>280.9830389512964</v>
+        <v>279.9772728345037</v>
       </c>
       <c r="O18" t="n">
-        <v>16.76254870093735</v>
+        <v>16.73252141294024</v>
       </c>
       <c r="P18" t="n">
-        <v>346.9454855377</v>
+        <v>346.9107843914665</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27701,28 +27786,28 @@
         <v>0.0659</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3119430873190355</v>
+        <v>0.3286549886825635</v>
       </c>
       <c r="J19" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K19" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0183829471322865</v>
+        <v>0.02036158882472638</v>
       </c>
       <c r="M19" t="n">
-        <v>13.72591035592773</v>
+        <v>13.76092650620269</v>
       </c>
       <c r="N19" t="n">
-        <v>287.1497579321986</v>
+        <v>288.105726466679</v>
       </c>
       <c r="O19" t="n">
-        <v>16.94549373527365</v>
+        <v>16.97367745854383</v>
       </c>
       <c r="P19" t="n">
-        <v>342.7605731579587</v>
+        <v>342.5940230690272</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27779,28 +27864,28 @@
         <v>0.0699</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5510691995590947</v>
+        <v>0.555392807833158</v>
       </c>
       <c r="J20" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K20" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04296651859172362</v>
+        <v>0.04391659715892182</v>
       </c>
       <c r="M20" t="n">
-        <v>14.84668790400549</v>
+        <v>14.80866005551663</v>
       </c>
       <c r="N20" t="n">
-        <v>364.219830290187</v>
+        <v>362.8595484812062</v>
       </c>
       <c r="O20" t="n">
-        <v>19.08454427777061</v>
+        <v>19.04887263019012</v>
       </c>
       <c r="P20" t="n">
-        <v>334.4683182181738</v>
+        <v>334.4247219136287</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27857,28 +27942,28 @@
         <v>0.0607</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6506147454947508</v>
+        <v>0.6473825915394983</v>
       </c>
       <c r="J21" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K21" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05771429507314307</v>
+        <v>0.05757730767858382</v>
       </c>
       <c r="M21" t="n">
-        <v>15.62023094633675</v>
+        <v>15.57341521034896</v>
       </c>
       <c r="N21" t="n">
-        <v>380.6370048758053</v>
+        <v>379.1263264990322</v>
       </c>
       <c r="O21" t="n">
-        <v>19.5099206783576</v>
+        <v>19.47116654181336</v>
       </c>
       <c r="P21" t="n">
-        <v>333.2743833991964</v>
+        <v>333.3064952041327</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -27935,28 +28020,28 @@
         <v>0.0765</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6060400707686028</v>
+        <v>0.6126131619022037</v>
       </c>
       <c r="J22" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K22" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L22" t="n">
-        <v>0.04682867219928366</v>
+        <v>0.04809390091552956</v>
       </c>
       <c r="M22" t="n">
-        <v>16.31682711770713</v>
+        <v>16.28700260783074</v>
       </c>
       <c r="N22" t="n">
-        <v>412.5856048747122</v>
+        <v>411.2109584535881</v>
       </c>
       <c r="O22" t="n">
-        <v>20.31220334859594</v>
+        <v>20.27833717180943</v>
       </c>
       <c r="P22" t="n">
-        <v>331.6649227368791</v>
+        <v>331.5990177757728</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -28007,28 +28092,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>0.5199651075067679</v>
+        <v>0.526800689456996</v>
       </c>
       <c r="J23" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K23" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03471074576652</v>
+        <v>0.0358180950063105</v>
       </c>
       <c r="M23" t="n">
-        <v>16.18825652248108</v>
+        <v>16.16055391322864</v>
       </c>
       <c r="N23" t="n">
-        <v>411.1390423968738</v>
+        <v>409.838413598146</v>
       </c>
       <c r="O23" t="n">
-        <v>20.27656387055938</v>
+        <v>20.24446624631398</v>
       </c>
       <c r="P23" t="n">
-        <v>331.0875506730318</v>
+        <v>331.0190961547879</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -28085,28 +28170,28 @@
         <v>0.0547</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7011134499576416</v>
+        <v>0.7095300940730341</v>
       </c>
       <c r="J24" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K24" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L24" t="n">
-        <v>0.05318882145165027</v>
+        <v>0.05474306642140203</v>
       </c>
       <c r="M24" t="n">
-        <v>17.12735878694328</v>
+        <v>17.1064221380334</v>
       </c>
       <c r="N24" t="n">
-        <v>477.4874823998259</v>
+        <v>476.0118838535827</v>
       </c>
       <c r="O24" t="n">
-        <v>21.85148696084149</v>
+        <v>21.81769657533954</v>
       </c>
       <c r="P24" t="n">
-        <v>327.0236214610158</v>
+        <v>326.9394888307001</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -28144,7 +28229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y327"/>
+  <dimension ref="A1:Y328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61437,6 +61522,121 @@
         </is>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-38.4956548855111,174.63579584197893</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-38.49507330953404,174.6363803349499</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-38.49455945336696,174.637202355993</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr"/>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>-38.493115306768416,174.6375473242063</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>-38.492283024116226,174.63728331644174</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>-38.49012636186691,174.63905834650748</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>-38.4894238556642,174.6389907126919</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>-38.48872878693579,174.63811346870304</t>
+        </is>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>-38.488013595792076,174.63798436426458</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>-38.48728895013473,174.63785800714393</t>
+        </is>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>-38.486574150616946,174.63781233221874</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>-38.4859245437479,174.63689333709988</t>
+        </is>
+      </c>
+      <c r="Q328" t="inlineStr">
+        <is>
+          <t>-38.485224094570675,174.63681452897077</t>
+        </is>
+      </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>-38.484529410097934,174.63664032459639</t>
+        </is>
+      </c>
+      <c r="S328" t="inlineStr">
+        <is>
+          <t>-38.48383748432671,174.63642040671667</t>
+        </is>
+      </c>
+      <c r="T328" t="inlineStr">
+        <is>
+          <t>-38.483122327703846,174.6365843581327</t>
+        </is>
+      </c>
+      <c r="U328" t="inlineStr">
+        <is>
+          <t>-38.48241464233658,174.63662470205907</t>
+        </is>
+      </c>
+      <c r="V328" t="inlineStr">
+        <is>
+          <t>-38.481720208627124,174.63644590258022</t>
+        </is>
+      </c>
+      <c r="W328" t="inlineStr">
+        <is>
+          <t>-38.48101685692136,174.63641439182382</t>
+        </is>
+      </c>
+      <c r="X328" t="inlineStr">
+        <is>
+          <t>-38.48031669622317,174.63633002523315</t>
+        </is>
+      </c>
+      <c r="Y328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0260/nzd0260.xlsx
+++ b/data/nzd0260/nzd0260.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y328"/>
+  <dimension ref="A1:Y329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22922,6 +22922,75 @@
         </is>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>341.2805882352941</v>
+      </c>
+      <c r="C329" t="n">
+        <v>302.72</v>
+      </c>
+      <c r="D329" t="n">
+        <v>274.9668421052632</v>
+      </c>
+      <c r="E329" t="n">
+        <v>298.95</v>
+      </c>
+      <c r="F329" t="n">
+        <v>300.5466666666667</v>
+      </c>
+      <c r="G329" t="n">
+        <v>340.4545454545454</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
+      <c r="M329" t="n">
+        <v>285.5445454545454</v>
+      </c>
+      <c r="N329" t="n">
+        <v>291.68</v>
+      </c>
+      <c r="O329" t="n">
+        <v>296.6133333333333</v>
+      </c>
+      <c r="P329" t="inlineStr"/>
+      <c r="Q329" t="n">
+        <v>353.7945454545454</v>
+      </c>
+      <c r="R329" t="n">
+        <v>348.3845454545454</v>
+      </c>
+      <c r="S329" t="n">
+        <v>351.3445454545454</v>
+      </c>
+      <c r="T329" t="n">
+        <v>356.8733333333333</v>
+      </c>
+      <c r="U329" t="n">
+        <v>366.9645454545454</v>
+      </c>
+      <c r="V329" t="n">
+        <v>375.5333333333333</v>
+      </c>
+      <c r="W329" t="n">
+        <v>376.3366666666667</v>
+      </c>
+      <c r="X329" t="n">
+        <v>373.6411111111111</v>
+      </c>
+      <c r="Y329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22933,7 +23002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B337"/>
+  <dimension ref="A1:B338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26311,6 +26380,16 @@
       </c>
       <c r="B337" t="n">
         <v>0.17</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -26484,28 +26563,28 @@
         <v>0.09660000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3810586215613004</v>
+        <v>-0.3641910675773903</v>
       </c>
       <c r="J2" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K2" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06665278530386243</v>
+        <v>0.06062398256081869</v>
       </c>
       <c r="M2" t="n">
-        <v>8.289212416750376</v>
+        <v>8.347249296216056</v>
       </c>
       <c r="N2" t="n">
-        <v>111.194916894337</v>
+        <v>112.7919445516556</v>
       </c>
       <c r="O2" t="n">
-        <v>10.54490004193198</v>
+        <v>10.62035519894017</v>
       </c>
       <c r="P2" t="n">
-        <v>328.3751043234212</v>
+        <v>328.2058743707713</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26562,28 +26641,28 @@
         <v>0.092</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4627262322112906</v>
+        <v>-0.452634450222667</v>
       </c>
       <c r="J3" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K3" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05278964509293893</v>
+        <v>0.05081551034780663</v>
       </c>
       <c r="M3" t="n">
-        <v>10.9492108244037</v>
+        <v>10.95591424049156</v>
       </c>
       <c r="N3" t="n">
-        <v>210.3485363741898</v>
+        <v>210.2705173809011</v>
       </c>
       <c r="O3" t="n">
-        <v>14.5033974079934</v>
+        <v>14.50070747863362</v>
       </c>
       <c r="P3" t="n">
-        <v>300.67834402566</v>
+        <v>300.577410155514</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26640,28 +26719,28 @@
         <v>0.1117</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1875547492684519</v>
+        <v>-0.1872601816170582</v>
       </c>
       <c r="J4" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K4" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005755339060188436</v>
+        <v>0.005784300864182801</v>
       </c>
       <c r="M4" t="n">
-        <v>14.59612314465252</v>
+        <v>14.53721015574556</v>
       </c>
       <c r="N4" t="n">
-        <v>337.8134988806534</v>
+        <v>336.4123717489396</v>
       </c>
       <c r="O4" t="n">
-        <v>18.37970344920324</v>
+        <v>18.34154769230066</v>
       </c>
       <c r="P4" t="n">
-        <v>279.3859807020407</v>
+        <v>279.383097273985</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26718,28 +26797,28 @@
         <v>0.0861</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2458061992440888</v>
+        <v>-0.2381947947908349</v>
       </c>
       <c r="J5" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K5" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009604017093165162</v>
+        <v>0.009084578820904854</v>
       </c>
       <c r="M5" t="n">
-        <v>14.05734121466968</v>
+        <v>14.03591165810044</v>
       </c>
       <c r="N5" t="n">
-        <v>336.7827604405289</v>
+        <v>335.7846883765578</v>
       </c>
       <c r="O5" t="n">
-        <v>18.35164190040033</v>
+        <v>18.3244287326115</v>
       </c>
       <c r="P5" t="n">
-        <v>295.4195539020784</v>
+        <v>295.3428820871033</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26796,28 +26875,28 @@
         <v>0.09420000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2570982729308897</v>
+        <v>-0.2635513896688185</v>
       </c>
       <c r="J6" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K6" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007640180205062186</v>
+        <v>0.00808552147564412</v>
       </c>
       <c r="M6" t="n">
-        <v>17.77708629870515</v>
+        <v>17.73670410312348</v>
       </c>
       <c r="N6" t="n">
-        <v>447.8079154685525</v>
+        <v>446.2696647605644</v>
       </c>
       <c r="O6" t="n">
-        <v>21.16147243148625</v>
+        <v>21.12509561541827</v>
       </c>
       <c r="P6" t="n">
-        <v>315.3173692423041</v>
+        <v>315.3834057811945</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26874,28 +26953,28 @@
         <v>0.0616</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09697119216338092</v>
+        <v>0.09992765836383928</v>
       </c>
       <c r="J7" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K7" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001546553318214849</v>
+        <v>0.001653638586146311</v>
       </c>
       <c r="M7" t="n">
-        <v>13.8222045902701</v>
+        <v>13.78756889994002</v>
       </c>
       <c r="N7" t="n">
-        <v>313.8961260865281</v>
+        <v>312.8298398079372</v>
       </c>
       <c r="O7" t="n">
-        <v>17.71711393219923</v>
+        <v>17.68699634782393</v>
       </c>
       <c r="P7" t="n">
-        <v>333.7716218178878</v>
+        <v>333.7411101877565</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26949,7 +27028,7 @@
         <v>0.3230073007707669</v>
       </c>
       <c r="J8" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K8" t="n">
         <v>229</v>
@@ -27021,7 +27100,7 @@
         <v>0.2398040728106927</v>
       </c>
       <c r="J9" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K9" t="n">
         <v>214</v>
@@ -27099,7 +27178,7 @@
         <v>-1.031142951395841</v>
       </c>
       <c r="J10" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K10" t="n">
         <v>187</v>
@@ -27177,7 +27256,7 @@
         <v>-0.8115770614121767</v>
       </c>
       <c r="J11" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K11" t="n">
         <v>188</v>
@@ -27255,7 +27334,7 @@
         <v>-0.09839457559460944</v>
       </c>
       <c r="J12" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K12" t="n">
         <v>212</v>
@@ -27324,28 +27403,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.2683567090527318</v>
+        <v>0.2285023136754433</v>
       </c>
       <c r="J13" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K13" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003677499857301925</v>
+        <v>0.002665654128480188</v>
       </c>
       <c r="M13" t="n">
-        <v>25.21224676817788</v>
+        <v>25.36395825214852</v>
       </c>
       <c r="N13" t="n">
-        <v>1045.00216485065</v>
+        <v>1050.403797309018</v>
       </c>
       <c r="O13" t="n">
-        <v>32.32649323466203</v>
+        <v>32.40993362086719</v>
       </c>
       <c r="P13" t="n">
-        <v>326.3591353467068</v>
+        <v>326.7662783001091</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27402,28 +27481,28 @@
         <v>0.1188</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1364902972993048</v>
+        <v>0.1068550592745189</v>
       </c>
       <c r="J14" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K14" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0008189276461261219</v>
+        <v>0.00050366182817696</v>
       </c>
       <c r="M14" t="n">
-        <v>28.34404796704519</v>
+        <v>28.42661230902886</v>
       </c>
       <c r="N14" t="n">
-        <v>1200.710456454439</v>
+        <v>1201.571434298109</v>
       </c>
       <c r="O14" t="n">
-        <v>34.65126918966228</v>
+        <v>34.66369043102752</v>
       </c>
       <c r="P14" t="n">
-        <v>325.9654583073421</v>
+        <v>326.268560999473</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27480,28 +27559,28 @@
         <v>0.0794</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.08920518332714632</v>
+        <v>-0.1184611189858198</v>
       </c>
       <c r="J15" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K15" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003100464910130718</v>
+        <v>0.0005485926657068374</v>
       </c>
       <c r="M15" t="n">
-        <v>29.27825386585318</v>
+        <v>29.35092321542604</v>
       </c>
       <c r="N15" t="n">
-        <v>1296.499008692519</v>
+        <v>1296.720999511323</v>
       </c>
       <c r="O15" t="n">
-        <v>36.0069300092707</v>
+        <v>36.01001248974128</v>
       </c>
       <c r="P15" t="n">
-        <v>335.869775473737</v>
+        <v>336.1796409196796</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27561,7 +27640,7 @@
         <v>0.03719374435938587</v>
       </c>
       <c r="J16" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K16" t="n">
         <v>250</v>
@@ -27636,28 +27715,28 @@
         <v>0.0603</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2324771198165259</v>
+        <v>0.2308791418125646</v>
       </c>
       <c r="J17" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K17" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01002410110993324</v>
+        <v>0.00996465260619761</v>
       </c>
       <c r="M17" t="n">
-        <v>13.42707604785068</v>
+        <v>13.38136076207936</v>
       </c>
       <c r="N17" t="n">
-        <v>292.4320178588439</v>
+        <v>291.2659071709098</v>
       </c>
       <c r="O17" t="n">
-        <v>17.10064378492353</v>
+        <v>17.0665142068001</v>
       </c>
       <c r="P17" t="n">
-        <v>349.9579873334349</v>
+        <v>349.9738885170113</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27708,28 +27787,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.3077404626766484</v>
+        <v>0.3031314971844373</v>
       </c>
       <c r="J18" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K18" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01831836975158208</v>
+        <v>0.0179039105840153</v>
       </c>
       <c r="M18" t="n">
-        <v>13.62062703250135</v>
+        <v>13.59447415964264</v>
       </c>
       <c r="N18" t="n">
-        <v>279.9772728345037</v>
+        <v>279.0453988880971</v>
       </c>
       <c r="O18" t="n">
-        <v>16.73252141294024</v>
+        <v>16.7046520133793</v>
       </c>
       <c r="P18" t="n">
-        <v>346.9107843914665</v>
+        <v>346.9565625153853</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27786,28 +27865,28 @@
         <v>0.0659</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3286549886825635</v>
+        <v>0.3289040802943258</v>
       </c>
       <c r="J19" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K19" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02036158882472638</v>
+        <v>0.02053841348043295</v>
       </c>
       <c r="M19" t="n">
-        <v>13.76092650620269</v>
+        <v>13.70655560801597</v>
       </c>
       <c r="N19" t="n">
-        <v>288.105726466679</v>
+        <v>286.9397766614892</v>
       </c>
       <c r="O19" t="n">
-        <v>16.97367745854383</v>
+        <v>16.93929681720848</v>
       </c>
       <c r="P19" t="n">
-        <v>342.5940230690272</v>
+        <v>342.5915254210057</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27864,28 +27943,28 @@
         <v>0.0699</v>
       </c>
       <c r="I20" t="n">
-        <v>0.555392807833158</v>
+        <v>0.5616189536053514</v>
       </c>
       <c r="J20" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K20" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04391659715892182</v>
+        <v>0.04515837600435413</v>
       </c>
       <c r="M20" t="n">
-        <v>14.80866005551663</v>
+        <v>14.78058075963184</v>
       </c>
       <c r="N20" t="n">
-        <v>362.8595484812062</v>
+        <v>361.6524081500702</v>
       </c>
       <c r="O20" t="n">
-        <v>19.04887263019012</v>
+        <v>19.01716088563354</v>
       </c>
       <c r="P20" t="n">
-        <v>334.4247219136287</v>
+        <v>334.3615750870075</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27942,28 +28021,28 @@
         <v>0.0607</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6473825915394983</v>
+        <v>0.6602911870585394</v>
       </c>
       <c r="J21" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K21" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05757730767858382</v>
+        <v>0.06001177622835985</v>
       </c>
       <c r="M21" t="n">
-        <v>15.57341521034896</v>
+        <v>15.5771053400653</v>
       </c>
       <c r="N21" t="n">
-        <v>379.1263264990322</v>
+        <v>378.7517226470211</v>
       </c>
       <c r="O21" t="n">
-        <v>19.47116654181336</v>
+        <v>19.46154471379446</v>
       </c>
       <c r="P21" t="n">
-        <v>333.3064952041327</v>
+        <v>333.1774778548962</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -28020,28 +28099,28 @@
         <v>0.0765</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6126131619022037</v>
+        <v>0.6332698552081348</v>
       </c>
       <c r="J22" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K22" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L22" t="n">
-        <v>0.04809390091552956</v>
+        <v>0.05119193947799805</v>
       </c>
       <c r="M22" t="n">
-        <v>16.28700260783074</v>
+        <v>16.33631634442365</v>
       </c>
       <c r="N22" t="n">
-        <v>411.2109584535881</v>
+        <v>412.7685435838275</v>
       </c>
       <c r="O22" t="n">
-        <v>20.27833717180943</v>
+        <v>20.31670602198662</v>
       </c>
       <c r="P22" t="n">
-        <v>331.5990177757728</v>
+        <v>331.3906128372673</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -28092,28 +28171,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>0.526800689456996</v>
+        <v>0.5499571464869337</v>
       </c>
       <c r="J23" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K23" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0358180950063105</v>
+        <v>0.03881981854507943</v>
       </c>
       <c r="M23" t="n">
-        <v>16.16055391322864</v>
+        <v>16.22232923333353</v>
       </c>
       <c r="N23" t="n">
-        <v>409.838413598146</v>
+        <v>412.2086446309112</v>
       </c>
       <c r="O23" t="n">
-        <v>20.24446624631398</v>
+        <v>20.30292207124165</v>
       </c>
       <c r="P23" t="n">
-        <v>331.0190961547879</v>
+        <v>330.7858040455498</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -28170,28 +28249,28 @@
         <v>0.0547</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7095300940730341</v>
+        <v>0.7311488873112697</v>
       </c>
       <c r="J24" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K24" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L24" t="n">
-        <v>0.05474306642140203</v>
+        <v>0.05797126096819538</v>
       </c>
       <c r="M24" t="n">
-        <v>17.1064221380334</v>
+        <v>17.16384798654541</v>
       </c>
       <c r="N24" t="n">
-        <v>476.0118838535827</v>
+        <v>477.3735027035283</v>
       </c>
       <c r="O24" t="n">
-        <v>21.81769657533954</v>
+        <v>21.84887875163228</v>
       </c>
       <c r="P24" t="n">
-        <v>326.9394888307001</v>
+        <v>326.7221059454836</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -28229,7 +28308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y328"/>
+  <dimension ref="A1:Y329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61637,6 +61716,109 @@
         </is>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-38.495607959634555,174.63563126809345</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-38.49506850043241,174.63636346876098</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-38.49449582266621,174.6369791914511</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-38.49376415950273,174.6370373495129</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>-38.49307029293428,174.63735038965007</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>-38.49226991748397,174.63712007359817</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>-38.488018684716096,174.63775124716042</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>-38.48729877169349,174.63765118561648</t>
+        </is>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>-38.48659090019426,174.6375355134917</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr"/>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>-38.48522709808183,174.63676488493505</t>
+        </is>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>-38.48452167511196,174.63676817390723</t>
+        </is>
+      </c>
+      <c r="S329" t="inlineStr">
+        <is>
+          <t>-38.48382203292249,174.63667580161638</t>
+        </is>
+      </c>
+      <c r="T329" t="inlineStr">
+        <is>
+          <t>-38.483124160053215,174.63655407177967</t>
+        </is>
+      </c>
+      <c r="U329" t="inlineStr">
+        <is>
+          <t>-38.482429434884004,174.63638020055268</t>
+        </is>
+      </c>
+      <c r="V329" t="inlineStr">
+        <is>
+          <t>-38.48173365002431,174.63622373069504</t>
+        </is>
+      </c>
+      <c r="W329" t="inlineStr">
+        <is>
+          <t>-38.481032489055515,174.63615601011293</t>
+        </is>
+      </c>
+      <c r="X329" t="inlineStr">
+        <is>
+          <t>-38.48032890208585,174.63612827632906</t>
+        </is>
+      </c>
+      <c r="Y329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0260/nzd0260.xlsx
+++ b/data/nzd0260/nzd0260.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y329"/>
+  <dimension ref="A1:Y332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22991,6 +22991,235 @@
         </is>
       </c>
     </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:06:21+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>316.2864705882353</v>
+      </c>
+      <c r="C330" t="n">
+        <v>299.215</v>
+      </c>
+      <c r="D330" t="n">
+        <v>253.6952631578947</v>
+      </c>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="n">
+        <v>276.51</v>
+      </c>
+      <c r="G330" t="n">
+        <v>324.1136363636364</v>
+      </c>
+      <c r="H330" t="n">
+        <v>331.0085714285714</v>
+      </c>
+      <c r="I330" t="n">
+        <v>323.0347826086957</v>
+      </c>
+      <c r="J330" t="n">
+        <v>141.15</v>
+      </c>
+      <c r="K330" t="n">
+        <v>149.12</v>
+      </c>
+      <c r="L330" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+      <c r="N330" t="n">
+        <v>253.955</v>
+      </c>
+      <c r="O330" t="inlineStr"/>
+      <c r="P330" t="n">
+        <v>355.1133333333333</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>352.2336363636364</v>
+      </c>
+      <c r="R330" t="n">
+        <v>335.2336363636364</v>
+      </c>
+      <c r="S330" t="n">
+        <v>334.5436363636364</v>
+      </c>
+      <c r="T330" t="n">
+        <v>345.23</v>
+      </c>
+      <c r="U330" t="n">
+        <v>361.3436363636364</v>
+      </c>
+      <c r="V330" t="n">
+        <v>357.95</v>
+      </c>
+      <c r="W330" t="n">
+        <v>361.8742857142857</v>
+      </c>
+      <c r="X330" t="n">
+        <v>360.9233333333333</v>
+      </c>
+      <c r="Y330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>322.2911764705883</v>
+      </c>
+      <c r="C331" t="n">
+        <v>304.05</v>
+      </c>
+      <c r="D331" t="n">
+        <v>269.9178947368421</v>
+      </c>
+      <c r="E331" t="n">
+        <v>293.6414285714285</v>
+      </c>
+      <c r="F331" t="n">
+        <v>304.1</v>
+      </c>
+      <c r="G331" t="n">
+        <v>342.7318181818182</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>216.76</v>
+      </c>
+      <c r="K331" t="n">
+        <v>224.26</v>
+      </c>
+      <c r="L331" t="n">
+        <v>298.47</v>
+      </c>
+      <c r="M331" t="n">
+        <v>285.9118181818182</v>
+      </c>
+      <c r="N331" t="n">
+        <v>291.83</v>
+      </c>
+      <c r="O331" t="n">
+        <v>298.72</v>
+      </c>
+      <c r="P331" t="n">
+        <v>353.23</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>355.1018181818182</v>
+      </c>
+      <c r="R331" t="n">
+        <v>342.2018181818182</v>
+      </c>
+      <c r="S331" t="n">
+        <v>341.3118181818182</v>
+      </c>
+      <c r="T331" t="n">
+        <v>347.27</v>
+      </c>
+      <c r="U331" t="n">
+        <v>360.1818181818182</v>
+      </c>
+      <c r="V331" t="n">
+        <v>366.41</v>
+      </c>
+      <c r="W331" t="n">
+        <v>362.2685714285714</v>
+      </c>
+      <c r="X331" t="n">
+        <v>361.35</v>
+      </c>
+      <c r="Y331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>317.7164705882353</v>
+      </c>
+      <c r="C332" t="n">
+        <v>288.79</v>
+      </c>
+      <c r="D332" t="n">
+        <v>269.4805263157895</v>
+      </c>
+      <c r="E332" t="n">
+        <v>290.8128571428572</v>
+      </c>
+      <c r="F332" t="n">
+        <v>291.94</v>
+      </c>
+      <c r="G332" t="n">
+        <v>334.9218181818182</v>
+      </c>
+      <c r="H332" t="n">
+        <v>327.1142857142857</v>
+      </c>
+      <c r="I332" t="n">
+        <v>326.6878260869565</v>
+      </c>
+      <c r="J332" t="n">
+        <v>199.38</v>
+      </c>
+      <c r="K332" t="n">
+        <v>208.89</v>
+      </c>
+      <c r="L332" t="n">
+        <v>276.93</v>
+      </c>
+      <c r="M332" t="n">
+        <v>298.7318181818182</v>
+      </c>
+      <c r="N332" t="inlineStr"/>
+      <c r="O332" t="inlineStr"/>
+      <c r="P332" t="n">
+        <v>354.7133333333333</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>353.2218181818182</v>
+      </c>
+      <c r="R332" t="n">
+        <v>351.3218181818182</v>
+      </c>
+      <c r="S332" t="n">
+        <v>346.8418181818182</v>
+      </c>
+      <c r="T332" t="n">
+        <v>352.85</v>
+      </c>
+      <c r="U332" t="n">
+        <v>358.6218181818182</v>
+      </c>
+      <c r="V332" t="n">
+        <v>354.99</v>
+      </c>
+      <c r="W332" t="n">
+        <v>359.7471428571428</v>
+      </c>
+      <c r="X332" t="n">
+        <v>367.3133333333333</v>
+      </c>
+      <c r="Y332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23002,7 +23231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B338"/>
+  <dimension ref="A1:B341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26390,6 +26619,36 @@
       </c>
       <c r="B338" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -26563,28 +26822,28 @@
         <v>0.09660000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3641910675773903</v>
+        <v>-0.3644195706881336</v>
       </c>
       <c r="J2" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K2" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06062398256081869</v>
+        <v>0.06194078488783705</v>
       </c>
       <c r="M2" t="n">
-        <v>8.347249296216056</v>
+        <v>8.27595633515058</v>
       </c>
       <c r="N2" t="n">
-        <v>112.7919445516556</v>
+        <v>111.5223802185027</v>
       </c>
       <c r="O2" t="n">
-        <v>10.62035519894017</v>
+        <v>10.56041572185976</v>
       </c>
       <c r="P2" t="n">
-        <v>328.2058743707713</v>
+        <v>328.2081694883522</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26641,28 +26900,28 @@
         <v>0.092</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.452634450222667</v>
+        <v>-0.434906487252852</v>
       </c>
       <c r="J3" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K3" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05081551034780663</v>
+        <v>0.04781560541929153</v>
       </c>
       <c r="M3" t="n">
-        <v>10.95591424049156</v>
+        <v>10.91788591950697</v>
       </c>
       <c r="N3" t="n">
-        <v>210.2705173809011</v>
+        <v>209.0845586980832</v>
       </c>
       <c r="O3" t="n">
-        <v>14.50070747863362</v>
+        <v>14.45975652278016</v>
       </c>
       <c r="P3" t="n">
-        <v>300.577410155514</v>
+        <v>300.3997839801584</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26719,28 +26978,28 @@
         <v>0.1117</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1872601816170582</v>
+        <v>-0.2103149603823573</v>
       </c>
       <c r="J4" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K4" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005784300864182801</v>
+        <v>0.007418112074850769</v>
       </c>
       <c r="M4" t="n">
-        <v>14.53721015574556</v>
+        <v>14.47347981115045</v>
       </c>
       <c r="N4" t="n">
-        <v>336.4123717489396</v>
+        <v>334.2150447625983</v>
       </c>
       <c r="O4" t="n">
-        <v>18.34154769230066</v>
+        <v>18.28154929874923</v>
       </c>
       <c r="P4" t="n">
-        <v>279.383097273985</v>
+        <v>279.6091907801056</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26797,28 +27056,28 @@
         <v>0.0861</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2381947947908349</v>
+        <v>-0.2336389576811366</v>
       </c>
       <c r="J5" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K5" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009084578820904854</v>
+        <v>0.008878461518024516</v>
       </c>
       <c r="M5" t="n">
-        <v>14.03591165810044</v>
+        <v>13.9425107404826</v>
       </c>
       <c r="N5" t="n">
-        <v>335.7846883765578</v>
+        <v>333.1203449395745</v>
       </c>
       <c r="O5" t="n">
-        <v>18.3244287326115</v>
+        <v>18.25158472406093</v>
       </c>
       <c r="P5" t="n">
-        <v>295.3428820871033</v>
+        <v>295.2968589897438</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26875,28 +27134,28 @@
         <v>0.09420000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2635513896688185</v>
+        <v>-0.3042515844812719</v>
       </c>
       <c r="J6" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K6" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00808552147564412</v>
+        <v>0.01087699553555943</v>
       </c>
       <c r="M6" t="n">
-        <v>17.73670410312348</v>
+        <v>17.72005976467914</v>
       </c>
       <c r="N6" t="n">
-        <v>446.2696647605644</v>
+        <v>446.1044656179146</v>
       </c>
       <c r="O6" t="n">
-        <v>21.12509561541827</v>
+        <v>21.12118523231863</v>
       </c>
       <c r="P6" t="n">
-        <v>315.3834057811945</v>
+        <v>315.8007958779978</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26953,28 +27212,28 @@
         <v>0.0616</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09992765836383928</v>
+        <v>0.09505468706998195</v>
       </c>
       <c r="J7" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K7" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001653638586146311</v>
+        <v>0.001525166601148098</v>
       </c>
       <c r="M7" t="n">
-        <v>13.78756889994002</v>
+        <v>13.71133107875339</v>
       </c>
       <c r="N7" t="n">
-        <v>312.8298398079372</v>
+        <v>310.1705512719927</v>
       </c>
       <c r="O7" t="n">
-        <v>17.68699634782393</v>
+        <v>17.61165952634767</v>
       </c>
       <c r="P7" t="n">
-        <v>333.7411101877565</v>
+        <v>333.7914344339155</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27025,28 +27284,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.3230073007707669</v>
+        <v>0.3086498654453131</v>
       </c>
       <c r="J8" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K8" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01596965761178337</v>
+        <v>0.01482312752901715</v>
       </c>
       <c r="M8" t="n">
-        <v>14.20612122385923</v>
+        <v>14.16305663818925</v>
       </c>
       <c r="N8" t="n">
-        <v>339.8652558822067</v>
+        <v>337.5870583746751</v>
       </c>
       <c r="O8" t="n">
-        <v>18.43543478961662</v>
+        <v>18.37354234693667</v>
       </c>
       <c r="P8" t="n">
-        <v>329.4301464101178</v>
+        <v>329.5766871005301</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27097,28 +27356,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>0.2398040728106927</v>
+        <v>0.2223859673300418</v>
       </c>
       <c r="J9" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K9" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008927270588501512</v>
+        <v>0.007804214856045322</v>
       </c>
       <c r="M9" t="n">
-        <v>14.53614976862854</v>
+        <v>14.49230339562645</v>
       </c>
       <c r="N9" t="n">
-        <v>346.6019570522265</v>
+        <v>344.3396812470951</v>
       </c>
       <c r="O9" t="n">
-        <v>18.61724891202313</v>
+        <v>18.55639192426952</v>
       </c>
       <c r="P9" t="n">
-        <v>328.7982738855083</v>
+        <v>328.9734102265303</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27175,28 +27434,28 @@
         <v>0.0419</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.031142951395841</v>
+        <v>-1.380071054769663</v>
       </c>
       <c r="J10" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K10" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03693796584164022</v>
+        <v>0.05705859373504241</v>
       </c>
       <c r="M10" t="n">
-        <v>25.27537803779454</v>
+        <v>27.88841199980769</v>
       </c>
       <c r="N10" t="n">
-        <v>1588.721489009284</v>
+        <v>1826.337995119733</v>
       </c>
       <c r="O10" t="n">
-        <v>39.8587692861845</v>
+        <v>42.73567590573166</v>
       </c>
       <c r="P10" t="n">
-        <v>339.850589756971</v>
+        <v>343.2728872521085</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27253,28 +27512,28 @@
         <v>0.0394</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.8115770614121767</v>
+        <v>-1.176883287769363</v>
       </c>
       <c r="J11" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K11" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01324462298729334</v>
+        <v>0.02596913078510721</v>
       </c>
       <c r="M11" t="n">
-        <v>34.15657078327171</v>
+        <v>36.26567852698468</v>
       </c>
       <c r="N11" t="n">
-        <v>2525.650275409425</v>
+        <v>2717.362867975957</v>
       </c>
       <c r="O11" t="n">
-        <v>50.25584817122704</v>
+        <v>52.1283307614579</v>
       </c>
       <c r="P11" t="n">
-        <v>334.6840772140463</v>
+        <v>338.4550344209329</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27331,28 +27590,28 @@
         <v>0.0363</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.09839457559460944</v>
+        <v>-0.2610072921044409</v>
       </c>
       <c r="J12" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K12" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004240408465780998</v>
+        <v>0.002907747916795933</v>
       </c>
       <c r="M12" t="n">
-        <v>28.26142603732444</v>
+        <v>28.77292704793767</v>
       </c>
       <c r="N12" t="n">
-        <v>1222.922871397695</v>
+        <v>1270.095235760736</v>
       </c>
       <c r="O12" t="n">
-        <v>34.97031414496723</v>
+        <v>35.63839552730645</v>
       </c>
       <c r="P12" t="n">
-        <v>329.214549074013</v>
+        <v>330.8408028231126</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27403,28 +27662,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.2285023136754433</v>
+        <v>0.1624144776493441</v>
       </c>
       <c r="J13" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K13" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002665654128480188</v>
+        <v>0.001352223613680814</v>
       </c>
       <c r="M13" t="n">
-        <v>25.36395825214852</v>
+        <v>25.57198902755812</v>
       </c>
       <c r="N13" t="n">
-        <v>1050.403797309018</v>
+        <v>1055.529821910091</v>
       </c>
       <c r="O13" t="n">
-        <v>32.40993362086719</v>
+        <v>32.48891844783527</v>
       </c>
       <c r="P13" t="n">
-        <v>326.7662783001091</v>
+        <v>327.4436199771329</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27481,28 +27740,28 @@
         <v>0.1188</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1068550592745189</v>
+        <v>0.02064841144072016</v>
       </c>
       <c r="J14" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K14" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00050366182817696</v>
+        <v>1.867502399277576e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>28.42661230902886</v>
+        <v>28.783208848435</v>
       </c>
       <c r="N14" t="n">
-        <v>1201.571434298109</v>
+        <v>1219.786610490175</v>
       </c>
       <c r="O14" t="n">
-        <v>34.66369043102752</v>
+        <v>34.92544359761484</v>
       </c>
       <c r="P14" t="n">
-        <v>326.268560999473</v>
+        <v>327.1515603085339</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27559,28 +27818,28 @@
         <v>0.0794</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1184611189858198</v>
+        <v>-0.1454978028444484</v>
       </c>
       <c r="J15" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K15" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0005485926657068374</v>
+        <v>0.000830754313470683</v>
       </c>
       <c r="M15" t="n">
-        <v>29.35092321542604</v>
+        <v>29.41060976092535</v>
       </c>
       <c r="N15" t="n">
-        <v>1296.720999511323</v>
+        <v>1296.210079936972</v>
       </c>
       <c r="O15" t="n">
-        <v>36.01001248974128</v>
+        <v>36.00291765867</v>
       </c>
       <c r="P15" t="n">
-        <v>336.1796409196796</v>
+        <v>336.4666196696083</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27637,28 +27896,28 @@
         <v>0.0488</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03719374435938587</v>
+        <v>0.03908819496472848</v>
       </c>
       <c r="J16" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K16" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001942212464471904</v>
+        <v>0.0002192696100157265</v>
       </c>
       <c r="M16" t="n">
-        <v>15.42144272130957</v>
+        <v>15.25025383841007</v>
       </c>
       <c r="N16" t="n">
-        <v>379.3075251635925</v>
+        <v>374.8262670791784</v>
       </c>
       <c r="O16" t="n">
-        <v>19.47581898569589</v>
+        <v>19.36043044663982</v>
       </c>
       <c r="P16" t="n">
-        <v>352.5287708163436</v>
+        <v>352.5092437148495</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27715,28 +27974,28 @@
         <v>0.0603</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2308791418125646</v>
+        <v>0.2256506820749255</v>
       </c>
       <c r="J17" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K17" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00996465260619761</v>
+        <v>0.00973971542036256</v>
       </c>
       <c r="M17" t="n">
-        <v>13.38136076207936</v>
+        <v>13.24859193140068</v>
       </c>
       <c r="N17" t="n">
-        <v>291.2659071709098</v>
+        <v>287.8529178819142</v>
       </c>
       <c r="O17" t="n">
-        <v>17.0665142068001</v>
+        <v>16.96622874659876</v>
       </c>
       <c r="P17" t="n">
-        <v>349.9738885170113</v>
+        <v>350.0260484892517</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27787,28 +28046,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.3031314971844373</v>
+        <v>0.2783709431475042</v>
       </c>
       <c r="J18" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K18" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0179039105840153</v>
+        <v>0.01535783893705733</v>
       </c>
       <c r="M18" t="n">
-        <v>13.59447415964264</v>
+        <v>13.57972721300287</v>
       </c>
       <c r="N18" t="n">
-        <v>279.0453988880971</v>
+        <v>277.8810030327989</v>
       </c>
       <c r="O18" t="n">
-        <v>16.7046520133793</v>
+        <v>16.66976313667351</v>
       </c>
       <c r="P18" t="n">
-        <v>346.9565625153853</v>
+        <v>347.2029557759229</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27865,28 +28124,28 @@
         <v>0.0659</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3289040802943258</v>
+        <v>0.3074782196643995</v>
       </c>
       <c r="J19" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K19" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02053841348043295</v>
+        <v>0.01828574070314082</v>
       </c>
       <c r="M19" t="n">
-        <v>13.70655560801597</v>
+        <v>13.66446969336461</v>
       </c>
       <c r="N19" t="n">
-        <v>286.9397766614892</v>
+        <v>284.988233608505</v>
       </c>
       <c r="O19" t="n">
-        <v>16.93929681720848</v>
+        <v>16.88159452209728</v>
       </c>
       <c r="P19" t="n">
-        <v>342.5915254210057</v>
+        <v>342.8068099272122</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27943,28 +28202,28 @@
         <v>0.0699</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5616189536053514</v>
+        <v>0.5609606732721023</v>
       </c>
       <c r="J20" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K20" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04515837600435413</v>
+        <v>0.04601800999254002</v>
       </c>
       <c r="M20" t="n">
-        <v>14.78058075963184</v>
+        <v>14.6384357992871</v>
       </c>
       <c r="N20" t="n">
-        <v>361.6524081500702</v>
+        <v>357.4029872260058</v>
       </c>
       <c r="O20" t="n">
-        <v>19.01716088563354</v>
+        <v>18.90510479278033</v>
       </c>
       <c r="P20" t="n">
-        <v>334.3615750870075</v>
+        <v>334.3681635136231</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -28021,28 +28280,28 @@
         <v>0.0607</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6602911870585394</v>
+        <v>0.6821504525996174</v>
       </c>
       <c r="J21" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K21" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L21" t="n">
-        <v>0.06001177622835985</v>
+        <v>0.06496033102605858</v>
       </c>
       <c r="M21" t="n">
-        <v>15.5771053400653</v>
+        <v>15.49927405513649</v>
       </c>
       <c r="N21" t="n">
-        <v>378.7517226470211</v>
+        <v>375.2852588813722</v>
       </c>
       <c r="O21" t="n">
-        <v>19.46154471379446</v>
+        <v>19.37228068352749</v>
       </c>
       <c r="P21" t="n">
-        <v>333.1774778548962</v>
+        <v>332.9584339214525</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -28099,28 +28358,28 @@
         <v>0.0765</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6332698552081348</v>
+        <v>0.659171907350722</v>
       </c>
       <c r="J22" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K22" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05119193947799805</v>
+        <v>0.05609070463802535</v>
       </c>
       <c r="M22" t="n">
-        <v>16.33631634442365</v>
+        <v>16.28049695213696</v>
       </c>
       <c r="N22" t="n">
-        <v>412.7685435838275</v>
+        <v>409.7648026494188</v>
       </c>
       <c r="O22" t="n">
-        <v>20.31670602198662</v>
+        <v>20.24264811356011</v>
       </c>
       <c r="P22" t="n">
-        <v>331.3906128372673</v>
+        <v>331.1286069078549</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -28171,28 +28430,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>0.5499571464869337</v>
+        <v>0.584759301642355</v>
       </c>
       <c r="J23" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K23" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03881981854507943</v>
+        <v>0.04425425354156631</v>
       </c>
       <c r="M23" t="n">
-        <v>16.22232923333353</v>
+        <v>16.21698542380512</v>
       </c>
       <c r="N23" t="n">
-        <v>412.2086446309112</v>
+        <v>410.4249949230004</v>
       </c>
       <c r="O23" t="n">
-        <v>20.30292207124165</v>
+        <v>20.25894851474282</v>
       </c>
       <c r="P23" t="n">
-        <v>330.7858040455498</v>
+        <v>330.4342461647973</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -28249,28 +28508,28 @@
         <v>0.0547</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7311488873112697</v>
+        <v>0.770262053212427</v>
       </c>
       <c r="J24" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K24" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L24" t="n">
-        <v>0.05797126096819538</v>
+        <v>0.06480564664591904</v>
       </c>
       <c r="M24" t="n">
-        <v>17.16384798654541</v>
+        <v>17.18562563143207</v>
       </c>
       <c r="N24" t="n">
-        <v>477.3735027035283</v>
+        <v>475.3487142918896</v>
       </c>
       <c r="O24" t="n">
-        <v>21.84887875163228</v>
+        <v>21.80249330447987</v>
       </c>
       <c r="P24" t="n">
-        <v>326.7221059454836</v>
+        <v>326.3276413210307</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -28308,7 +28567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y329"/>
+  <dimension ref="A1:Y332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61819,6 +62078,359 @@
         </is>
       </c>
     </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:06:21+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-38.495684765385555,174.6359006343179</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-38.49507927097287,174.6364012425609</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-38.49456118709691,174.63720843652874</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>-38.493130772595244,174.63761498726052</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>-38.49228488041971,174.6373064368994</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>-38.49154940281603,174.6372301859221</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>-38.4908454483443,174.63732160451664</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>-38.49012315792597,174.63940655217743</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>-38.489420870329766,174.63931518695273</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>-38.48872539831891,174.6384820714199</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr"/>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>-38.48727827234238,174.63808285038564</t>
+        </is>
+      </c>
+      <c r="O330" t="inlineStr"/>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>-38.485929685284326,174.6368083542631</t>
+        </is>
+      </c>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>-38.485226018756364,174.63678272478685</t>
+        </is>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>-38.48451258153254,174.6369184760301</t>
+        </is>
+      </c>
+      <c r="S330" t="inlineStr">
+        <is>
+          <t>-38.48381041556026,174.6368678178506</t>
+        </is>
+      </c>
+      <c r="T330" t="inlineStr">
+        <is>
+          <t>-38.483116109182056,174.6366871412392</t>
+        </is>
+      </c>
+      <c r="U330" t="inlineStr">
+        <is>
+          <t>-38.482425548377314,174.63644444026218</t>
+        </is>
+      </c>
+      <c r="V330" t="inlineStr">
+        <is>
+          <t>-38.4817214924001,174.6364246834932</t>
+        </is>
+      </c>
+      <c r="W330" t="inlineStr">
+        <is>
+          <t>-38.481022489467485,174.63632129322644</t>
+        </is>
+      </c>
+      <c r="X330" t="inlineStr">
+        <is>
+          <t>-38.48032010879844,174.6362736198641</t>
+        </is>
+      </c>
+      <c r="Y330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>-38.49566631326388,174.63583592044256</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-38.49506441346229,174.6363491351964</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-38.494511337379734,174.6370336042224</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>-38.49378047204056,174.63709455967103</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>-38.49306135219222,174.63731127429935</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>-38.49226783222222,174.63709410197234</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>-38.49013113087817,174.63853983974892</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>-38.48942879292159,174.63845387043244</t>
+        </is>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>-38.48873347576411,174.6376032249076</t>
+        </is>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>-38.488018776584454,174.63774703859306</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>-38.48729885319868,174.63764946925497</t>
+        </is>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>-38.48659235704933,174.63751143566517</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>-38.485928383003206,174.63682987935536</t>
+        </is>
+      </c>
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>-38.48522800202269,174.63674994392875</t>
+        </is>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>-38.48451739990891,174.63683883648278</t>
+        </is>
+      </c>
+      <c r="S331" t="inlineStr">
+        <is>
+          <t>-38.48381509560781,174.63679046485552</t>
+        </is>
+      </c>
+      <c r="T331" t="inlineStr">
+        <is>
+          <t>-38.48311751976641,174.6366638264667</t>
+        </is>
+      </c>
+      <c r="U331" t="inlineStr">
+        <is>
+          <t>-38.48242474504841,174.63645771833797</t>
+        </is>
+      </c>
+      <c r="V331" t="inlineStr">
+        <is>
+          <t>-38.48172734193116,174.63632799758815</t>
+        </is>
+      </c>
+      <c r="W331" t="inlineStr">
+        <is>
+          <t>-38.48102276208784,174.63631678713853</t>
+        </is>
+      </c>
+      <c r="X331" t="inlineStr">
+        <is>
+          <t>-38.48032040380593,174.63626874375808</t>
+        </is>
+      </c>
+      <c r="Y331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-38.49568037107972,174.63588522292872</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-38.495111305959,174.63651359408422</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-38.494512681350884,174.63703831776596</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-38.493789163854764,174.63712504302703</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>-38.49309194859769,174.63744513249844</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>-38.492274983688546,174.63718317273126</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>-38.49154899281029,174.6372748267726</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>-38.49084583296115,174.63727972947459</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>-38.49012929875286,174.63873906557657</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>-38.48942717285871,174.63863005405588</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>-38.48873120711779,174.63785013187552</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>-38.48802198324104,174.6376001345809</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr"/>
+      <c r="O332" t="inlineStr"/>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>-38.48592940869397,174.6368129259642</t>
+        </is>
+      </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>-38.485226702057076,174.6367714307165</t>
+        </is>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>-38.48452370614856,174.6367346037256</t>
+        </is>
+      </c>
+      <c r="S332" t="inlineStr">
+        <is>
+          <t>-38.48381891944235,174.63672726293018</t>
+        </is>
+      </c>
+      <c r="T332" t="inlineStr">
+        <is>
+          <t>-38.48312137810589,174.6366000537011</t>
+        </is>
+      </c>
+      <c r="U332" t="inlineStr">
+        <is>
+          <t>-38.48242366639786,174.63647554711517</t>
+        </is>
+      </c>
+      <c r="V332" t="inlineStr">
+        <is>
+          <t>-38.48171944573688,174.636458512127</t>
+        </is>
+      </c>
+      <c r="W332" t="inlineStr">
+        <is>
+          <t>-38.481021018697525,174.63634560324357</t>
+        </is>
+      </c>
+      <c r="X332" t="inlineStr">
+        <is>
+          <t>-38.48032452697535,174.63620059255237</t>
+        </is>
+      </c>
+      <c r="Y332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0260/nzd0260.xlsx
+++ b/data/nzd0260/nzd0260.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y332"/>
+  <dimension ref="A1:Y333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23220,6 +23220,81 @@
         </is>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>317.4888235294118</v>
+      </c>
+      <c r="C333" t="n">
+        <v>290.875</v>
+      </c>
+      <c r="D333" t="n">
+        <v>277.5852631578948</v>
+      </c>
+      <c r="E333" t="n">
+        <v>296.2</v>
+      </c>
+      <c r="F333" t="n">
+        <v>306.8166666666667</v>
+      </c>
+      <c r="G333" t="n">
+        <v>329.94</v>
+      </c>
+      <c r="H333" t="n">
+        <v>312.25</v>
+      </c>
+      <c r="I333" t="n">
+        <v>322.7069565217392</v>
+      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>281.5166666666667</v>
+      </c>
+      <c r="M333" t="n">
+        <v>291.59</v>
+      </c>
+      <c r="N333" t="n">
+        <v>285.625</v>
+      </c>
+      <c r="O333" t="n">
+        <v>280.9633333333333</v>
+      </c>
+      <c r="P333" t="inlineStr"/>
+      <c r="Q333" t="n">
+        <v>347.72</v>
+      </c>
+      <c r="R333" t="n">
+        <v>351.47</v>
+      </c>
+      <c r="S333" t="n">
+        <v>347.32</v>
+      </c>
+      <c r="T333" t="n">
+        <v>340.8833333333333</v>
+      </c>
+      <c r="U333" t="n">
+        <v>341.99</v>
+      </c>
+      <c r="V333" t="n">
+        <v>343.8733333333333</v>
+      </c>
+      <c r="W333" t="n">
+        <v>352.3266666666667</v>
+      </c>
+      <c r="X333" t="n">
+        <v>361.9711111111111</v>
+      </c>
+      <c r="Y333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23231,7 +23306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B341"/>
+  <dimension ref="A1:B342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26649,6 +26724,16 @@
       </c>
       <c r="B341" t="n">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -28567,7 +28652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y332"/>
+  <dimension ref="A1:Y333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62431,6 +62516,121 @@
         </is>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-38.49568107062587,174.6358876763254</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-38.495104898970595,174.63649112377183</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-38.49448777661205,174.63695097259864</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-38.49377260989255,174.637066986096</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>-38.49305451662532,174.63728136904214</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>-38.492279545407754,174.63723998891413</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>-38.491547427683315,174.63744521856327</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>-38.49084541382785,174.63732536240542</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>-38.48873169024051,174.6377975562071</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>-38.48802019688633,174.63768197247296</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>-38.48729548157979,174.6377204694056</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>-38.48658007735856,174.63771438275256</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr"/>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>-38.485222897686405,174.63683431177478</t>
+        </is>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>-38.48452380861162,174.63673291015095</t>
+        </is>
+      </c>
+      <c r="S333" t="inlineStr">
+        <is>
+          <t>-38.4838192500896,174.63672179782824</t>
+        </is>
+      </c>
+      <c r="T333" t="inlineStr">
+        <is>
+          <t>-38.48311310360781,174.63673681846333</t>
+        </is>
+      </c>
+      <c r="U333" t="inlineStr">
+        <is>
+          <t>-38.48241216628114,174.63666562719237</t>
+        </is>
+      </c>
+      <c r="V333" t="inlineStr">
+        <is>
+          <t>-38.48171175913891,174.6365855599601</t>
+        </is>
+      </c>
+      <c r="W333" t="inlineStr">
+        <is>
+          <t>-38.481015887919746,174.63643040802432</t>
+        </is>
+      </c>
+      <c r="X333" t="inlineStr">
+        <is>
+          <t>-38.48032083325657,174.6362616454682</t>
+        </is>
+      </c>
+      <c r="Y333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0260/nzd0260.xlsx
+++ b/data/nzd0260/nzd0260.xlsx
@@ -26907,28 +26907,28 @@
         <v>0.09660000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3644195706881336</v>
+        <v>-0.3653877778587536</v>
       </c>
       <c r="J2" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K2" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06194078488783705</v>
+        <v>0.0626776228928736</v>
       </c>
       <c r="M2" t="n">
-        <v>8.27595633515058</v>
+        <v>8.24827235761774</v>
       </c>
       <c r="N2" t="n">
-        <v>111.5223802185027</v>
+        <v>111.0868836594565</v>
       </c>
       <c r="O2" t="n">
-        <v>10.56041572185976</v>
+        <v>10.53977626230541</v>
       </c>
       <c r="P2" t="n">
-        <v>328.2081694883522</v>
+        <v>328.2179633332568</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26985,28 +26985,28 @@
         <v>0.092</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.434906487252852</v>
+        <v>-0.4337292385620461</v>
       </c>
       <c r="J3" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K3" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04781560541929153</v>
+        <v>0.04789620655864191</v>
       </c>
       <c r="M3" t="n">
-        <v>10.91788591950697</v>
+        <v>10.88149106725188</v>
       </c>
       <c r="N3" t="n">
-        <v>209.0845586980832</v>
+        <v>208.2879043949315</v>
       </c>
       <c r="O3" t="n">
-        <v>14.45975652278016</v>
+        <v>14.4321829393523</v>
       </c>
       <c r="P3" t="n">
-        <v>300.3997839801584</v>
+        <v>300.3879133537213</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27063,28 +27063,28 @@
         <v>0.1117</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2103149603823573</v>
+        <v>-0.2077683492763256</v>
       </c>
       <c r="J4" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K4" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007418112074850769</v>
+        <v>0.007296897234277178</v>
       </c>
       <c r="M4" t="n">
-        <v>14.47347981115045</v>
+        <v>14.42924278258787</v>
       </c>
       <c r="N4" t="n">
-        <v>334.2150447625983</v>
+        <v>332.8972132378718</v>
       </c>
       <c r="O4" t="n">
-        <v>18.28154929874923</v>
+        <v>18.24547103359822</v>
       </c>
       <c r="P4" t="n">
-        <v>279.6091907801056</v>
+        <v>279.5840615343907</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27141,28 +27141,28 @@
         <v>0.0861</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2336389576811366</v>
+        <v>-0.2283883058832059</v>
       </c>
       <c r="J5" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K5" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008878461518024516</v>
+        <v>0.008548289679606413</v>
       </c>
       <c r="M5" t="n">
-        <v>13.9425107404826</v>
+        <v>13.91049938242043</v>
       </c>
       <c r="N5" t="n">
-        <v>333.1203449395745</v>
+        <v>331.9535907276142</v>
       </c>
       <c r="O5" t="n">
-        <v>18.25158472406093</v>
+        <v>18.2195935939201</v>
       </c>
       <c r="P5" t="n">
-        <v>295.2968589897438</v>
+        <v>295.2435466557989</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27219,28 +27219,28 @@
         <v>0.09420000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3042515844812719</v>
+        <v>-0.3051312118376432</v>
       </c>
       <c r="J6" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K6" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01087699553555943</v>
+        <v>0.01102443954817667</v>
       </c>
       <c r="M6" t="n">
-        <v>17.72005976467914</v>
+        <v>17.65394630581412</v>
       </c>
       <c r="N6" t="n">
-        <v>446.1044656179146</v>
+        <v>444.3394320006631</v>
       </c>
       <c r="O6" t="n">
-        <v>21.12118523231863</v>
+        <v>21.07936033186641</v>
       </c>
       <c r="P6" t="n">
-        <v>315.8007958779978</v>
+        <v>315.8098654551727</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27297,28 +27297,28 @@
         <v>0.0616</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09505468706998195</v>
+        <v>0.09074348326389552</v>
       </c>
       <c r="J7" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K7" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001525166601148098</v>
+        <v>0.001399270331765234</v>
       </c>
       <c r="M7" t="n">
-        <v>13.71133107875339</v>
+        <v>13.68461187410674</v>
       </c>
       <c r="N7" t="n">
-        <v>310.1705512719927</v>
+        <v>309.2098228212035</v>
       </c>
       <c r="O7" t="n">
-        <v>17.61165952634767</v>
+        <v>17.58436302005857</v>
       </c>
       <c r="P7" t="n">
-        <v>333.7914344339155</v>
+        <v>333.8362624154809</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27369,28 +27369,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.3086498654453131</v>
+        <v>0.2877612165201634</v>
       </c>
       <c r="J8" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K8" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01482312752901715</v>
+        <v>0.01291616478655289</v>
       </c>
       <c r="M8" t="n">
-        <v>14.16305663818925</v>
+        <v>14.21844577001555</v>
       </c>
       <c r="N8" t="n">
-        <v>337.5870583746751</v>
+        <v>338.8491914535234</v>
       </c>
       <c r="O8" t="n">
-        <v>18.37354234693667</v>
+        <v>18.40785678599014</v>
       </c>
       <c r="P8" t="n">
-        <v>329.5766871005301</v>
+        <v>329.7908520568625</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27441,28 +27441,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>0.2223859673300418</v>
+        <v>0.2120667088541316</v>
       </c>
       <c r="J9" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K9" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007804214856045322</v>
+        <v>0.007151423028432635</v>
       </c>
       <c r="M9" t="n">
-        <v>14.49230339562645</v>
+        <v>14.48034270212416</v>
       </c>
       <c r="N9" t="n">
-        <v>344.3396812470951</v>
+        <v>343.4064122382138</v>
       </c>
       <c r="O9" t="n">
-        <v>18.55639192426952</v>
+        <v>18.53122802833676</v>
       </c>
       <c r="P9" t="n">
-        <v>328.9734102265303</v>
+        <v>329.0777288849349</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27522,7 +27522,7 @@
         <v>-1.380071054769663</v>
       </c>
       <c r="J10" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K10" t="n">
         <v>190</v>
@@ -27600,7 +27600,7 @@
         <v>-1.176883287769363</v>
       </c>
       <c r="J11" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K11" t="n">
         <v>191</v>
@@ -27675,28 +27675,28 @@
         <v>0.0363</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2610072921044409</v>
+        <v>-0.2987625246715078</v>
       </c>
       <c r="J12" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K12" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002907747916795933</v>
+        <v>0.003817078704881571</v>
       </c>
       <c r="M12" t="n">
-        <v>28.77292704793767</v>
+        <v>28.85207467761094</v>
       </c>
       <c r="N12" t="n">
-        <v>1270.095235760736</v>
+        <v>1272.502779791413</v>
       </c>
       <c r="O12" t="n">
-        <v>35.63839552730645</v>
+        <v>35.67215692653604</v>
       </c>
       <c r="P12" t="n">
-        <v>330.8408028231126</v>
+        <v>331.2204556104314</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27747,28 +27747,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.1624144776493441</v>
+        <v>0.1297104938693882</v>
       </c>
       <c r="J13" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K13" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001352223613680814</v>
+        <v>0.0008642543973615968</v>
       </c>
       <c r="M13" t="n">
-        <v>25.57198902755812</v>
+        <v>25.67699518117956</v>
       </c>
       <c r="N13" t="n">
-        <v>1055.529821910091</v>
+        <v>1057.871772343922</v>
       </c>
       <c r="O13" t="n">
-        <v>32.48891844783527</v>
+        <v>32.52494077387263</v>
       </c>
       <c r="P13" t="n">
-        <v>327.4436199771329</v>
+        <v>327.7804222908673</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27825,28 +27825,28 @@
         <v>0.1188</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02064841144072016</v>
+        <v>-0.01166958452780793</v>
       </c>
       <c r="J14" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K14" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L14" t="n">
-        <v>1.867502399277576e-05</v>
+        <v>5.97698110582634e-06</v>
       </c>
       <c r="M14" t="n">
-        <v>28.783208848435</v>
+        <v>28.88549864171878</v>
       </c>
       <c r="N14" t="n">
-        <v>1219.786610490175</v>
+        <v>1221.933420593119</v>
       </c>
       <c r="O14" t="n">
-        <v>34.92544359761484</v>
+        <v>34.95616427174353</v>
       </c>
       <c r="P14" t="n">
-        <v>327.1515603085339</v>
+        <v>327.4846823527927</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27903,28 +27903,28 @@
         <v>0.0794</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1454978028444484</v>
+        <v>-0.1861160329952923</v>
       </c>
       <c r="J15" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K15" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000830754313470683</v>
+        <v>0.001358032906598639</v>
       </c>
       <c r="M15" t="n">
-        <v>29.41060976092535</v>
+        <v>29.55955307920934</v>
       </c>
       <c r="N15" t="n">
-        <v>1296.210079936972</v>
+        <v>1301.680084251482</v>
       </c>
       <c r="O15" t="n">
-        <v>36.00291765867</v>
+        <v>36.07880380848957</v>
       </c>
       <c r="P15" t="n">
-        <v>336.4666196696083</v>
+        <v>336.9000735587001</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27984,7 +27984,7 @@
         <v>0.03908819496472848</v>
       </c>
       <c r="J16" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K16" t="n">
         <v>253</v>
@@ -28059,28 +28059,28 @@
         <v>0.0603</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2256506820749255</v>
+        <v>0.2197005513543864</v>
       </c>
       <c r="J17" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K17" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00973971542036256</v>
+        <v>0.009298935939475728</v>
       </c>
       <c r="M17" t="n">
-        <v>13.24859193140068</v>
+        <v>13.2269837077298</v>
       </c>
       <c r="N17" t="n">
-        <v>287.8529178819142</v>
+        <v>286.9653296905163</v>
       </c>
       <c r="O17" t="n">
-        <v>16.96622874659876</v>
+        <v>16.94005105336216</v>
       </c>
       <c r="P17" t="n">
-        <v>350.0260484892517</v>
+        <v>350.0857356074205</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28131,28 +28131,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.2783709431475042</v>
+        <v>0.2763450833823111</v>
       </c>
       <c r="J18" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K18" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01535783893705733</v>
+        <v>0.01524473017482242</v>
       </c>
       <c r="M18" t="n">
-        <v>13.57972721300287</v>
+        <v>13.53915759112853</v>
       </c>
       <c r="N18" t="n">
-        <v>277.8810030327989</v>
+        <v>276.8481281135029</v>
       </c>
       <c r="O18" t="n">
-        <v>16.66976313667351</v>
+        <v>16.63875380289951</v>
       </c>
       <c r="P18" t="n">
-        <v>347.2029557759229</v>
+        <v>347.2232423943948</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -28209,28 +28209,28 @@
         <v>0.0659</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3074782196643995</v>
+        <v>0.3050783751550128</v>
       </c>
       <c r="J19" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K19" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01828574070314082</v>
+        <v>0.01812958806555565</v>
       </c>
       <c r="M19" t="n">
-        <v>13.66446969336461</v>
+        <v>13.62365346656869</v>
       </c>
       <c r="N19" t="n">
-        <v>284.988233608505</v>
+        <v>283.8983704288609</v>
       </c>
       <c r="O19" t="n">
-        <v>16.88159452209728</v>
+        <v>16.84928397377351</v>
       </c>
       <c r="P19" t="n">
-        <v>342.8068099272122</v>
+        <v>342.8310799423878</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -28287,28 +28287,28 @@
         <v>0.0699</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5609606732721023</v>
+        <v>0.555156702023491</v>
       </c>
       <c r="J20" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K20" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04601800999254002</v>
+        <v>0.04540316175113668</v>
       </c>
       <c r="M20" t="n">
-        <v>14.6384357992871</v>
+        <v>14.611900267153</v>
       </c>
       <c r="N20" t="n">
-        <v>357.4029872260058</v>
+        <v>356.2167850033919</v>
       </c>
       <c r="O20" t="n">
-        <v>18.90510479278033</v>
+        <v>18.8737061809119</v>
       </c>
       <c r="P20" t="n">
-        <v>334.3681635136231</v>
+        <v>334.4275112092271</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -28365,28 +28365,28 @@
         <v>0.0607</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6821504525996174</v>
+        <v>0.6759123320890542</v>
       </c>
       <c r="J21" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K21" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L21" t="n">
-        <v>0.06496033102605858</v>
+        <v>0.06425185603192329</v>
       </c>
       <c r="M21" t="n">
-        <v>15.49927405513649</v>
+        <v>15.472845554824</v>
       </c>
       <c r="N21" t="n">
-        <v>375.2852588813722</v>
+        <v>374.0466581015193</v>
       </c>
       <c r="O21" t="n">
-        <v>19.37228068352749</v>
+        <v>19.34028588468949</v>
       </c>
       <c r="P21" t="n">
-        <v>332.9584339214525</v>
+        <v>333.0213070236229</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -28443,28 +28443,28 @@
         <v>0.0765</v>
       </c>
       <c r="I22" t="n">
-        <v>0.659171907350722</v>
+        <v>0.6561765222806728</v>
       </c>
       <c r="J22" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K22" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05609070463802535</v>
+        <v>0.05597252695682631</v>
       </c>
       <c r="M22" t="n">
-        <v>16.28049695213696</v>
+        <v>16.23204587673648</v>
       </c>
       <c r="N22" t="n">
-        <v>409.7648026494188</v>
+        <v>408.1771243959768</v>
       </c>
       <c r="O22" t="n">
-        <v>20.24264811356011</v>
+        <v>20.20339388310728</v>
       </c>
       <c r="P22" t="n">
-        <v>331.1286069078549</v>
+        <v>331.159091265991</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -28515,28 +28515,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>0.584759301642355</v>
+        <v>0.5895927026477398</v>
       </c>
       <c r="J23" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K23" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L23" t="n">
-        <v>0.04425425354156631</v>
+        <v>0.04524316220859936</v>
       </c>
       <c r="M23" t="n">
-        <v>16.21698542380512</v>
+        <v>16.17896757328645</v>
       </c>
       <c r="N23" t="n">
-        <v>410.4249949230004</v>
+        <v>408.9914863796309</v>
       </c>
       <c r="O23" t="n">
-        <v>20.25894851474282</v>
+        <v>20.22353792934438</v>
       </c>
       <c r="P23" t="n">
-        <v>330.4342461647973</v>
+        <v>330.3851414191012</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -28593,28 +28593,28 @@
         <v>0.0547</v>
       </c>
       <c r="I24" t="n">
-        <v>0.770262053212427</v>
+        <v>0.7818738204271896</v>
       </c>
       <c r="J24" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K24" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06480564664591904</v>
+        <v>0.06697465278497328</v>
       </c>
       <c r="M24" t="n">
-        <v>17.18562563143207</v>
+        <v>17.18378322923274</v>
       </c>
       <c r="N24" t="n">
-        <v>475.3487142918896</v>
+        <v>474.4221438606548</v>
       </c>
       <c r="O24" t="n">
-        <v>21.80249330447987</v>
+        <v>21.78123375432748</v>
       </c>
       <c r="P24" t="n">
-        <v>326.3276413210307</v>
+        <v>326.209909235908</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">

--- a/data/nzd0260/nzd0260.xlsx
+++ b/data/nzd0260/nzd0260.xlsx
@@ -26898,13 +26898,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0795</v>
+        <v>0.0844</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09660000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>-0.3653618875000517</v>
@@ -26976,13 +26976,13 @@
         <v>0.9545133534884135</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0694</v>
+        <v>0.0499</v>
       </c>
       <c r="H3" t="n">
-        <v>0.092</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
         <v>-0.4337671605430786</v>
@@ -27054,13 +27054,13 @@
         <v>0.9090267069768269</v>
       </c>
       <c r="F4" t="n">
-        <v>0.095</v>
+        <v>0.12</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0829</v>
+        <v>0.0951</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1117</v>
+        <v>0.1617</v>
       </c>
       <c r="I4" t="n">
         <v>-0.2077452998238017</v>
@@ -27132,13 +27132,13 @@
         <v>0.8635400604652403</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06279999999999999</v>
+        <v>0.1066</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0861</v>
+        <v>0.1676</v>
       </c>
       <c r="I5" t="n">
         <v>-0.2283825214366408</v>
@@ -27210,13 +27210,13 @@
         <v>0.818053413953453</v>
       </c>
       <c r="F6" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0644</v>
+        <v>0.0709</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09420000000000001</v>
+        <v>0.1064</v>
       </c>
       <c r="I6" t="n">
         <v>-0.3051526322088261</v>
@@ -27288,13 +27288,13 @@
         <v>0.7732488008167052</v>
       </c>
       <c r="F7" t="n">
-        <v>0.055</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0538</v>
+        <v>0.0641</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0616</v>
+        <v>0.129</v>
       </c>
       <c r="I7" t="n">
         <v>0.09073927356148054</v>
@@ -27365,9 +27365,15 @@
       <c r="E8" t="n">
         <v>0.7277621543048144</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0518</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1158</v>
+      </c>
       <c r="I8" t="n">
         <v>0.2877646645289788</v>
       </c>
@@ -27437,9 +27443,15 @@
       <c r="E9" t="n">
         <v>0.6822755077929236</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0765</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I9" t="n">
         <v>0.2120775163598193</v>
       </c>
@@ -27510,13 +27522,13 @@
         <v>0.6367888612810327</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03</v>
+        <v>0.055</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0251</v>
+        <v>0.0404</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0419</v>
+        <v>0.0897</v>
       </c>
       <c r="I10" t="n">
         <v>-1.380078310948017</v>
@@ -27588,13 +27600,13 @@
         <v>0.5913022147691418</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0248</v>
+        <v>0.0294</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0394</v>
+        <v>0.0453</v>
       </c>
       <c r="I11" t="n">
         <v>-1.176887260670683</v>
@@ -27669,10 +27681,10 @@
         <v>0.03</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0281</v>
+        <v>0.025</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0363</v>
+        <v>0.0344</v>
       </c>
       <c r="I12" t="n">
         <v>-0.2987738568640891</v>
@@ -27743,9 +27755,15 @@
       <c r="E13" t="n">
         <v>0.5003289217453601</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0566</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0999</v>
+      </c>
       <c r="I13" t="n">
         <v>0.1297376899194734</v>
       </c>
@@ -27816,13 +27834,13 @@
         <v>0.4548664651182396</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08</v>
+        <v>0.135</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0624</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1188</v>
+        <v>0.2</v>
       </c>
       <c r="I14" t="n">
         <v>-0.011650238475397</v>
@@ -27894,13 +27912,13 @@
         <v>0.4093798186065424</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0501</v>
+        <v>0.0524</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0794</v>
+        <v>0.0866</v>
       </c>
       <c r="I15" t="n">
         <v>-0.1861120931782997</v>
@@ -27972,13 +27990,13 @@
         <v>0.3638931720948453</v>
       </c>
       <c r="F16" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0425</v>
+        <v>0.0462</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0488</v>
+        <v>0.058</v>
       </c>
       <c r="I16" t="n">
         <v>0.03911541055418288</v>
@@ -28053,10 +28071,10 @@
         <v>0.055</v>
       </c>
       <c r="G17" t="n">
-        <v>0.047</v>
+        <v>0.049</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0603</v>
+        <v>0.0606</v>
       </c>
       <c r="I17" t="n">
         <v>0.2197172361490896</v>
@@ -28127,9 +28145,15 @@
       <c r="E18" t="n">
         <v>0.2729198790710283</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0586</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.07099999999999999</v>
+      </c>
       <c r="I18" t="n">
         <v>0.276364864705876</v>
       </c>
@@ -28200,13 +28224,13 @@
         <v>0.2274332325589084</v>
       </c>
       <c r="F19" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="G19" t="n">
-        <v>0.046</v>
+        <v>0.0675</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0659</v>
+        <v>0.1032</v>
       </c>
       <c r="I19" t="n">
         <v>0.3050960641194869</v>
@@ -28278,13 +28302,13 @@
         <v>0.1819465860472113</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G20" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0699</v>
+        <v>0.0786</v>
       </c>
       <c r="I20" t="n">
         <v>0.5551710626750379</v>
@@ -28356,13 +28380,13 @@
         <v>0.1364599395355141</v>
       </c>
       <c r="F21" t="n">
-        <v>0.055</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0496</v>
+        <v>0.0694</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0607</v>
+        <v>0.1066</v>
       </c>
       <c r="I21" t="n">
         <v>0.6759288230571375</v>
@@ -28434,13 +28458,13 @@
         <v>0.09097329302381701</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0499</v>
+        <v>0.0765</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0765</v>
+        <v>0.1156</v>
       </c>
       <c r="I22" t="n">
         <v>0.6561715907887626</v>
@@ -28511,9 +28535,15 @@
       <c r="E23" t="n">
         <v>0.04548664651211987</v>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0794</v>
+      </c>
       <c r="I23" t="n">
         <v>0.5896058659006325</v>
       </c>
@@ -28584,13 +28614,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G24" t="n">
-        <v>0.038</v>
+        <v>0.0538</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0547</v>
+        <v>0.0648</v>
       </c>
       <c r="I24" t="n">
         <v>0.7818896724073287</v>

--- a/data/nzd0260/nzd0260.xlsx
+++ b/data/nzd0260/nzd0260.xlsx
@@ -573,7 +573,7 @@
         <v>326.14</v>
       </c>
       <c r="C2" t="n">
-        <v>312.03</v>
+        <v>311.36</v>
       </c>
       <c r="D2" t="n">
         <v>282.44</v>
@@ -591,7 +591,7 @@
         <v>318.47</v>
       </c>
       <c r="I2" t="n">
-        <v>305.24</v>
+        <v>305.59</v>
       </c>
       <c r="J2" t="n">
         <v>316.72</v>
@@ -654,7 +654,7 @@
         <v>325.28</v>
       </c>
       <c r="C3" t="n">
-        <v>311.59</v>
+        <v>311.21</v>
       </c>
       <c r="D3" t="n">
         <v>302.9</v>
@@ -672,7 +672,7 @@
         <v>338.54</v>
       </c>
       <c r="I3" t="n">
-        <v>327.27</v>
+        <v>327.47</v>
       </c>
       <c r="J3" t="n">
         <v>340.15</v>
@@ -735,7 +735,7 @@
         <v>327.84</v>
       </c>
       <c r="C4" t="n">
-        <v>300.54</v>
+        <v>301.21</v>
       </c>
       <c r="D4" t="n">
         <v>299.96</v>
@@ -753,7 +753,7 @@
         <v>355.35</v>
       </c>
       <c r="I4" t="n">
-        <v>360.38</v>
+        <v>360.03</v>
       </c>
       <c r="J4" t="n">
         <v>351.53</v>
@@ -816,7 +816,7 @@
         <v>318.27</v>
       </c>
       <c r="C5" t="n">
-        <v>289.28</v>
+        <v>289.38</v>
       </c>
       <c r="D5" t="n">
         <v>278.45</v>
@@ -832,7 +832,7 @@
         <v>365.66</v>
       </c>
       <c r="I5" t="n">
-        <v>361.74</v>
+        <v>361.68</v>
       </c>
       <c r="J5" t="n">
         <v>347.14</v>
@@ -895,7 +895,7 @@
         <v>328.01</v>
       </c>
       <c r="C6" t="n">
-        <v>292.36</v>
+        <v>291.75</v>
       </c>
       <c r="D6" t="n">
         <v>252.77</v>
@@ -956,7 +956,7 @@
         <v>316.12</v>
       </c>
       <c r="C7" t="n">
-        <v>256.85</v>
+        <v>257.55</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -995,7 +995,7 @@
         <v>324.19</v>
       </c>
       <c r="C8" t="n">
-        <v>298.79</v>
+        <v>299.62</v>
       </c>
       <c r="D8" t="n">
         <v>291.4</v>
@@ -1050,7 +1050,7 @@
         <v>328.8</v>
       </c>
       <c r="C9" t="n">
-        <v>314.67</v>
+        <v>313.94</v>
       </c>
       <c r="D9" t="n">
         <v>277.24</v>
@@ -1129,7 +1129,7 @@
         <v>314.97</v>
       </c>
       <c r="C10" t="n">
-        <v>302.3</v>
+        <v>300.96</v>
       </c>
       <c r="D10" t="n">
         <v>280.41</v>
@@ -1202,7 +1202,7 @@
         <v>316.68</v>
       </c>
       <c r="C11" t="n">
-        <v>281.94</v>
+        <v>282.5</v>
       </c>
       <c r="D11" t="n">
         <v>270.66</v>
@@ -1220,7 +1220,7 @@
         <v>344.93</v>
       </c>
       <c r="I11" t="n">
-        <v>359.85</v>
+        <v>359.55</v>
       </c>
       <c r="J11" t="n">
         <v>352.26</v>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>300.61</v>
+        <v>301.28</v>
       </c>
       <c r="D12" t="n">
         <v>261.7</v>
@@ -1295,7 +1295,7 @@
         <v>341.83</v>
       </c>
       <c r="I12" t="n">
-        <v>348.26</v>
+        <v>347.9</v>
       </c>
       <c r="J12" t="n">
         <v>341.35</v>
@@ -1340,7 +1340,7 @@
         <v>351.46</v>
       </c>
       <c r="C13" t="n">
-        <v>317.45</v>
+        <v>318.12</v>
       </c>
       <c r="D13" t="n">
         <v>311.42</v>
@@ -1358,7 +1358,7 @@
         <v>350.84</v>
       </c>
       <c r="I13" t="n">
-        <v>341.02</v>
+        <v>340.67</v>
       </c>
       <c r="J13" t="n">
         <v>329.37</v>
@@ -1417,7 +1417,7 @@
         <v>330.27</v>
       </c>
       <c r="C14" t="n">
-        <v>314.34</v>
+        <v>314.1</v>
       </c>
       <c r="D14" t="n">
         <v>295</v>
@@ -1435,7 +1435,7 @@
         <v>350.48</v>
       </c>
       <c r="I14" t="n">
-        <v>343.91</v>
+        <v>344.05</v>
       </c>
       <c r="J14" t="n">
         <v>348.15</v>
@@ -1496,7 +1496,7 @@
         <v>337.93</v>
       </c>
       <c r="C15" t="n">
-        <v>313.01</v>
+        <v>312.98</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
@@ -1510,7 +1510,7 @@
         <v>303.79</v>
       </c>
       <c r="I15" t="n">
-        <v>307.33</v>
+        <v>307.34</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1563,7 +1563,7 @@
         <v>340.16</v>
       </c>
       <c r="C16" t="n">
-        <v>311.77</v>
+        <v>312.41</v>
       </c>
       <c r="D16" t="n">
         <v>308.15</v>
@@ -1579,7 +1579,7 @@
         <v>336.92</v>
       </c>
       <c r="I16" t="n">
-        <v>326.4</v>
+        <v>326.06</v>
       </c>
       <c r="J16" t="n">
         <v>327.63</v>
@@ -1640,7 +1640,7 @@
         <v>334.87</v>
       </c>
       <c r="C17" t="n">
-        <v>322.23</v>
+        <v>321.69</v>
       </c>
       <c r="D17" t="n">
         <v>303.7</v>
@@ -1656,7 +1656,7 @@
         <v>349.02</v>
       </c>
       <c r="I17" t="n">
-        <v>333.46</v>
+        <v>333.74</v>
       </c>
       <c r="J17" t="n">
         <v>339.75</v>
@@ -1717,7 +1717,7 @@
         <v>312.44</v>
       </c>
       <c r="C18" t="n">
-        <v>302.82</v>
+        <v>301.44</v>
       </c>
       <c r="D18" t="n">
         <v>285.53</v>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>302.06</v>
+        <v>302.79</v>
       </c>
       <c r="J18" t="n">
         <v>308.05</v>
@@ -1794,7 +1794,7 @@
         <v>291.88</v>
       </c>
       <c r="C19" t="n">
-        <v>263.73</v>
+        <v>262.86</v>
       </c>
       <c r="D19" t="n">
         <v>257.31</v>
@@ -1859,7 +1859,7 @@
         <v>317.19</v>
       </c>
       <c r="C20" t="n">
-        <v>282.36</v>
+        <v>282.92</v>
       </c>
       <c r="D20" t="n">
         <v>269.66</v>
@@ -1877,7 +1877,7 @@
         <v>337.72</v>
       </c>
       <c r="I20" t="n">
-        <v>345.7</v>
+        <v>345.4</v>
       </c>
       <c r="J20" t="n">
         <v>329.4</v>
@@ -1938,7 +1938,7 @@
         <v>333.15</v>
       </c>
       <c r="C21" t="n">
-        <v>288.32</v>
+        <v>289.13</v>
       </c>
       <c r="D21" t="n">
         <v>232.63</v>
@@ -2007,7 +2007,7 @@
         <v>331.31</v>
       </c>
       <c r="C22" t="n">
-        <v>297.48</v>
+        <v>296.25</v>
       </c>
       <c r="D22" t="n">
         <v>261.76</v>
@@ -2072,7 +2072,7 @@
         <v>355.36</v>
       </c>
       <c r="C23" t="n">
-        <v>303.95</v>
+        <v>304.73</v>
       </c>
       <c r="D23" t="n">
         <v>307.21</v>
@@ -2090,7 +2090,7 @@
         <v>324.63</v>
       </c>
       <c r="I23" t="n">
-        <v>323.66</v>
+        <v>323.25</v>
       </c>
       <c r="J23" t="n">
         <v>328.56</v>
@@ -2149,7 +2149,7 @@
         <v>316.06</v>
       </c>
       <c r="C24" t="n">
-        <v>296.73</v>
+        <v>296.1</v>
       </c>
       <c r="D24" t="n">
         <v>279.18</v>
@@ -2167,7 +2167,7 @@
         <v>300.38</v>
       </c>
       <c r="I24" t="n">
-        <v>289.64</v>
+        <v>289.97</v>
       </c>
       <c r="J24" t="n">
         <v>284.64</v>
@@ -2230,7 +2230,7 @@
         <v>326.45</v>
       </c>
       <c r="I25" t="n">
-        <v>316.45</v>
+        <v>316.51</v>
       </c>
       <c r="J25" t="n">
         <v>320.5</v>
@@ -2285,7 +2285,7 @@
         <v>316.89</v>
       </c>
       <c r="C26" t="n">
-        <v>306.3</v>
+        <v>304.73</v>
       </c>
       <c r="D26" t="n">
         <v>280.7</v>
@@ -2299,7 +2299,7 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>319.09</v>
+        <v>319.92</v>
       </c>
       <c r="J26" t="n">
         <v>332.78</v>
@@ -2395,7 +2395,7 @@
         <v>334.73</v>
       </c>
       <c r="C28" t="n">
-        <v>311.02</v>
+        <v>310.09</v>
       </c>
       <c r="D28" t="n">
         <v>287.43</v>
@@ -2413,7 +2413,7 @@
         <v>320.6</v>
       </c>
       <c r="I28" t="n">
-        <v>312.9</v>
+        <v>313.4</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -2468,7 +2468,7 @@
         <v>326.62</v>
       </c>
       <c r="C29" t="n">
-        <v>300.72</v>
+        <v>300.05</v>
       </c>
       <c r="D29" t="n">
         <v>276.93</v>
@@ -2486,7 +2486,7 @@
         <v>321.15</v>
       </c>
       <c r="I29" t="n">
-        <v>310.35</v>
+        <v>310.71</v>
       </c>
       <c r="J29" t="n">
         <v>319.54</v>
@@ -2549,7 +2549,7 @@
         <v>322.88</v>
       </c>
       <c r="C30" t="n">
-        <v>294.34</v>
+        <v>294.21</v>
       </c>
       <c r="D30" t="n">
         <v>259.95</v>
@@ -2563,7 +2563,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>342.62</v>
+        <v>342.69</v>
       </c>
       <c r="J30" t="n">
         <v>344.88</v>
@@ -2622,7 +2622,7 @@
         <v>327.06</v>
       </c>
       <c r="C31" t="n">
-        <v>300.49</v>
+        <v>299.1</v>
       </c>
       <c r="D31" t="n">
         <v>268.75</v>
@@ -2640,7 +2640,7 @@
         <v>316.72</v>
       </c>
       <c r="I31" t="n">
-        <v>306.45</v>
+        <v>307.19</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -2699,7 +2699,7 @@
         <v>337.03</v>
       </c>
       <c r="C32" t="n">
-        <v>303.97</v>
+        <v>302.94</v>
       </c>
       <c r="D32" t="n">
         <v>267.02</v>
@@ -2746,7 +2746,7 @@
         <v>326.67</v>
       </c>
       <c r="C33" t="n">
-        <v>306.72</v>
+        <v>306.49</v>
       </c>
       <c r="D33" t="n">
         <v>292.43</v>
@@ -2764,7 +2764,7 @@
         <v>304.21</v>
       </c>
       <c r="I33" t="n">
-        <v>303.59</v>
+        <v>303.71</v>
       </c>
       <c r="J33" t="n">
         <v>316.11</v>
@@ -2878,7 +2878,7 @@
         <v>323.57</v>
       </c>
       <c r="C35" t="n">
-        <v>288.42</v>
+        <v>289.15</v>
       </c>
       <c r="D35" t="n">
         <v>239.59</v>
@@ -2947,7 +2947,7 @@
         <v>329.79</v>
       </c>
       <c r="C36" t="n">
-        <v>290.6</v>
+        <v>291.27</v>
       </c>
       <c r="D36" t="n">
         <v>246.42</v>
@@ -3018,7 +3018,7 @@
         <v>332.63</v>
       </c>
       <c r="C37" t="n">
-        <v>317.41</v>
+        <v>316.19</v>
       </c>
       <c r="D37" t="n">
         <v>265.31</v>
@@ -3097,7 +3097,7 @@
         <v>331.3</v>
       </c>
       <c r="I38" t="n">
-        <v>333.7</v>
+        <v>333.23</v>
       </c>
       <c r="J38" t="n">
         <v>307.51</v>
@@ -3160,7 +3160,7 @@
         <v>328.96</v>
       </c>
       <c r="C39" t="n">
-        <v>310.71</v>
+        <v>310.21</v>
       </c>
       <c r="D39" t="n">
         <v>295.64</v>
@@ -3178,7 +3178,7 @@
         <v>339.35</v>
       </c>
       <c r="I39" t="n">
-        <v>329.19</v>
+        <v>329.46</v>
       </c>
       <c r="J39" t="n">
         <v>330.58</v>
@@ -3251,7 +3251,7 @@
         <v>344.1</v>
       </c>
       <c r="I40" t="n">
-        <v>356.91</v>
+        <v>356.59</v>
       </c>
       <c r="J40" t="n">
         <v>342.1</v>
@@ -3304,7 +3304,7 @@
         <v>328.7</v>
       </c>
       <c r="C41" t="n">
-        <v>302.1</v>
+        <v>302.93</v>
       </c>
       <c r="D41" t="n">
         <v>301.74</v>
@@ -3322,7 +3322,7 @@
         <v>329.37</v>
       </c>
       <c r="I41" t="n">
-        <v>333.74</v>
+        <v>333.3</v>
       </c>
       <c r="J41" t="n">
         <v>315.6</v>
@@ -3438,7 +3438,7 @@
         <v>322.76</v>
       </c>
       <c r="C43" t="n">
-        <v>305.3</v>
+        <v>305.8</v>
       </c>
       <c r="D43" t="n">
         <v>295</v>
@@ -3456,7 +3456,7 @@
         <v>358.5</v>
       </c>
       <c r="I43" t="n">
-        <v>344.29</v>
+        <v>344.03</v>
       </c>
       <c r="J43" t="n">
         <v>350.82</v>
@@ -3531,7 +3531,7 @@
         <v>324.31</v>
       </c>
       <c r="I44" t="n">
-        <v>314.71</v>
+        <v>315.61</v>
       </c>
       <c r="J44" t="n">
         <v>315.81</v>
@@ -3590,7 +3590,7 @@
         <v>331.58</v>
       </c>
       <c r="C45" t="n">
-        <v>301.14</v>
+        <v>301.75</v>
       </c>
       <c r="D45" t="n">
         <v>295.93</v>
@@ -3608,7 +3608,7 @@
         <v>323.45</v>
       </c>
       <c r="I45" t="n">
-        <v>329.55</v>
+        <v>329.23</v>
       </c>
       <c r="J45" t="n">
         <v>323.49</v>
@@ -3669,7 +3669,7 @@
         <v>313.69</v>
       </c>
       <c r="C46" t="n">
-        <v>293.69</v>
+        <v>292.35</v>
       </c>
       <c r="D46" t="n">
         <v>278.87</v>
@@ -3687,7 +3687,7 @@
         <v>341.95</v>
       </c>
       <c r="I46" t="n">
-        <v>323.75</v>
+        <v>324.47</v>
       </c>
       <c r="J46" t="n">
         <v>337.67</v>
@@ -3746,7 +3746,7 @@
         <v>308.24</v>
       </c>
       <c r="C47" t="n">
-        <v>272.58</v>
+        <v>273.25</v>
       </c>
       <c r="D47" t="n">
         <v>261.74</v>
@@ -3764,7 +3764,7 @@
         <v>323.49</v>
       </c>
       <c r="I47" t="n">
-        <v>323.08</v>
+        <v>322.73</v>
       </c>
       <c r="J47" t="n">
         <v>322.71</v>
@@ -3933,7 +3933,7 @@
         <v>321.36</v>
       </c>
       <c r="C50" t="n">
-        <v>300.31</v>
+        <v>298.73</v>
       </c>
       <c r="D50" t="n">
         <v>271.62</v>
@@ -3998,7 +3998,7 @@
         <v>332.47</v>
       </c>
       <c r="C51" t="n">
-        <v>299.1</v>
+        <v>299.91</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
@@ -4012,7 +4012,7 @@
         <v>306.94</v>
       </c>
       <c r="I51" t="n">
-        <v>319.38</v>
+        <v>318.95</v>
       </c>
       <c r="J51" t="n">
         <v>297.64</v>
@@ -4073,7 +4073,7 @@
         <v>312.31</v>
       </c>
       <c r="C52" t="n">
-        <v>290.87</v>
+        <v>289.8</v>
       </c>
       <c r="D52" t="n">
         <v>274.16</v>
@@ -4142,7 +4142,7 @@
         <v>327.03</v>
       </c>
       <c r="C53" t="n">
-        <v>296.48</v>
+        <v>296.5</v>
       </c>
       <c r="D53" t="n">
         <v>273.51</v>
@@ -4160,7 +4160,7 @@
         <v>288.36</v>
       </c>
       <c r="I53" t="n">
-        <v>282.13</v>
+        <v>282.12</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -4193,7 +4193,7 @@
         <v>321.92</v>
       </c>
       <c r="C54" t="n">
-        <v>308.86</v>
+        <v>309.02</v>
       </c>
       <c r="D54" t="n">
         <v>298.61</v>
@@ -4207,7 +4207,7 @@
         <v>326.55</v>
       </c>
       <c r="I54" t="n">
-        <v>320.07</v>
+        <v>319.98</v>
       </c>
       <c r="J54" t="n">
         <v>328.11</v>
@@ -4266,7 +4266,7 @@
         <v>327.37</v>
       </c>
       <c r="C55" t="n">
-        <v>305.29</v>
+        <v>304.53</v>
       </c>
       <c r="D55" t="n">
         <v>286.23</v>
@@ -4284,7 +4284,7 @@
         <v>306.71</v>
       </c>
       <c r="I55" t="n">
-        <v>293.84</v>
+        <v>294.25</v>
       </c>
       <c r="J55" t="n">
         <v>295.92</v>
@@ -4347,7 +4347,7 @@
         <v>321.88</v>
       </c>
       <c r="C56" t="n">
-        <v>303.02</v>
+        <v>301.61</v>
       </c>
       <c r="D56" t="n">
         <v>282.25</v>
@@ -4365,7 +4365,7 @@
         <v>306.94</v>
       </c>
       <c r="I56" t="n">
-        <v>300.21</v>
+        <v>300.96</v>
       </c>
       <c r="J56" t="n">
         <v>306.03</v>
@@ -4428,7 +4428,7 @@
         <v>321.69</v>
       </c>
       <c r="C57" t="n">
-        <v>304.14</v>
+        <v>303.91</v>
       </c>
       <c r="D57" t="n">
         <v>287.67</v>
@@ -4440,7 +4440,7 @@
         <v>321.55</v>
       </c>
       <c r="I57" t="n">
-        <v>322.15</v>
+        <v>322.27</v>
       </c>
       <c r="J57" t="n">
         <v>321.47</v>
@@ -4499,7 +4499,7 @@
         <v>309.85</v>
       </c>
       <c r="C58" t="n">
-        <v>294.25</v>
+        <v>293.87</v>
       </c>
       <c r="D58" t="n">
         <v>267.2</v>
@@ -4517,7 +4517,7 @@
         <v>318.75</v>
       </c>
       <c r="I58" t="n">
-        <v>306.32</v>
+        <v>306.52</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -4572,7 +4572,7 @@
         <v>338.85</v>
       </c>
       <c r="C59" t="n">
-        <v>308.85</v>
+        <v>309.41</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
@@ -4586,7 +4586,7 @@
         <v>350.08</v>
       </c>
       <c r="I59" t="n">
-        <v>351.08</v>
+        <v>350.78</v>
       </c>
       <c r="J59" t="n">
         <v>334.58</v>
@@ -4645,7 +4645,7 @@
         <v>324.12</v>
       </c>
       <c r="C60" t="n">
-        <v>273.16</v>
+        <v>273.72</v>
       </c>
       <c r="D60" t="n">
         <v>259.24</v>
@@ -4663,7 +4663,7 @@
         <v>335.74</v>
       </c>
       <c r="I60" t="n">
-        <v>335.02</v>
+        <v>334.72</v>
       </c>
       <c r="J60" t="n">
         <v>321.48</v>
@@ -4726,7 +4726,7 @@
         <v>336.91</v>
       </c>
       <c r="C61" t="n">
-        <v>298.93</v>
+        <v>297.6</v>
       </c>
       <c r="D61" t="n">
         <v>287.18</v>
@@ -4744,7 +4744,7 @@
         <v>317.49</v>
       </c>
       <c r="I61" t="n">
-        <v>306.02</v>
+        <v>306.72</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -4799,7 +4799,7 @@
         <v>322.93</v>
       </c>
       <c r="C62" t="n">
-        <v>304.38</v>
+        <v>303.22</v>
       </c>
       <c r="D62" t="n">
         <v>278.54</v>
@@ -4868,7 +4868,7 @@
         <v>330.37</v>
       </c>
       <c r="C63" t="n">
-        <v>304.68</v>
+        <v>305.15</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
@@ -4933,7 +4933,7 @@
         <v>334.99</v>
       </c>
       <c r="C64" t="n">
-        <v>312.08</v>
+        <v>311.15</v>
       </c>
       <c r="D64" t="n">
         <v>261.1</v>
@@ -5006,7 +5006,7 @@
         <v>320.06</v>
       </c>
       <c r="C65" t="n">
-        <v>285.1</v>
+        <v>284.27</v>
       </c>
       <c r="D65" t="n">
         <v>260</v>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>294.58</v>
+        <v>294.51</v>
       </c>
       <c r="D66" t="n">
         <v>241.18</v>
@@ -5171,7 +5171,7 @@
         <v>328.91</v>
       </c>
       <c r="C68" t="n">
-        <v>309.91</v>
+        <v>309.68</v>
       </c>
       <c r="D68" t="n">
         <v>299.1</v>
@@ -5189,7 +5189,7 @@
         <v>336.42</v>
       </c>
       <c r="I68" t="n">
-        <v>328.85</v>
+        <v>328.97</v>
       </c>
       <c r="J68" t="n">
         <v>333.37</v>
@@ -5260,7 +5260,7 @@
         <v>358.85</v>
       </c>
       <c r="I69" t="n">
-        <v>345.33</v>
+        <v>345.45</v>
       </c>
       <c r="J69" t="n">
         <v>346.99</v>
@@ -5323,7 +5323,7 @@
         <v>310.34</v>
       </c>
       <c r="C70" t="n">
-        <v>263.54</v>
+        <v>261.78</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>313.5</v>
       </c>
       <c r="I70" t="n">
-        <v>317.46</v>
+        <v>318.39</v>
       </c>
       <c r="J70" t="n">
         <v>342.65</v>
@@ -5378,7 +5378,7 @@
         <v>325.96</v>
       </c>
       <c r="C71" t="n">
-        <v>292</v>
+        <v>290.84</v>
       </c>
       <c r="D71" t="n">
         <v>267.42</v>
@@ -5392,7 +5392,7 @@
         <v>350.74</v>
       </c>
       <c r="I71" t="n">
-        <v>330.47</v>
+        <v>331.08</v>
       </c>
       <c r="J71" t="n">
         <v>324.44</v>
@@ -5449,7 +5449,7 @@
         <v>328.51</v>
       </c>
       <c r="C72" t="n">
-        <v>309.59</v>
+        <v>307.98</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
@@ -5463,7 +5463,7 @@
         <v>361.99</v>
       </c>
       <c r="I72" t="n">
-        <v>350.04</v>
+        <v>350.89</v>
       </c>
       <c r="J72" t="n">
         <v>363.99</v>
@@ -5522,7 +5522,7 @@
         <v>300.39</v>
       </c>
       <c r="C73" t="n">
-        <v>285.13</v>
+        <v>284.02</v>
       </c>
       <c r="D73" t="n">
         <v>277.93</v>
@@ -5540,7 +5540,7 @@
         <v>341.04</v>
       </c>
       <c r="I73" t="n">
-        <v>331.44</v>
+        <v>332.03</v>
       </c>
       <c r="J73" t="n">
         <v>338.26</v>
@@ -5599,7 +5599,7 @@
         <v>317.87</v>
       </c>
       <c r="C74" t="n">
-        <v>296.89</v>
+        <v>297.66</v>
       </c>
       <c r="D74" t="n">
         <v>298.78</v>
@@ -5684,7 +5684,7 @@
         <v>341.96</v>
       </c>
       <c r="I75" t="n">
-        <v>338.41</v>
+        <v>338.28</v>
       </c>
       <c r="J75" t="n">
         <v>335.23</v>
@@ -5753,7 +5753,7 @@
         <v>353.96</v>
       </c>
       <c r="I76" t="n">
-        <v>329.69</v>
+        <v>330.42</v>
       </c>
       <c r="J76" t="n">
         <v>355.55</v>
@@ -5818,7 +5818,7 @@
         <v>337.37</v>
       </c>
       <c r="I77" t="n">
-        <v>309.77</v>
+        <v>310.63</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
@@ -5857,7 +5857,7 @@
         <v>332.72</v>
       </c>
       <c r="C78" t="n">
-        <v>309.12</v>
+        <v>308.99</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
         <v>319.98</v>
       </c>
       <c r="I78" t="n">
-        <v>311.16</v>
+        <v>311.23</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -5924,7 +5924,7 @@
         <v>312.26</v>
       </c>
       <c r="I79" t="n">
-        <v>311.06</v>
+        <v>311.56</v>
       </c>
       <c r="J79" t="n">
         <v>317.71</v>
@@ -5987,7 +5987,7 @@
         <v>321.34</v>
       </c>
       <c r="C80" t="n">
-        <v>296.29</v>
+        <v>295.03</v>
       </c>
       <c r="D80" t="n">
         <v>269.85</v>
@@ -6005,7 +6005,7 @@
         <v>318.41</v>
       </c>
       <c r="I80" t="n">
-        <v>299.24</v>
+        <v>299.91</v>
       </c>
       <c r="J80" t="n">
         <v>305.31</v>
@@ -6056,7 +6056,7 @@
         <v>318.97</v>
       </c>
       <c r="C81" t="n">
-        <v>267.03</v>
+        <v>266.36</v>
       </c>
       <c r="D81" t="n">
         <v>235.93</v>
@@ -6152,7 +6152,7 @@
         <v>304.79</v>
       </c>
       <c r="I83" t="n">
-        <v>271.46</v>
+        <v>271.48</v>
       </c>
       <c r="J83" t="n">
         <v>325.64</v>
@@ -6229,7 +6229,7 @@
         <v>345.85</v>
       </c>
       <c r="I84" t="n">
-        <v>355.52</v>
+        <v>355.27</v>
       </c>
       <c r="J84" t="n">
         <v>347.89</v>
@@ -6278,7 +6278,7 @@
         <v>321.8</v>
       </c>
       <c r="C85" t="n">
-        <v>301.59</v>
+        <v>300.55</v>
       </c>
       <c r="D85" t="n">
         <v>289.92</v>
@@ -6296,7 +6296,7 @@
         <v>337.57</v>
       </c>
       <c r="I85" t="n">
-        <v>324.08</v>
+        <v>324.63</v>
       </c>
       <c r="J85" t="n">
         <v>331.61</v>
@@ -6359,7 +6359,7 @@
         <v>324.43</v>
       </c>
       <c r="C86" t="n">
-        <v>289.84</v>
+        <v>288.2</v>
       </c>
       <c r="D86" t="n">
         <v>268.4</v>
@@ -6377,7 +6377,7 @@
         <v>320.01</v>
       </c>
       <c r="I86" t="n">
-        <v>310.29</v>
+        <v>311.15</v>
       </c>
       <c r="J86" t="n">
         <v>313.52</v>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>282.33</v>
+        <v>283.06</v>
       </c>
       <c r="D87" t="n">
         <v>291.15</v>
@@ -6558,7 +6558,7 @@
         <v>333.86</v>
       </c>
       <c r="C89" t="n">
-        <v>285.75</v>
+        <v>284.73</v>
       </c>
       <c r="D89" t="n">
         <v>256.43</v>
@@ -6757,7 +6757,7 @@
         <v>318.82</v>
       </c>
       <c r="C92" t="n">
-        <v>305.78</v>
+        <v>304.34</v>
       </c>
       <c r="D92" t="n">
         <v>280.15</v>
@@ -6775,7 +6775,7 @@
         <v>325.79</v>
       </c>
       <c r="I92" t="n">
-        <v>303.7</v>
+        <v>304.46</v>
       </c>
       <c r="J92" t="n">
         <v>312.32</v>
@@ -6832,7 +6832,7 @@
         <v>313.83</v>
       </c>
       <c r="C93" t="n">
-        <v>292.37</v>
+        <v>291.08</v>
       </c>
       <c r="D93" t="n">
         <v>285.52</v>
@@ -6846,7 +6846,7 @@
         <v>323.34</v>
       </c>
       <c r="I93" t="n">
-        <v>318.23</v>
+        <v>318.91</v>
       </c>
       <c r="J93" t="n">
         <v>318.9</v>
@@ -6903,7 +6903,7 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>304.73</v>
+        <v>303.55</v>
       </c>
       <c r="D94" t="n">
         <v>296.17</v>
@@ -6921,7 +6921,7 @@
         <v>337.48</v>
       </c>
       <c r="I94" t="n">
-        <v>322.64</v>
+        <v>323.27</v>
       </c>
       <c r="J94" t="n">
         <v>332.56</v>
@@ -7003,7 +7003,7 @@
         <v>329.03</v>
       </c>
       <c r="C96" t="n">
-        <v>312.07</v>
+        <v>311.8</v>
       </c>
       <c r="D96" t="n">
         <v>297.34</v>
@@ -7019,7 +7019,7 @@
         <v>343.49</v>
       </c>
       <c r="I96" t="n">
-        <v>340.17</v>
+        <v>340.32</v>
       </c>
       <c r="J96" t="n">
         <v>333.58</v>
@@ -7080,7 +7080,7 @@
         <v>337.48</v>
       </c>
       <c r="C97" t="n">
-        <v>321.14</v>
+        <v>321.5</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
@@ -7094,7 +7094,7 @@
         <v>342.2</v>
       </c>
       <c r="I97" t="n">
-        <v>344.02</v>
+        <v>343.84</v>
       </c>
       <c r="J97" t="n">
         <v>351.62</v>
@@ -7186,7 +7186,7 @@
         <v>322.98</v>
       </c>
       <c r="C99" t="n">
-        <v>306.69</v>
+        <v>306.65</v>
       </c>
       <c r="D99" t="n">
         <v>279.76</v>
@@ -7200,7 +7200,7 @@
         <v>349.81</v>
       </c>
       <c r="I99" t="n">
-        <v>333.84</v>
+        <v>333.86</v>
       </c>
       <c r="J99" t="n">
         <v>320.39</v>
@@ -7257,7 +7257,7 @@
         <v>348.67</v>
       </c>
       <c r="C100" t="n">
-        <v>316.39</v>
+        <v>317.16</v>
       </c>
       <c r="D100" t="n">
         <v>298.45</v>
@@ -7271,7 +7271,7 @@
         <v>332.55</v>
       </c>
       <c r="I100" t="n">
-        <v>340.96</v>
+        <v>340.55</v>
       </c>
       <c r="J100" t="n">
         <v>331.91</v>
@@ -7330,7 +7330,7 @@
         <v>332.23</v>
       </c>
       <c r="C101" t="n">
-        <v>307.79</v>
+        <v>308.01</v>
       </c>
       <c r="D101" t="n">
         <v>280.98</v>
@@ -7348,7 +7348,7 @@
         <v>339.09</v>
       </c>
       <c r="I101" t="n">
-        <v>344.28</v>
+        <v>344.17</v>
       </c>
       <c r="J101" t="n">
         <v>357.4</v>
@@ -7405,7 +7405,7 @@
         <v>320.94</v>
       </c>
       <c r="C102" t="n">
-        <v>281.79</v>
+        <v>282.59</v>
       </c>
       <c r="D102" t="n">
         <v>270.47</v>
@@ -7419,7 +7419,7 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>344.96</v>
+        <v>344.54</v>
       </c>
       <c r="J102" t="n">
         <v>345.41</v>
@@ -7478,7 +7478,7 @@
         <v>310.11</v>
       </c>
       <c r="C103" t="n">
-        <v>276.17</v>
+        <v>276.15</v>
       </c>
       <c r="D103" t="n">
         <v>266.36</v>
@@ -7496,7 +7496,7 @@
         <v>327.86</v>
       </c>
       <c r="I103" t="n">
-        <v>326.27</v>
+        <v>326.28</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>297.84</v>
+        <v>297.88</v>
       </c>
       <c r="D104" t="n">
         <v>274.47</v>
@@ -7569,7 +7569,7 @@
         <v>335.62</v>
       </c>
       <c r="I104" t="n">
-        <v>335.59</v>
+        <v>335.57</v>
       </c>
       <c r="J104" t="n">
         <v>333.56</v>
@@ -7691,7 +7691,7 @@
         <v>316.6</v>
       </c>
       <c r="C106" t="n">
-        <v>284.04</v>
+        <v>282.85</v>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="n">
@@ -7762,7 +7762,7 @@
         <v>331.51</v>
       </c>
       <c r="I107" t="n">
-        <v>334.14</v>
+        <v>333.99</v>
       </c>
       <c r="J107" t="n">
         <v>297.7</v>
@@ -7825,7 +7825,7 @@
         <v>363.47</v>
       </c>
       <c r="I108" t="n">
-        <v>360.22</v>
+        <v>359.7</v>
       </c>
       <c r="J108" t="n">
         <v>341.47</v>
@@ -7880,7 +7880,7 @@
         <v>304.53</v>
       </c>
       <c r="C109" t="n">
-        <v>266.76</v>
+        <v>266.87</v>
       </c>
       <c r="D109" t="n">
         <v>264.06</v>
@@ -7951,7 +7951,7 @@
         <v>326.41</v>
       </c>
       <c r="C110" t="n">
-        <v>306.27</v>
+        <v>305.71</v>
       </c>
       <c r="D110" t="n">
         <v>273.93</v>
@@ -7969,7 +7969,7 @@
         <v>327.85</v>
       </c>
       <c r="I110" t="n">
-        <v>323.7</v>
+        <v>324</v>
       </c>
       <c r="J110" t="n">
         <v>324.78</v>
@@ -8032,7 +8032,7 @@
         <v>326.88</v>
       </c>
       <c r="C111" t="n">
-        <v>291.49</v>
+        <v>290.66</v>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
@@ -8142,7 +8142,7 @@
         <v>332.75</v>
       </c>
       <c r="C113" t="n">
-        <v>312.66</v>
+        <v>312.22</v>
       </c>
       <c r="D113" t="n">
         <v>313.5</v>
@@ -8160,7 +8160,7 @@
         <v>331.12</v>
       </c>
       <c r="I113" t="n">
-        <v>323.05</v>
+        <v>323.29</v>
       </c>
       <c r="J113" t="n">
         <v>332.63</v>
@@ -8223,7 +8223,7 @@
         <v>332.1</v>
       </c>
       <c r="C114" t="n">
-        <v>310.85</v>
+        <v>310.92</v>
       </c>
       <c r="D114" t="n">
         <v>300.59</v>
@@ -8241,7 +8241,7 @@
         <v>324.45</v>
       </c>
       <c r="I114" t="n">
-        <v>315.38</v>
+        <v>315.34</v>
       </c>
       <c r="J114" t="n">
         <v>315.27</v>
@@ -8298,7 +8298,7 @@
         <v>327.3</v>
       </c>
       <c r="C115" t="n">
-        <v>313.36</v>
+        <v>312.87</v>
       </c>
       <c r="D115" t="n">
         <v>312.98</v>
@@ -8316,7 +8316,7 @@
         <v>330.27</v>
       </c>
       <c r="I115" t="n">
-        <v>312.04</v>
+        <v>312.3</v>
       </c>
       <c r="J115" t="n">
         <v>323.42</v>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>310.73</v>
+        <v>309.74</v>
       </c>
       <c r="D116" t="n">
         <v>292.24</v>
@@ -8395,7 +8395,7 @@
         <v>330.02</v>
       </c>
       <c r="I116" t="n">
-        <v>315.54</v>
+        <v>316.06</v>
       </c>
       <c r="J116" t="n">
         <v>326.96</v>
@@ -8454,7 +8454,7 @@
         <v>315.6</v>
       </c>
       <c r="C117" t="n">
-        <v>291.56</v>
+        <v>290.06</v>
       </c>
       <c r="D117" t="n">
         <v>280.05</v>
@@ -8468,7 +8468,7 @@
         <v>310.43</v>
       </c>
       <c r="I117" t="n">
-        <v>303.34</v>
+        <v>304.14</v>
       </c>
       <c r="J117" t="n">
         <v>312.07</v>
@@ -8527,7 +8527,7 @@
         <v>319.64</v>
       </c>
       <c r="C118" t="n">
-        <v>295.94</v>
+        <v>296.85</v>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="n">
@@ -8543,7 +8543,7 @@
         <v>321.72</v>
       </c>
       <c r="I118" t="n">
-        <v>324.86</v>
+        <v>324.37</v>
       </c>
       <c r="J118" t="n">
         <v>317.71</v>
@@ -8592,7 +8592,7 @@
         <v>315.85</v>
       </c>
       <c r="C119" t="n">
-        <v>303.67</v>
+        <v>302.23</v>
       </c>
       <c r="D119" t="n">
         <v>290.58</v>
@@ -8665,7 +8665,7 @@
         <v>311.02</v>
       </c>
       <c r="C120" t="n">
-        <v>287.36</v>
+        <v>287.34</v>
       </c>
       <c r="D120" t="n">
         <v>276.2</v>
@@ -8683,7 +8683,7 @@
         <v>329.27</v>
       </c>
       <c r="I120" t="n">
-        <v>331.55</v>
+        <v>331.56</v>
       </c>
       <c r="J120" t="n">
         <v>341.44</v>
@@ -8756,7 +8756,7 @@
         <v>342.22</v>
       </c>
       <c r="I121" t="n">
-        <v>346.79</v>
+        <v>346.76</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -8809,7 +8809,7 @@
         <v>341.77</v>
       </c>
       <c r="C122" t="n">
-        <v>302.25</v>
+        <v>303.22</v>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
@@ -8823,7 +8823,7 @@
         <v>320.76</v>
       </c>
       <c r="I122" t="n">
-        <v>317.5</v>
+        <v>316.99</v>
       </c>
       <c r="J122" t="n">
         <v>312.39</v>
@@ -8876,7 +8876,7 @@
         <v>321.76</v>
       </c>
       <c r="C123" t="n">
-        <v>298.07</v>
+        <v>296.7</v>
       </c>
       <c r="D123" t="n">
         <v>278.93</v>
@@ -8894,7 +8894,7 @@
         <v>341.45</v>
       </c>
       <c r="I123" t="n">
-        <v>319.49</v>
+        <v>320.22</v>
       </c>
       <c r="J123" t="n">
         <v>325.41</v>
@@ -8957,7 +8957,7 @@
         <v>331.53</v>
       </c>
       <c r="C124" t="n">
-        <v>309.23</v>
+        <v>309.8</v>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="n">
@@ -8971,7 +8971,7 @@
         <v>328.42</v>
       </c>
       <c r="I124" t="n">
-        <v>298.08</v>
+        <v>297.77</v>
       </c>
       <c r="J124" t="n">
         <v>162.1</v>
@@ -9067,7 +9067,7 @@
         <v>329.16</v>
       </c>
       <c r="C126" t="n">
-        <v>302.7</v>
+        <v>302.3</v>
       </c>
       <c r="D126" t="n">
         <v>256.88</v>
@@ -9136,7 +9136,7 @@
         <v>323.29</v>
       </c>
       <c r="C127" t="n">
-        <v>300.84</v>
+        <v>301.25</v>
       </c>
       <c r="D127" t="n">
         <v>245.7</v>
@@ -9211,7 +9211,7 @@
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
-        <v>301.33</v>
+        <v>300.13</v>
       </c>
       <c r="D128" t="n">
         <v>264.86</v>
@@ -9282,7 +9282,7 @@
         <v>325.63</v>
       </c>
       <c r="C129" t="n">
-        <v>292.32</v>
+        <v>293.25</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="n">
@@ -9298,7 +9298,7 @@
         <v>303.27</v>
       </c>
       <c r="I129" t="n">
-        <v>281.04</v>
+        <v>280.54</v>
       </c>
       <c r="J129" t="n">
         <v>153.79</v>
@@ -9404,7 +9404,7 @@
         <v>322.73</v>
       </c>
       <c r="C131" t="n">
-        <v>298.94</v>
+        <v>299.27</v>
       </c>
       <c r="D131" t="n">
         <v>268.11</v>
@@ -9422,7 +9422,7 @@
         <v>305.76</v>
       </c>
       <c r="I131" t="n">
-        <v>302.8</v>
+        <v>302.62</v>
       </c>
       <c r="J131" t="n">
         <v>169.12</v>
@@ -9499,7 +9499,7 @@
         <v>326.75</v>
       </c>
       <c r="I132" t="n">
-        <v>319.48</v>
+        <v>319.91</v>
       </c>
       <c r="J132" t="n">
         <v>215.65</v>
@@ -9558,7 +9558,7 @@
         <v>331.46</v>
       </c>
       <c r="C133" t="n">
-        <v>304.95</v>
+        <v>305.11</v>
       </c>
       <c r="D133" t="n">
         <v>295.78</v>
@@ -9576,7 +9576,7 @@
         <v>332.95</v>
       </c>
       <c r="I133" t="n">
-        <v>333.53</v>
+        <v>333.45</v>
       </c>
       <c r="J133" t="n">
         <v>335.27</v>
@@ -9647,7 +9647,7 @@
         <v>329.07</v>
       </c>
       <c r="I134" t="n">
-        <v>336.6</v>
+        <v>336.04</v>
       </c>
       <c r="J134" t="n">
         <v>319.29</v>
@@ -9688,7 +9688,7 @@
         <v>328.15</v>
       </c>
       <c r="C135" t="n">
-        <v>293.52</v>
+        <v>293.65</v>
       </c>
       <c r="D135" t="n">
         <v>292.8</v>
@@ -9706,7 +9706,7 @@
         <v>350.27</v>
       </c>
       <c r="I135" t="n">
-        <v>341.83</v>
+        <v>341.76</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -9759,7 +9759,7 @@
         <v>313.21</v>
       </c>
       <c r="C136" t="n">
-        <v>294.12</v>
+        <v>293.01</v>
       </c>
       <c r="D136" t="n">
         <v>279.62</v>
@@ -9777,7 +9777,7 @@
         <v>328.27</v>
       </c>
       <c r="I136" t="n">
-        <v>327.07</v>
+        <v>327.66</v>
       </c>
       <c r="J136" t="n">
         <v>334.82</v>
@@ -9834,7 +9834,7 @@
         <v>312.04</v>
       </c>
       <c r="C137" t="n">
-        <v>282.57</v>
+        <v>283.5</v>
       </c>
       <c r="D137" t="n">
         <v>282.84</v>
@@ -9852,7 +9852,7 @@
         <v>349.57</v>
       </c>
       <c r="I137" t="n">
-        <v>355.49</v>
+        <v>354.99</v>
       </c>
       <c r="J137" t="n">
         <v>346.04</v>
@@ -9915,7 +9915,7 @@
         <v>309.4</v>
       </c>
       <c r="C138" t="n">
-        <v>279.18</v>
+        <v>279.91</v>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
@@ -9929,7 +9929,7 @@
         <v>346.16</v>
       </c>
       <c r="I138" t="n">
-        <v>343.97</v>
+        <v>343.58</v>
       </c>
       <c r="J138" t="n">
         <v>337.29</v>
@@ -9990,7 +9990,7 @@
         <v>318.82</v>
       </c>
       <c r="C139" t="n">
-        <v>286.57</v>
+        <v>286.7</v>
       </c>
       <c r="D139" t="n">
         <v>259.94</v>
@@ -10008,7 +10008,7 @@
         <v>349.66</v>
       </c>
       <c r="I139" t="n">
-        <v>351.3</v>
+        <v>351.23</v>
       </c>
       <c r="J139" t="n">
         <v>351.92</v>
@@ -10071,7 +10071,7 @@
         <v>311.36</v>
       </c>
       <c r="C140" t="n">
-        <v>288.98</v>
+        <v>288.22</v>
       </c>
       <c r="D140" t="n">
         <v>274.55</v>
@@ -10089,7 +10089,7 @@
         <v>333.96</v>
       </c>
       <c r="I140" t="n">
-        <v>338.36</v>
+        <v>338.76</v>
       </c>
       <c r="J140" t="n">
         <v>330.21</v>
@@ -10146,7 +10146,7 @@
         <v>323.15</v>
       </c>
       <c r="C141" t="n">
-        <v>313.96</v>
+        <v>312.79</v>
       </c>
       <c r="D141" t="n">
         <v>261.1</v>
@@ -10209,7 +10209,7 @@
         <v>323.84</v>
       </c>
       <c r="C142" t="n">
-        <v>295.06</v>
+        <v>295.57</v>
       </c>
       <c r="D142" t="n">
         <v>245.63</v>
@@ -10225,7 +10225,7 @@
         <v>356.69</v>
       </c>
       <c r="I142" t="n">
-        <v>356.74</v>
+        <v>356.47</v>
       </c>
       <c r="J142" t="n">
         <v>352.6</v>
@@ -10282,7 +10282,7 @@
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="n">
-        <v>297.54</v>
+        <v>296.25</v>
       </c>
       <c r="D143" t="n">
         <v>264.63</v>
@@ -10296,7 +10296,7 @@
         <v>346.26</v>
       </c>
       <c r="I143" t="n">
-        <v>316.04</v>
+        <v>316.72</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -10341,7 +10341,7 @@
         <v>315.9</v>
       </c>
       <c r="C144" t="n">
-        <v>299.74</v>
+        <v>300.01</v>
       </c>
       <c r="D144" t="n">
         <v>311.22</v>
@@ -10357,7 +10357,7 @@
         <v>354.04</v>
       </c>
       <c r="I144" t="n">
-        <v>350.13</v>
+        <v>349.99</v>
       </c>
       <c r="J144" t="n">
         <v>347.17</v>
@@ -10420,7 +10420,7 @@
         <v>310.12</v>
       </c>
       <c r="C145" t="n">
-        <v>292.25</v>
+        <v>291.09</v>
       </c>
       <c r="D145" t="n">
         <v>279.61</v>
@@ -10438,7 +10438,7 @@
         <v>344.12</v>
       </c>
       <c r="I145" t="n">
-        <v>336.78</v>
+        <v>337.39</v>
       </c>
       <c r="J145" t="n">
         <v>354.82</v>
@@ -10499,7 +10499,7 @@
         <v>307.69</v>
       </c>
       <c r="C146" t="n">
-        <v>283.48</v>
+        <v>283.22</v>
       </c>
       <c r="D146" t="n">
         <v>278.38</v>
@@ -10517,7 +10517,7 @@
         <v>340.67</v>
       </c>
       <c r="I146" t="n">
-        <v>348.1</v>
+        <v>348.24</v>
       </c>
       <c r="J146" t="n">
         <v>356.66</v>
@@ -10580,7 +10580,7 @@
         <v>313.03</v>
       </c>
       <c r="C147" t="n">
-        <v>284.41</v>
+        <v>284.51</v>
       </c>
       <c r="D147" t="n">
         <v>274.74</v>
@@ -10598,7 +10598,7 @@
         <v>331.95</v>
       </c>
       <c r="I147" t="n">
-        <v>334.15</v>
+        <v>334.1</v>
       </c>
       <c r="J147" t="n">
         <v>342.34</v>
@@ -10661,7 +10661,7 @@
         <v>327.92</v>
       </c>
       <c r="C148" t="n">
-        <v>301.96</v>
+        <v>300.78</v>
       </c>
       <c r="D148" t="n">
         <v>286.42</v>
@@ -10675,7 +10675,7 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="n">
-        <v>329.73</v>
+        <v>330.36</v>
       </c>
       <c r="J148" t="n">
         <v>351.54</v>
@@ -10734,7 +10734,7 @@
         <v>315.1</v>
       </c>
       <c r="C149" t="n">
-        <v>290.85</v>
+        <v>291.29</v>
       </c>
       <c r="D149" t="n">
         <v>286.6</v>
@@ -10750,7 +10750,7 @@
         <v>338.17</v>
       </c>
       <c r="I149" t="n">
-        <v>345.7</v>
+        <v>345.46</v>
       </c>
       <c r="J149" t="n">
         <v>346.94</v>
@@ -10813,7 +10813,7 @@
         <v>315.92</v>
       </c>
       <c r="C150" t="n">
-        <v>292.89</v>
+        <v>291.46</v>
       </c>
       <c r="D150" t="n">
         <v>279.81</v>
@@ -10831,7 +10831,7 @@
         <v>327.36</v>
       </c>
       <c r="I150" t="n">
-        <v>311.37</v>
+        <v>312.13</v>
       </c>
       <c r="J150" t="n">
         <v>329.19</v>
@@ -10886,7 +10886,7 @@
         <v>324.68</v>
       </c>
       <c r="C151" t="n">
-        <v>299.3</v>
+        <v>298.49</v>
       </c>
       <c r="D151" t="n">
         <v>277.78</v>
@@ -10904,7 +10904,7 @@
         <v>326.06</v>
       </c>
       <c r="I151" t="n">
-        <v>319.96</v>
+        <v>320.39</v>
       </c>
       <c r="J151" t="n">
         <v>334.33</v>
@@ -10953,7 +10953,7 @@
         <v>318.43</v>
       </c>
       <c r="C152" t="n">
-        <v>289.45</v>
+        <v>289.58</v>
       </c>
       <c r="D152" t="n">
         <v>265.43</v>
@@ -10971,7 +10971,7 @@
         <v>320.87</v>
       </c>
       <c r="I152" t="n">
-        <v>332.28</v>
+        <v>332.21</v>
       </c>
       <c r="J152" t="n">
         <v>327.68</v>
@@ -11077,7 +11077,7 @@
         <v>291.94</v>
       </c>
       <c r="C154" t="n">
-        <v>277.94</v>
+        <v>276.87</v>
       </c>
       <c r="D154" t="n">
         <v>217.97</v>
@@ -11136,7 +11136,7 @@
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="n">
-        <v>329.24</v>
+        <v>329.84</v>
       </c>
       <c r="D155" t="n">
         <v>250.06</v>
@@ -11205,7 +11205,7 @@
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="n">
-        <v>300.19</v>
+        <v>298.95</v>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
@@ -11268,7 +11268,7 @@
         <v>340.98</v>
       </c>
       <c r="C157" t="n">
-        <v>307.83</v>
+        <v>308.56</v>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="n">
@@ -11284,7 +11284,7 @@
         <v>325.64</v>
       </c>
       <c r="I157" t="n">
-        <v>327.91</v>
+        <v>327.52</v>
       </c>
       <c r="J157" t="n">
         <v>327.41</v>
@@ -11347,7 +11347,7 @@
         <v>304.05</v>
       </c>
       <c r="C158" t="n">
-        <v>277.79</v>
+        <v>277.99</v>
       </c>
       <c r="D158" t="n">
         <v>273.24</v>
@@ -11365,7 +11365,7 @@
         <v>305.81</v>
       </c>
       <c r="I158" t="n">
-        <v>301.93</v>
+        <v>301.83</v>
       </c>
       <c r="J158" t="n">
         <v>296.04</v>
@@ -11420,7 +11420,7 @@
         <v>310.91</v>
       </c>
       <c r="C159" t="n">
-        <v>299.56</v>
+        <v>298.73</v>
       </c>
       <c r="D159" t="n">
         <v>281.58</v>
@@ -11438,7 +11438,7 @@
         <v>316.42</v>
       </c>
       <c r="I159" t="n">
-        <v>297.26</v>
+        <v>297.7</v>
       </c>
       <c r="J159" t="n">
         <v>285.72</v>
@@ -11501,7 +11501,7 @@
         <v>308.84</v>
       </c>
       <c r="C160" t="n">
-        <v>298.1</v>
+        <v>297.94</v>
       </c>
       <c r="D160" t="n">
         <v>262.6</v>
@@ -11519,7 +11519,7 @@
         <v>313.9</v>
       </c>
       <c r="I160" t="n">
-        <v>305.74</v>
+        <v>305.83</v>
       </c>
       <c r="J160" t="n">
         <v>295.13</v>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>300.72</v>
+        <v>299.35</v>
       </c>
       <c r="D161" t="n">
         <v>284.8</v>
@@ -11598,7 +11598,7 @@
         <v>329.44</v>
       </c>
       <c r="I161" t="n">
-        <v>315.93</v>
+        <v>316.66</v>
       </c>
       <c r="J161" t="n">
         <v>317.14</v>
@@ -11657,7 +11657,7 @@
         <v>315.52</v>
       </c>
       <c r="C162" t="n">
-        <v>286.84</v>
+        <v>286.94</v>
       </c>
       <c r="D162" t="n">
         <v>259.01</v>
@@ -11675,7 +11675,7 @@
         <v>326.63</v>
       </c>
       <c r="I162" t="n">
-        <v>325.22</v>
+        <v>325.17</v>
       </c>
       <c r="J162" t="n">
         <v>317.17</v>
@@ -11738,7 +11738,7 @@
         <v>317.49</v>
       </c>
       <c r="C163" t="n">
-        <v>291.93</v>
+        <v>292</v>
       </c>
       <c r="D163" t="n">
         <v>282.69</v>
@@ -11754,7 +11754,7 @@
         <v>349.68</v>
       </c>
       <c r="I163" t="n">
-        <v>347.92</v>
+        <v>347.88</v>
       </c>
       <c r="J163" t="n">
         <v>339.42</v>
@@ -11817,7 +11817,7 @@
         <v>305.64</v>
       </c>
       <c r="C164" t="n">
-        <v>258.28</v>
+        <v>258.34</v>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
@@ -11860,7 +11860,7 @@
         <v>317.87</v>
       </c>
       <c r="C165" t="n">
-        <v>297.08</v>
+        <v>296.21</v>
       </c>
       <c r="D165" t="n">
         <v>264.77</v>
@@ -11878,7 +11878,7 @@
         <v>335.7</v>
       </c>
       <c r="I165" t="n">
-        <v>324.79</v>
+        <v>325.26</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
@@ -11937,7 +11937,7 @@
         <v>333.83</v>
       </c>
       <c r="C166" t="n">
-        <v>305.39</v>
+        <v>304.09</v>
       </c>
       <c r="D166" t="n">
         <v>263.71</v>
@@ -11953,7 +11953,7 @@
         <v>337.51</v>
       </c>
       <c r="I166" t="n">
-        <v>308.04</v>
+        <v>308.73</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
@@ -12012,7 +12012,7 @@
         <v>329.83</v>
       </c>
       <c r="C167" t="n">
-        <v>277.01</v>
+        <v>277.99</v>
       </c>
       <c r="D167" t="n">
         <v>236.9</v>
@@ -12071,7 +12071,7 @@
         <v>315.51</v>
       </c>
       <c r="C168" t="n">
-        <v>294.52</v>
+        <v>293.1</v>
       </c>
       <c r="D168" t="n">
         <v>261.75</v>
@@ -12144,7 +12144,7 @@
         <v>313.81</v>
       </c>
       <c r="C169" t="n">
-        <v>267.01</v>
+        <v>266.97</v>
       </c>
       <c r="D169" t="n">
         <v>242.53</v>
@@ -12205,7 +12205,7 @@
         <v>329.6</v>
       </c>
       <c r="C170" t="n">
-        <v>302.39</v>
+        <v>302.43</v>
       </c>
       <c r="D170" t="n">
         <v>288.92</v>
@@ -12223,7 +12223,7 @@
         <v>316.07</v>
       </c>
       <c r="I170" t="n">
-        <v>303.4</v>
+        <v>303.38</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
@@ -12268,7 +12268,7 @@
         <v>313.89</v>
       </c>
       <c r="C171" t="n">
-        <v>299.08</v>
+        <v>297.9</v>
       </c>
       <c r="D171" t="n">
         <v>262.11</v>
@@ -12286,7 +12286,7 @@
         <v>293.57</v>
       </c>
       <c r="I171" t="n">
-        <v>278.17</v>
+        <v>278.8</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
@@ -12341,7 +12341,7 @@
         <v>328.03</v>
       </c>
       <c r="C172" t="n">
-        <v>298.02</v>
+        <v>298.12</v>
       </c>
       <c r="D172" t="n">
         <v>265.1</v>
@@ -12359,7 +12359,7 @@
         <v>277.45</v>
       </c>
       <c r="I172" t="n">
-        <v>278.2</v>
+        <v>278.15</v>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
-        <v>263.56</v>
+        <v>263.65</v>
       </c>
       <c r="D173" t="n">
         <v>243.36</v>
@@ -12465,7 +12465,7 @@
         <v>326.16</v>
       </c>
       <c r="C174" t="n">
-        <v>309.62</v>
+        <v>308.71</v>
       </c>
       <c r="D174" t="n">
         <v>276.48</v>
@@ -12483,7 +12483,7 @@
         <v>322.79</v>
       </c>
       <c r="I174" t="n">
-        <v>305.72</v>
+        <v>306.21</v>
       </c>
       <c r="J174" t="n">
         <v>304.12</v>
@@ -12546,7 +12546,7 @@
         <v>326.97</v>
       </c>
       <c r="C175" t="n">
-        <v>315.56</v>
+        <v>314.26</v>
       </c>
       <c r="D175" t="n">
         <v>294.74</v>
@@ -12564,7 +12564,7 @@
         <v>334.83</v>
       </c>
       <c r="I175" t="n">
-        <v>307.02</v>
+        <v>307.71</v>
       </c>
       <c r="J175" t="n">
         <v>310.72</v>
@@ -12627,7 +12627,7 @@
         <v>318.3</v>
       </c>
       <c r="C176" t="n">
-        <v>292.57</v>
+        <v>293.46</v>
       </c>
       <c r="D176" t="n">
         <v>288.38</v>
@@ -12698,7 +12698,7 @@
         <v>322.02</v>
       </c>
       <c r="C177" t="n">
-        <v>293.46</v>
+        <v>293.82</v>
       </c>
       <c r="D177" t="n">
         <v>292.92</v>
@@ -12716,7 +12716,7 @@
         <v>327.47</v>
       </c>
       <c r="I177" t="n">
-        <v>333.27</v>
+        <v>333.09</v>
       </c>
       <c r="J177" t="n">
         <v>321.85</v>
@@ -12773,7 +12773,7 @@
         <v>315</v>
       </c>
       <c r="C178" t="n">
-        <v>301.28</v>
+        <v>300.34</v>
       </c>
       <c r="D178" t="n">
         <v>285.28</v>
@@ -12791,7 +12791,7 @@
         <v>333.37</v>
       </c>
       <c r="I178" t="n">
-        <v>314.98</v>
+        <v>315.48</v>
       </c>
       <c r="J178" t="n">
         <v>316.84</v>
@@ -12854,7 +12854,7 @@
         <v>321.52</v>
       </c>
       <c r="C179" t="n">
-        <v>302.87</v>
+        <v>303.45</v>
       </c>
       <c r="D179" t="n">
         <v>281.31</v>
@@ -12872,7 +12872,7 @@
         <v>324.73</v>
       </c>
       <c r="I179" t="n">
-        <v>323.66</v>
+        <v>323.35</v>
       </c>
       <c r="J179" t="n">
         <v>307.69</v>
@@ -12935,7 +12935,7 @@
         <v>325.32</v>
       </c>
       <c r="C180" t="n">
-        <v>286.92</v>
+        <v>287.79</v>
       </c>
       <c r="D180" t="n">
         <v>252.41</v>
@@ -12953,7 +12953,7 @@
         <v>319.99</v>
       </c>
       <c r="I180" t="n">
-        <v>322.62</v>
+        <v>322.16</v>
       </c>
       <c r="J180" t="n">
         <v>320.75</v>
@@ -13016,7 +13016,7 @@
         <v>330.59</v>
       </c>
       <c r="C181" t="n">
-        <v>310.62</v>
+        <v>310.79</v>
       </c>
       <c r="D181" t="n">
         <v>277.28</v>
@@ -13034,7 +13034,7 @@
         <v>342.97</v>
       </c>
       <c r="I181" t="n">
-        <v>331.67</v>
+        <v>331.58</v>
       </c>
       <c r="J181" t="n">
         <v>330.41</v>
@@ -13132,7 +13132,7 @@
         <v>316.55</v>
       </c>
       <c r="C183" t="n">
-        <v>296.33</v>
+        <v>295.43</v>
       </c>
       <c r="D183" t="n">
         <v>270.14</v>
@@ -13205,7 +13205,7 @@
         <v>328.06</v>
       </c>
       <c r="C184" t="n">
-        <v>298.87</v>
+        <v>297.69</v>
       </c>
       <c r="D184" t="n">
         <v>260.04</v>
@@ -13329,7 +13329,7 @@
         <v>324.77</v>
       </c>
       <c r="C186" t="n">
-        <v>287.61</v>
+        <v>287.03</v>
       </c>
       <c r="D186" t="n">
         <v>266.66</v>
@@ -13347,7 +13347,7 @@
         <v>315.48</v>
       </c>
       <c r="I186" t="n">
-        <v>293.27</v>
+        <v>293.58</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
@@ -13477,7 +13477,7 @@
         <v>325.49</v>
       </c>
       <c r="C188" t="n">
-        <v>305.15</v>
+        <v>303.82</v>
       </c>
       <c r="D188" t="n">
         <v>270.74</v>
@@ -13550,7 +13550,7 @@
         <v>329.89</v>
       </c>
       <c r="C189" t="n">
-        <v>304.68</v>
+        <v>305.24</v>
       </c>
       <c r="D189" t="n">
         <v>309.99</v>
@@ -13568,7 +13568,7 @@
         <v>330.55</v>
       </c>
       <c r="I189" t="n">
-        <v>324.61</v>
+        <v>324.31</v>
       </c>
       <c r="J189" t="n">
         <v>310.51</v>
@@ -13631,7 +13631,7 @@
         <v>311.73</v>
       </c>
       <c r="C190" t="n">
-        <v>293.93</v>
+        <v>293.89</v>
       </c>
       <c r="D190" t="n">
         <v>293.64</v>
@@ -13649,7 +13649,7 @@
         <v>322.01</v>
       </c>
       <c r="I190" t="n">
-        <v>312.42</v>
+        <v>312.44</v>
       </c>
       <c r="J190" t="n">
         <v>299.34</v>
@@ -13712,7 +13712,7 @@
         <v>314.93</v>
       </c>
       <c r="C191" t="n">
-        <v>302.33</v>
+        <v>301.1</v>
       </c>
       <c r="D191" t="n">
         <v>278.41</v>
@@ -13730,7 +13730,7 @@
         <v>326.63</v>
       </c>
       <c r="I191" t="n">
-        <v>302.92</v>
+        <v>303.57</v>
       </c>
       <c r="J191" t="n">
         <v>318.78</v>
@@ -13805,7 +13805,7 @@
         <v>300.71</v>
       </c>
       <c r="I192" t="n">
-        <v>309.82</v>
+        <v>309.72</v>
       </c>
       <c r="J192" t="n">
         <v>291.42</v>
@@ -13862,7 +13862,7 @@
         <v>309.04</v>
       </c>
       <c r="C193" t="n">
-        <v>289.1</v>
+        <v>288.23</v>
       </c>
       <c r="D193" t="n">
         <v>278.33</v>
@@ -13880,7 +13880,7 @@
         <v>337.33</v>
       </c>
       <c r="I193" t="n">
-        <v>305.81</v>
+        <v>306.27</v>
       </c>
       <c r="J193" t="n">
         <v>319.83</v>
@@ -13935,7 +13935,7 @@
         <v>310.76</v>
       </c>
       <c r="C194" t="n">
-        <v>282.12</v>
+        <v>282.3</v>
       </c>
       <c r="D194" t="n">
         <v>275.3</v>
@@ -13953,7 +13953,7 @@
         <v>345.14</v>
       </c>
       <c r="I194" t="n">
-        <v>338.19</v>
+        <v>338.1</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
@@ -14008,7 +14008,7 @@
         <v>303.39</v>
       </c>
       <c r="C195" t="n">
-        <v>275.1</v>
+        <v>275</v>
       </c>
       <c r="D195" t="n">
         <v>259.35</v>
@@ -14026,7 +14026,7 @@
         <v>336.09</v>
       </c>
       <c r="I195" t="n">
-        <v>335.06</v>
+        <v>335.11</v>
       </c>
       <c r="J195" t="n">
         <v>332.18</v>
@@ -14091,7 +14091,7 @@
         <v>350.62</v>
       </c>
       <c r="I196" t="n">
-        <v>327.9</v>
+        <v>328.33</v>
       </c>
       <c r="J196" t="n">
         <v>345.63</v>
@@ -14150,7 +14150,7 @@
         <v>309.07</v>
       </c>
       <c r="C197" t="n">
-        <v>274.24</v>
+        <v>274.87</v>
       </c>
       <c r="D197" t="n">
         <v>265.99</v>
@@ -14168,7 +14168,7 @@
         <v>322.86</v>
       </c>
       <c r="I197" t="n">
-        <v>328.55</v>
+        <v>328.22</v>
       </c>
       <c r="J197" t="n">
         <v>317.47</v>
@@ -14213,7 +14213,7 @@
         <v>321.41</v>
       </c>
       <c r="C198" t="n">
-        <v>284.88</v>
+        <v>285.69</v>
       </c>
       <c r="D198" t="n">
         <v>268.85</v>
@@ -14231,7 +14231,7 @@
         <v>322.09</v>
       </c>
       <c r="I198" t="n">
-        <v>328.44</v>
+        <v>328.01</v>
       </c>
       <c r="J198" t="n">
         <v>322.09</v>
@@ -14294,7 +14294,7 @@
         <v>319.24</v>
       </c>
       <c r="C199" t="n">
-        <v>290.2</v>
+        <v>288.69</v>
       </c>
       <c r="D199" t="n">
         <v>259.92</v>
@@ -14398,7 +14398,7 @@
         <v>320.19</v>
       </c>
       <c r="C201" t="n">
-        <v>291.09</v>
+        <v>290.18</v>
       </c>
       <c r="D201" t="n">
         <v>265.99</v>
@@ -14518,7 +14518,7 @@
         <v>333.81</v>
       </c>
       <c r="C203" t="n">
-        <v>301.18</v>
+        <v>300.09</v>
       </c>
       <c r="D203" t="n">
         <v>286.59</v>
@@ -14591,7 +14591,7 @@
         <v>330.67</v>
       </c>
       <c r="C204" t="n">
-        <v>300.83</v>
+        <v>300.09</v>
       </c>
       <c r="D204" t="n">
         <v>264.67</v>
@@ -14609,7 +14609,7 @@
         <v>317.39</v>
       </c>
       <c r="I204" t="n">
-        <v>303.26</v>
+        <v>303.66</v>
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
@@ -14667,9 +14667,7 @@
       <c r="B205" t="n">
         <v>324.02</v>
       </c>
-      <c r="C205" t="n">
-        <v>340.79</v>
-      </c>
+      <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="n">
         <v>330.45</v>
@@ -14682,7 +14680,7 @@
         <v>286.99</v>
       </c>
       <c r="I205" t="n">
-        <v>285.88</v>
+        <v>285.89</v>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
@@ -14725,7 +14723,7 @@
         <v>320.03</v>
       </c>
       <c r="C206" t="n">
-        <v>268.69</v>
+        <v>269.59</v>
       </c>
       <c r="D206" t="n">
         <v>253.85</v>
@@ -14778,7 +14776,7 @@
         <v>305.98</v>
       </c>
       <c r="C207" t="n">
-        <v>284.35</v>
+        <v>284.24</v>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
@@ -14792,7 +14790,7 @@
         <v>330.95</v>
       </c>
       <c r="I207" t="n">
-        <v>316.58</v>
+        <v>316.64</v>
       </c>
       <c r="J207" t="n">
         <v>315.52</v>
@@ -14849,7 +14847,7 @@
         <v>314.51</v>
       </c>
       <c r="C208" t="n">
-        <v>303.95</v>
+        <v>303.78</v>
       </c>
       <c r="D208" t="n">
         <v>290.42</v>
@@ -14867,7 +14865,7 @@
         <v>320.58</v>
       </c>
       <c r="I208" t="n">
-        <v>317.9</v>
+        <v>317.99</v>
       </c>
       <c r="J208" t="n">
         <v>296.13</v>
@@ -14967,7 +14965,7 @@
         <v>312.25</v>
       </c>
       <c r="C210" t="n">
-        <v>300.41</v>
+        <v>299.23</v>
       </c>
       <c r="D210" t="n">
         <v>284.25</v>
@@ -14985,7 +14983,7 @@
         <v>308.8</v>
       </c>
       <c r="I210" t="n">
-        <v>302.25</v>
+        <v>302.88</v>
       </c>
       <c r="J210" t="n">
         <v>311.89</v>
@@ -15048,7 +15046,7 @@
         <v>318.89</v>
       </c>
       <c r="C211" t="n">
-        <v>289.23</v>
+        <v>290.29</v>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
@@ -15060,7 +15058,7 @@
         <v>352.09</v>
       </c>
       <c r="I211" t="n">
-        <v>347.32</v>
+        <v>346.76</v>
       </c>
       <c r="J211" t="n">
         <v>348.19</v>
@@ -15115,7 +15113,7 @@
         <v>328.77</v>
       </c>
       <c r="C212" t="n">
-        <v>320.29</v>
+        <v>318.62</v>
       </c>
       <c r="D212" t="n">
         <v>285.32</v>
@@ -15174,7 +15172,7 @@
         <v>318.34</v>
       </c>
       <c r="C213" t="n">
-        <v>301.24</v>
+        <v>299.66</v>
       </c>
       <c r="D213" t="n">
         <v>281.66</v>
@@ -15192,7 +15190,7 @@
         <v>353.68</v>
       </c>
       <c r="I213" t="n">
-        <v>341.14</v>
+        <v>341.98</v>
       </c>
       <c r="J213" t="n">
         <v>360.05</v>
@@ -15255,7 +15253,7 @@
         <v>317.97</v>
       </c>
       <c r="C214" t="n">
-        <v>284.92</v>
+        <v>283.95</v>
       </c>
       <c r="D214" t="n">
         <v>280.63</v>
@@ -15314,7 +15312,7 @@
         <v>311.19</v>
       </c>
       <c r="C215" t="n">
-        <v>268.45</v>
+        <v>268.36</v>
       </c>
       <c r="D215" t="n">
         <v>262.83</v>
@@ -15332,7 +15330,7 @@
         <v>333.66</v>
       </c>
       <c r="I215" t="n">
-        <v>330.24</v>
+        <v>330.29</v>
       </c>
       <c r="J215" t="n">
         <v>340.03</v>
@@ -15385,7 +15383,7 @@
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="n">
-        <v>278.18</v>
+        <v>277.64</v>
       </c>
       <c r="D216" t="n">
         <v>258.75</v>
@@ -15448,7 +15446,7 @@
         <v>309.05</v>
       </c>
       <c r="C217" t="n">
-        <v>284.4</v>
+        <v>284.26</v>
       </c>
       <c r="D217" t="n">
         <v>273.04</v>
@@ -15466,7 +15464,7 @@
         <v>341.29</v>
       </c>
       <c r="I217" t="n">
-        <v>344.18</v>
+        <v>344.26</v>
       </c>
       <c r="J217" t="n">
         <v>350.19</v>
@@ -15529,7 +15527,7 @@
         <v>312.26</v>
       </c>
       <c r="C218" t="n">
-        <v>275.91</v>
+        <v>275.65</v>
       </c>
       <c r="D218" t="n">
         <v>262.87</v>
@@ -15588,7 +15586,7 @@
         <v>319.76</v>
       </c>
       <c r="C219" t="n">
-        <v>295.1</v>
+        <v>293.72</v>
       </c>
       <c r="D219" t="n">
         <v>275.06</v>
@@ -15651,7 +15649,7 @@
         <v>317.24</v>
       </c>
       <c r="C220" t="n">
-        <v>281.74</v>
+        <v>282.18</v>
       </c>
       <c r="D220" t="n">
         <v>268.02</v>
@@ -15669,7 +15667,7 @@
         <v>350.6</v>
       </c>
       <c r="I220" t="n">
-        <v>355.96</v>
+        <v>355.73</v>
       </c>
       <c r="J220" t="n">
         <v>321.07</v>
@@ -15832,7 +15830,7 @@
         <v>343.53</v>
       </c>
       <c r="C223" t="n">
-        <v>282.04</v>
+        <v>280.77</v>
       </c>
       <c r="D223" t="n">
         <v>254</v>
@@ -16009,7 +16007,7 @@
         <v>309.18</v>
       </c>
       <c r="I226" t="n">
-        <v>306.13</v>
+        <v>306.33</v>
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
@@ -16070,7 +16068,7 @@
         <v>320.59</v>
       </c>
       <c r="I227" t="n">
-        <v>305.62</v>
+        <v>305.59</v>
       </c>
       <c r="J227" t="n">
         <v>316.84</v>
@@ -16145,7 +16143,7 @@
         <v>310.91</v>
       </c>
       <c r="I228" t="n">
-        <v>302.97</v>
+        <v>303.79</v>
       </c>
       <c r="J228" t="n">
         <v>315.81</v>
@@ -16202,7 +16200,7 @@
         <v>340.69</v>
       </c>
       <c r="C229" t="n">
-        <v>308.87</v>
+        <v>309.71</v>
       </c>
       <c r="D229" t="n">
         <v>292.21</v>
@@ -16259,7 +16257,7 @@
         <v>334.05</v>
       </c>
       <c r="C230" t="n">
-        <v>302.8</v>
+        <v>303.64</v>
       </c>
       <c r="D230" t="n">
         <v>309.02</v>
@@ -16277,7 +16275,7 @@
         <v>321.53</v>
       </c>
       <c r="I230" t="n">
-        <v>330.74</v>
+        <v>330.29</v>
       </c>
       <c r="J230" t="n">
         <v>316.7</v>
@@ -16338,7 +16336,7 @@
       </c>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="n">
-        <v>298.25</v>
+        <v>297.52</v>
       </c>
       <c r="D231" t="n">
         <v>281.67</v>
@@ -16356,7 +16354,7 @@
         <v>322.93</v>
       </c>
       <c r="I231" t="n">
-        <v>299.23</v>
+        <v>299.62</v>
       </c>
       <c r="J231" t="n">
         <v>286.15</v>
@@ -16425,7 +16423,7 @@
         <v>340.6</v>
       </c>
       <c r="I232" t="n">
-        <v>342.09</v>
+        <v>341.84</v>
       </c>
       <c r="J232" t="n">
         <v>333.41</v>
@@ -16482,7 +16480,7 @@
         <v>314.24</v>
       </c>
       <c r="C233" t="n">
-        <v>265.76</v>
+        <v>266.79</v>
       </c>
       <c r="D233" t="n">
         <v>276.79</v>
@@ -16494,7 +16492,7 @@
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="n">
-        <v>337.47</v>
+        <v>336.92</v>
       </c>
       <c r="J233" t="n">
         <v>333.54</v>
@@ -16551,7 +16549,7 @@
         <v>325.38</v>
       </c>
       <c r="C234" t="n">
-        <v>303.14</v>
+        <v>301.7</v>
       </c>
       <c r="D234" t="n">
         <v>274.28</v>
@@ -16569,7 +16567,7 @@
         <v>354.22</v>
       </c>
       <c r="I234" t="n">
-        <v>338.38</v>
+        <v>339.15</v>
       </c>
       <c r="J234" t="n">
         <v>362.66</v>
@@ -16632,7 +16630,7 @@
         <v>312.87</v>
       </c>
       <c r="C235" t="n">
-        <v>268.62</v>
+        <v>269.06</v>
       </c>
       <c r="D235" t="n">
         <v>258.76</v>
@@ -16648,7 +16646,7 @@
         <v>352.39</v>
       </c>
       <c r="I235" t="n">
-        <v>346.16</v>
+        <v>345.92</v>
       </c>
       <c r="J235" t="n">
         <v>350.62</v>
@@ -16719,7 +16717,7 @@
         <v>348.64</v>
       </c>
       <c r="I236" t="n">
-        <v>329.49</v>
+        <v>329.9</v>
       </c>
       <c r="J236" t="n">
         <v>350.54</v>
@@ -16782,7 +16780,7 @@
         <v>320.75</v>
       </c>
       <c r="C237" t="n">
-        <v>306.64</v>
+        <v>306.42</v>
       </c>
       <c r="D237" t="n">
         <v>303.79</v>
@@ -16800,7 +16798,7 @@
         <v>347.55</v>
       </c>
       <c r="I237" t="n">
-        <v>335.9</v>
+        <v>336.01</v>
       </c>
       <c r="J237" t="n">
         <v>348.24</v>
@@ -16871,7 +16869,7 @@
         <v>342.22</v>
       </c>
       <c r="I238" t="n">
-        <v>332.85</v>
+        <v>332.43</v>
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
@@ -16912,7 +16910,7 @@
         <v>322.77</v>
       </c>
       <c r="C239" t="n">
-        <v>266.86</v>
+        <v>267.42</v>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="n">
@@ -17100,7 +17098,7 @@
         <v>330.46</v>
       </c>
       <c r="I243" t="n">
-        <v>334.48</v>
+        <v>334.71</v>
       </c>
       <c r="J243" t="n">
         <v>313.41</v>
@@ -17151,7 +17149,7 @@
         <v>320.39</v>
       </c>
       <c r="C244" t="n">
-        <v>301.9</v>
+        <v>301.8</v>
       </c>
       <c r="D244" t="n">
         <v>259.33</v>
@@ -17206,7 +17204,7 @@
         <v>316.41</v>
       </c>
       <c r="C245" t="n">
-        <v>287.85</v>
+        <v>288.89</v>
       </c>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr"/>
@@ -17214,7 +17212,7 @@
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="n">
-        <v>372.6</v>
+        <v>372.05</v>
       </c>
       <c r="J245" t="n">
         <v>347.25</v>
@@ -17265,7 +17263,7 @@
         <v>322.82</v>
       </c>
       <c r="C246" t="n">
-        <v>301.43</v>
+        <v>300.33</v>
       </c>
       <c r="D246" t="n">
         <v>295.47</v>
@@ -17283,7 +17281,7 @@
         <v>353.62</v>
       </c>
       <c r="I246" t="n">
-        <v>337.89</v>
+        <v>338.47</v>
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
@@ -17334,7 +17332,7 @@
       </c>
       <c r="B247" t="inlineStr"/>
       <c r="C247" t="n">
-        <v>263.77</v>
+        <v>263.26</v>
       </c>
       <c r="D247" t="n">
         <v>265.16</v>
@@ -17350,7 +17348,7 @@
         <v>371.34</v>
       </c>
       <c r="I247" t="n">
-        <v>344.83</v>
+        <v>345.1</v>
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
@@ -17397,7 +17395,7 @@
         <v>312.25</v>
       </c>
       <c r="C248" t="n">
-        <v>291.95</v>
+        <v>291.82</v>
       </c>
       <c r="D248" t="n">
         <v>284.58</v>
@@ -17413,7 +17411,7 @@
         <v>364.48</v>
       </c>
       <c r="I248" t="n">
-        <v>355.09</v>
+        <v>355.16</v>
       </c>
       <c r="J248" t="n">
         <v>350.49</v>
@@ -17484,7 +17482,7 @@
         <v>369.24</v>
       </c>
       <c r="I249" t="n">
-        <v>337.81</v>
+        <v>338.39</v>
       </c>
       <c r="J249" t="n">
         <v>323.75</v>
@@ -17533,7 +17531,7 @@
         <v>316.11</v>
       </c>
       <c r="C250" t="n">
-        <v>301.68</v>
+        <v>300.54</v>
       </c>
       <c r="D250" t="n">
         <v>287.37</v>
@@ -17551,7 +17549,7 @@
         <v>368.16</v>
       </c>
       <c r="I250" t="n">
-        <v>345.38</v>
+        <v>345.98</v>
       </c>
       <c r="J250" t="n">
         <v>350.35</v>
@@ -17614,7 +17612,7 @@
         <v>292.47</v>
       </c>
       <c r="C251" t="n">
-        <v>262.54</v>
+        <v>261.41</v>
       </c>
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr"/>
@@ -17622,7 +17620,7 @@
       <c r="G251" t="inlineStr"/>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="n">
-        <v>329.2</v>
+        <v>329.79</v>
       </c>
       <c r="J251" t="n">
         <v>334.64</v>
@@ -17669,7 +17667,7 @@
       </c>
       <c r="B252" t="inlineStr"/>
       <c r="C252" t="n">
-        <v>222.62</v>
+        <v>223.55</v>
       </c>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr"/>
@@ -17681,7 +17679,7 @@
         <v>354.91</v>
       </c>
       <c r="I252" t="n">
-        <v>353.72</v>
+        <v>353.23</v>
       </c>
       <c r="J252" t="n">
         <v>343.61</v>
@@ -17736,7 +17734,7 @@
         <v>319.57</v>
       </c>
       <c r="C253" t="n">
-        <v>297.98</v>
+        <v>298.76</v>
       </c>
       <c r="D253" t="n">
         <v>308.98</v>
@@ -17754,7 +17752,7 @@
         <v>367.43</v>
       </c>
       <c r="I253" t="n">
-        <v>346.48</v>
+        <v>346.07</v>
       </c>
       <c r="J253" t="n">
         <v>346.52</v>
@@ -17817,7 +17815,7 @@
         <v>307.84</v>
       </c>
       <c r="C254" t="n">
-        <v>269.3</v>
+        <v>268</v>
       </c>
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="n">
@@ -17880,7 +17878,7 @@
         <v>372.63</v>
       </c>
       <c r="I255" t="n">
-        <v>340.31</v>
+        <v>340.92</v>
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
@@ -17978,7 +17976,7 @@
         <v>314.13</v>
       </c>
       <c r="C257" t="n">
-        <v>288.01</v>
+        <v>288.2</v>
       </c>
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr"/>
@@ -17990,7 +17988,7 @@
         <v>348.19</v>
       </c>
       <c r="I257" t="n">
-        <v>345.72</v>
+        <v>345.62</v>
       </c>
       <c r="J257" t="n">
         <v>341.36</v>
@@ -18053,7 +18051,7 @@
         <v>317.08</v>
       </c>
       <c r="C258" t="n">
-        <v>252.43</v>
+        <v>252.12</v>
       </c>
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="n">
@@ -18108,7 +18106,7 @@
         <v>326.48</v>
       </c>
       <c r="C259" t="n">
-        <v>292.84</v>
+        <v>291.9</v>
       </c>
       <c r="D259" t="n">
         <v>275.56</v>
@@ -18126,7 +18124,7 @@
         <v>336.69</v>
       </c>
       <c r="I259" t="n">
-        <v>325.03</v>
+        <v>325.53</v>
       </c>
       <c r="J259" t="n">
         <v>338.99</v>
@@ -18189,7 +18187,7 @@
         <v>319.05</v>
       </c>
       <c r="C260" t="n">
-        <v>280.68</v>
+        <v>281.24</v>
       </c>
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="n">
@@ -18232,7 +18230,7 @@
         <v>312.38</v>
       </c>
       <c r="C261" t="n">
-        <v>281.46</v>
+        <v>281.63</v>
       </c>
       <c r="D261" t="n">
         <v>266.96</v>
@@ -18250,7 +18248,7 @@
         <v>346.98</v>
       </c>
       <c r="I261" t="n">
-        <v>337.64</v>
+        <v>337.55</v>
       </c>
       <c r="J261" t="n">
         <v>336.14</v>
@@ -18313,7 +18311,7 @@
         <v>326.13</v>
       </c>
       <c r="C262" t="n">
-        <v>292.75</v>
+        <v>293.66</v>
       </c>
       <c r="D262" t="n">
         <v>260.36</v>
@@ -18413,7 +18411,7 @@
         <v>323.29</v>
       </c>
       <c r="C264" t="n">
-        <v>290.4</v>
+        <v>289.63</v>
       </c>
       <c r="D264" t="n">
         <v>257.55</v>
@@ -18484,7 +18482,7 @@
         <v>338.36</v>
       </c>
       <c r="I265" t="n">
-        <v>329.57</v>
+        <v>329.24</v>
       </c>
       <c r="J265" t="n">
         <v>334.69</v>
@@ -18582,7 +18580,7 @@
         <v>333.89</v>
       </c>
       <c r="C267" t="n">
-        <v>299.3</v>
+        <v>298.32</v>
       </c>
       <c r="D267" t="n">
         <v>264.15</v>
@@ -18651,7 +18649,7 @@
         <v>320.07</v>
       </c>
       <c r="C268" t="n">
-        <v>251.9</v>
+        <v>250.6</v>
       </c>
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr"/>
@@ -18704,7 +18702,7 @@
         <v>301.22</v>
       </c>
       <c r="C269" t="n">
-        <v>255.78</v>
+        <v>255.25</v>
       </c>
       <c r="D269" t="inlineStr"/>
       <c r="E269" t="n">
@@ -18761,7 +18759,7 @@
         <v>324.65</v>
       </c>
       <c r="C270" t="n">
-        <v>285.7</v>
+        <v>286.56</v>
       </c>
       <c r="D270" t="inlineStr"/>
       <c r="E270" t="n">
@@ -18777,7 +18775,7 @@
         <v>308.2</v>
       </c>
       <c r="I270" t="n">
-        <v>325.69</v>
+        <v>325.24</v>
       </c>
       <c r="J270" t="n">
         <v>327.56</v>
@@ -18838,7 +18836,7 @@
         <v>330.13</v>
       </c>
       <c r="C271" t="n">
-        <v>312.79</v>
+        <v>312.77</v>
       </c>
       <c r="D271" t="n">
         <v>307.66</v>
@@ -18856,7 +18854,7 @@
         <v>336.82</v>
       </c>
       <c r="I271" t="n">
-        <v>323.15</v>
+        <v>323.16</v>
       </c>
       <c r="J271" t="n">
         <v>313.91</v>
@@ -18966,7 +18964,7 @@
         <v>318.18</v>
       </c>
       <c r="C273" t="n">
-        <v>281.29</v>
+        <v>280.42</v>
       </c>
       <c r="D273" t="n">
         <v>291.91</v>
@@ -18980,7 +18978,7 @@
       <c r="G273" t="inlineStr"/>
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="n">
-        <v>312.5</v>
+        <v>312.96</v>
       </c>
       <c r="J273" t="n">
         <v>300.85</v>
@@ -19027,7 +19025,7 @@
         <v>280.37</v>
       </c>
       <c r="C274" t="n">
-        <v>269.04</v>
+        <v>267.8</v>
       </c>
       <c r="D274" t="n">
         <v>278.43</v>
@@ -19092,7 +19090,7 @@
         <v>310.43</v>
       </c>
       <c r="C275" t="n">
-        <v>299.09</v>
+        <v>298.05</v>
       </c>
       <c r="D275" t="n">
         <v>291.42</v>
@@ -19110,7 +19108,7 @@
         <v>334.87</v>
       </c>
       <c r="I275" t="n">
-        <v>303.89</v>
+        <v>304.45</v>
       </c>
       <c r="J275" t="n">
         <v>296.69</v>
@@ -19173,7 +19171,7 @@
         <v>323.13</v>
       </c>
       <c r="C276" t="n">
-        <v>312.68</v>
+        <v>311.15</v>
       </c>
       <c r="D276" t="n">
         <v>294.1</v>
@@ -19191,7 +19189,7 @@
         <v>325.67</v>
       </c>
       <c r="I276" t="n">
-        <v>308.68</v>
+        <v>309.49</v>
       </c>
       <c r="J276" t="n">
         <v>327.78</v>
@@ -19254,7 +19252,7 @@
         <v>328.35</v>
       </c>
       <c r="C277" t="n">
-        <v>278.38</v>
+        <v>278.61</v>
       </c>
       <c r="D277" t="n">
         <v>268.15</v>
@@ -19321,7 +19319,7 @@
         <v>359.8</v>
       </c>
       <c r="I278" t="n">
-        <v>345.84</v>
+        <v>345.76</v>
       </c>
       <c r="J278" t="n">
         <v>343.58</v>
@@ -19417,7 +19415,7 @@
         <v>320.34</v>
       </c>
       <c r="C280" t="n">
-        <v>306.01</v>
+        <v>304.81</v>
       </c>
       <c r="D280" t="inlineStr"/>
       <c r="E280" t="n">
@@ -19433,7 +19431,7 @@
         <v>350.34</v>
       </c>
       <c r="I280" t="n">
-        <v>338.05</v>
+        <v>338.69</v>
       </c>
       <c r="J280" t="n">
         <v>351.78</v>
@@ -19496,7 +19494,7 @@
         <v>325.67</v>
       </c>
       <c r="C281" t="n">
-        <v>304.49</v>
+        <v>303.2</v>
       </c>
       <c r="D281" t="n">
         <v>279.04</v>
@@ -19514,7 +19512,7 @@
         <v>345.15</v>
       </c>
       <c r="I281" t="n">
-        <v>335.85</v>
+        <v>336.53</v>
       </c>
       <c r="J281" t="n">
         <v>354.19</v>
@@ -19624,7 +19622,7 @@
         <v>331.25</v>
       </c>
       <c r="C283" t="n">
-        <v>300.15</v>
+        <v>300.79</v>
       </c>
       <c r="D283" t="n">
         <v>288</v>
@@ -19642,7 +19640,7 @@
         <v>337.94</v>
       </c>
       <c r="I283" t="n">
-        <v>343.24</v>
+        <v>342.9</v>
       </c>
       <c r="J283" t="n">
         <v>335.67</v>
@@ -19701,7 +19699,7 @@
         <v>314.76</v>
       </c>
       <c r="C284" t="n">
-        <v>301.1</v>
+        <v>299.41</v>
       </c>
       <c r="D284" t="n">
         <v>281.59</v>
@@ -19719,7 +19717,7 @@
         <v>323.47</v>
       </c>
       <c r="I284" t="n">
-        <v>310.46</v>
+        <v>311.36</v>
       </c>
       <c r="J284" t="n">
         <v>305.25</v>
@@ -19819,7 +19817,7 @@
         <v>333.04</v>
       </c>
       <c r="C286" t="n">
-        <v>307.33</v>
+        <v>307.69</v>
       </c>
       <c r="D286" t="n">
         <v>310.57</v>
@@ -19837,7 +19835,7 @@
         <v>348.99</v>
       </c>
       <c r="I286" t="n">
-        <v>349.17</v>
+        <v>348.99</v>
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
@@ -19897,9 +19895,7 @@
       <c r="B287" t="n">
         <v>305.98</v>
       </c>
-      <c r="C287" t="n">
-        <v>267.59</v>
-      </c>
+      <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr"/>
@@ -20041,7 +20037,7 @@
         <v>315.73</v>
       </c>
       <c r="I290" t="n">
-        <v>337.18</v>
+        <v>336.99</v>
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
@@ -20098,7 +20094,7 @@
         <v>361.35</v>
       </c>
       <c r="C291" t="n">
-        <v>331.03</v>
+        <v>332.04</v>
       </c>
       <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr"/>
@@ -20159,7 +20155,7 @@
         <v>330.96</v>
       </c>
       <c r="C292" t="n">
-        <v>302.9</v>
+        <v>301.74</v>
       </c>
       <c r="D292" t="n">
         <v>268.99</v>
@@ -20236,7 +20232,7 @@
         <v>330.17</v>
       </c>
       <c r="C293" t="n">
-        <v>308.28</v>
+        <v>308.84</v>
       </c>
       <c r="D293" t="n">
         <v>250.14</v>
@@ -20313,7 +20309,7 @@
         <v>326.81</v>
       </c>
       <c r="C294" t="n">
-        <v>308.63</v>
+        <v>308.47</v>
       </c>
       <c r="D294" t="n">
         <v>265.08</v>
@@ -20390,7 +20386,7 @@
         <v>325.68</v>
       </c>
       <c r="C295" t="n">
-        <v>301.84</v>
+        <v>301.77</v>
       </c>
       <c r="D295" t="n">
         <v>262.32</v>
@@ -20408,7 +20404,7 @@
         <v>310.49</v>
       </c>
       <c r="I295" t="n">
-        <v>301.68</v>
+        <v>301.71</v>
       </c>
       <c r="J295" t="n">
         <v>172.54</v>
@@ -20512,7 +20508,7 @@
         <v>324.81</v>
       </c>
       <c r="C297" t="n">
-        <v>309.3</v>
+        <v>308.28</v>
       </c>
       <c r="D297" t="n">
         <v>295.88</v>
@@ -20530,7 +20526,7 @@
         <v>320.98</v>
       </c>
       <c r="I297" t="n">
-        <v>310.77</v>
+        <v>311.31</v>
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
@@ -20583,7 +20579,7 @@
       </c>
       <c r="B298" t="inlineStr"/>
       <c r="C298" t="n">
-        <v>277.81</v>
+        <v>277.42</v>
       </c>
       <c r="D298" t="inlineStr"/>
       <c r="E298" t="inlineStr"/>
@@ -20630,7 +20626,7 @@
         <v>312.03</v>
       </c>
       <c r="C299" t="n">
-        <v>289.38</v>
+        <v>289.88</v>
       </c>
       <c r="D299" t="n">
         <v>308.72</v>
@@ -20648,7 +20644,7 @@
         <v>337.89</v>
       </c>
       <c r="I299" t="n">
-        <v>336.04</v>
+        <v>335.77</v>
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
@@ -20709,7 +20705,7 @@
         <v>325.52</v>
       </c>
       <c r="C300" t="n">
-        <v>305.71</v>
+        <v>305.6</v>
       </c>
       <c r="D300" t="n">
         <v>299.16</v>
@@ -20727,7 +20723,7 @@
         <v>354.27</v>
       </c>
       <c r="I300" t="n">
-        <v>350.81</v>
+        <v>350.87</v>
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
@@ -20786,7 +20782,7 @@
         <v>317.54</v>
       </c>
       <c r="C301" t="n">
-        <v>299.18</v>
+        <v>298.29</v>
       </c>
       <c r="D301" t="n">
         <v>283.18</v>
@@ -20804,7 +20800,7 @@
         <v>345.8</v>
       </c>
       <c r="I301" t="n">
-        <v>329.84</v>
+        <v>330.31</v>
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
@@ -20873,7 +20869,7 @@
         <v>387.18</v>
       </c>
       <c r="I302" t="n">
-        <v>344.16</v>
+        <v>344.39</v>
       </c>
       <c r="J302" t="n">
         <v>173.14</v>
@@ -20922,7 +20918,7 @@
         <v>326.29</v>
       </c>
       <c r="C303" t="n">
-        <v>308.94</v>
+        <v>307.43</v>
       </c>
       <c r="D303" t="n">
         <v>283.52</v>
@@ -20940,7 +20936,7 @@
         <v>348.28</v>
       </c>
       <c r="I303" t="n">
-        <v>326.88</v>
+        <v>327.69</v>
       </c>
       <c r="J303" t="n">
         <v>348.81</v>
@@ -21003,7 +20999,7 @@
         <v>305.57</v>
       </c>
       <c r="C304" t="n">
-        <v>287.51</v>
+        <v>286.7</v>
       </c>
       <c r="D304" t="n">
         <v>270.62</v>
@@ -21021,7 +21017,7 @@
         <v>330.06</v>
       </c>
       <c r="I304" t="n">
-        <v>320.31</v>
+        <v>320.74</v>
       </c>
       <c r="J304" t="n">
         <v>340.59</v>
@@ -21084,7 +21080,7 @@
         <v>312.99</v>
       </c>
       <c r="C305" t="n">
-        <v>291.73</v>
+        <v>291.4</v>
       </c>
       <c r="D305" t="n">
         <v>272.61</v>
@@ -21102,7 +21098,7 @@
         <v>335.58</v>
       </c>
       <c r="I305" t="n">
-        <v>327.87</v>
+        <v>328.04</v>
       </c>
       <c r="J305" t="n">
         <v>334.99</v>
@@ -21165,7 +21161,7 @@
         <v>305.89</v>
       </c>
       <c r="C306" t="n">
-        <v>283.14</v>
+        <v>282.95</v>
       </c>
       <c r="D306" t="n">
         <v>271.3</v>
@@ -21183,7 +21179,7 @@
         <v>350.33</v>
       </c>
       <c r="I306" t="n">
-        <v>340.2</v>
+        <v>340.3</v>
       </c>
       <c r="J306" t="n">
         <v>351.9</v>
@@ -21246,7 +21242,7 @@
         <v>312.91</v>
       </c>
       <c r="C307" t="n">
-        <v>283.95</v>
+        <v>284.55</v>
       </c>
       <c r="D307" t="n">
         <v>272.33</v>
@@ -21264,7 +21260,7 @@
         <v>341.3</v>
       </c>
       <c r="I307" t="n">
-        <v>342.73</v>
+        <v>342.41</v>
       </c>
       <c r="J307" t="n">
         <v>331.58</v>
@@ -21327,7 +21323,7 @@
         <v>317.68</v>
       </c>
       <c r="C308" t="n">
-        <v>302.58</v>
+        <v>300.85</v>
       </c>
       <c r="D308" t="n">
         <v>275.28</v>
@@ -21345,7 +21341,7 @@
         <v>341.03</v>
       </c>
       <c r="I308" t="n">
-        <v>325.82</v>
+        <v>326.73</v>
       </c>
       <c r="J308" t="n">
         <v>356.13</v>
@@ -21408,7 +21404,7 @@
         <v>310.31</v>
       </c>
       <c r="C309" t="n">
-        <v>282.37</v>
+        <v>282.73</v>
       </c>
       <c r="D309" t="n">
         <v>266.74</v>
@@ -21426,7 +21422,7 @@
         <v>327.56</v>
       </c>
       <c r="I309" t="n">
-        <v>334.12</v>
+        <v>333.93</v>
       </c>
       <c r="J309" t="n">
         <v>331.67</v>
@@ -21485,7 +21481,7 @@
         <v>315.19</v>
       </c>
       <c r="C310" t="n">
-        <v>280.43</v>
+        <v>280.93</v>
       </c>
       <c r="D310" t="n">
         <v>268.88</v>
@@ -21503,7 +21499,7 @@
         <v>317.3</v>
       </c>
       <c r="I310" t="n">
-        <v>344.7</v>
+        <v>344.44</v>
       </c>
       <c r="J310" t="n">
         <v>297.19</v>
@@ -21562,7 +21558,7 @@
         <v>316.22</v>
       </c>
       <c r="C311" t="n">
-        <v>299.12</v>
+        <v>297.74</v>
       </c>
       <c r="D311" t="n">
         <v>264.83</v>
@@ -21635,7 +21631,7 @@
         <v>338.29</v>
       </c>
       <c r="I312" t="n">
-        <v>337.69</v>
+        <v>337.85</v>
       </c>
       <c r="J312" t="n">
         <v>338.25</v>
@@ -21692,7 +21688,7 @@
         <v>329.32</v>
       </c>
       <c r="I313" t="n">
-        <v>324.11</v>
+        <v>324.12</v>
       </c>
       <c r="J313" t="n">
         <v>314.66</v>
@@ -21749,7 +21745,7 @@
         <v>317.51</v>
       </c>
       <c r="C314" t="n">
-        <v>285.58</v>
+        <v>286.34</v>
       </c>
       <c r="D314" t="n">
         <v>286.96</v>
@@ -21767,7 +21763,7 @@
         <v>307.66</v>
       </c>
       <c r="I314" t="n">
-        <v>316.79</v>
+        <v>316.38</v>
       </c>
       <c r="J314" t="n">
         <v>312.8</v>
@@ -21824,7 +21820,7 @@
         <v>336.59</v>
       </c>
       <c r="C315" t="n">
-        <v>309.78</v>
+        <v>310.47</v>
       </c>
       <c r="D315" t="n">
         <v>312.72</v>
@@ -21842,7 +21838,7 @@
         <v>342.52</v>
       </c>
       <c r="I315" t="n">
-        <v>341.7</v>
+        <v>341.34</v>
       </c>
       <c r="J315" t="n">
         <v>330.9</v>
@@ -21905,7 +21901,7 @@
         <v>317.49</v>
       </c>
       <c r="C316" t="n">
-        <v>310.76</v>
+        <v>309.07</v>
       </c>
       <c r="D316" t="n">
         <v>299.44</v>
@@ -21923,7 +21919,7 @@
         <v>362.53</v>
       </c>
       <c r="I316" t="n">
-        <v>336.99</v>
+        <v>337.89</v>
       </c>
       <c r="J316" t="n">
         <v>347.54</v>
@@ -21986,7 +21982,7 @@
         <v>306.36</v>
       </c>
       <c r="C317" t="n">
-        <v>292.88</v>
+        <v>292.68</v>
       </c>
       <c r="D317" t="n">
         <v>288.87</v>
@@ -22004,7 +22000,7 @@
         <v>350.63</v>
       </c>
       <c r="I317" t="n">
-        <v>352.58</v>
+        <v>352.68</v>
       </c>
       <c r="J317" t="n">
         <v>349.3</v>
@@ -22065,7 +22061,7 @@
         <v>315.47</v>
       </c>
       <c r="C318" t="n">
-        <v>285.81</v>
+        <v>286.72</v>
       </c>
       <c r="D318" t="n">
         <v>275.72</v>
@@ -22083,7 +22079,7 @@
         <v>338.52</v>
       </c>
       <c r="I318" t="n">
-        <v>351.55</v>
+        <v>351.06</v>
       </c>
       <c r="J318" t="n">
         <v>328.24</v>
@@ -22146,7 +22142,7 @@
         <v>315.12</v>
       </c>
       <c r="C319" t="n">
-        <v>300.28</v>
+        <v>298.87</v>
       </c>
       <c r="D319" t="n">
         <v>281.21</v>
@@ -22164,7 +22160,7 @@
         <v>343.07</v>
       </c>
       <c r="I319" t="n">
-        <v>327.95</v>
+        <v>328.7</v>
       </c>
       <c r="J319" t="n">
         <v>344.07</v>
@@ -22225,7 +22221,7 @@
         <v>307.15</v>
       </c>
       <c r="C320" t="n">
-        <v>281.17</v>
+        <v>281.53</v>
       </c>
       <c r="D320" t="n">
         <v>270.03</v>
@@ -22243,7 +22239,7 @@
         <v>328.94</v>
       </c>
       <c r="I320" t="n">
-        <v>344.35</v>
+        <v>344.16</v>
       </c>
       <c r="J320" t="n">
         <v>341</v>
@@ -22306,7 +22302,7 @@
         <v>312.95</v>
       </c>
       <c r="C321" t="n">
-        <v>284.71</v>
+        <v>284.81</v>
       </c>
       <c r="D321" t="n">
         <v>269.84</v>
@@ -22324,7 +22320,7 @@
         <v>344.88</v>
       </c>
       <c r="I321" t="n">
-        <v>340.81</v>
+        <v>340.76</v>
       </c>
       <c r="J321" t="n">
         <v>334.18</v>
@@ -22387,7 +22383,7 @@
         <v>312</v>
       </c>
       <c r="C322" t="n">
-        <v>288.47</v>
+        <v>287.6</v>
       </c>
       <c r="D322" t="n">
         <v>270.31</v>
@@ -22405,7 +22401,7 @@
         <v>336.29</v>
       </c>
       <c r="I322" t="n">
-        <v>335.6</v>
+        <v>336.06</v>
       </c>
       <c r="J322" t="n">
         <v>339.66</v>
@@ -22468,7 +22464,7 @@
         <v>305.46</v>
       </c>
       <c r="C323" t="n">
-        <v>277.9</v>
+        <v>277.77</v>
       </c>
       <c r="D323" t="n">
         <v>259.94</v>
@@ -22486,7 +22482,7 @@
         <v>349.18</v>
       </c>
       <c r="I323" t="n">
-        <v>335.66</v>
+        <v>335.73</v>
       </c>
       <c r="J323" t="n">
         <v>333.12</v>
@@ -22547,7 +22543,7 @@
       </c>
       <c r="B324" t="inlineStr"/>
       <c r="C324" t="n">
-        <v>244.77</v>
+        <v>245.43</v>
       </c>
       <c r="D324" t="n">
         <v>236.61</v>
@@ -22604,7 +22600,7 @@
         <v>314.21</v>
       </c>
       <c r="C325" t="n">
-        <v>294.7</v>
+        <v>293.39</v>
       </c>
       <c r="D325" t="n">
         <v>275.89</v>
@@ -22622,7 +22618,7 @@
         <v>329.16</v>
       </c>
       <c r="I325" t="n">
-        <v>316.38</v>
+        <v>317.07</v>
       </c>
       <c r="J325" t="n">
         <v>339.58</v>
@@ -22685,7 +22681,7 @@
         <v>322.39</v>
       </c>
       <c r="C326" t="n">
-        <v>306.44</v>
+        <v>304.77</v>
       </c>
       <c r="D326" t="n">
         <v>275.46</v>
@@ -22703,7 +22699,7 @@
         <v>332.08</v>
       </c>
       <c r="I326" t="n">
-        <v>313.08</v>
+        <v>313.97</v>
       </c>
       <c r="J326" t="n">
         <v>202.39</v>
@@ -22760,7 +22756,7 @@
         <v>322.3</v>
       </c>
       <c r="C327" t="n">
-        <v>282.01</v>
+        <v>282.45</v>
       </c>
       <c r="D327" t="n">
         <v>252.41</v>
@@ -22776,7 +22772,7 @@
         <v>326.18</v>
       </c>
       <c r="I327" t="n">
-        <v>328.07</v>
+        <v>327.84</v>
       </c>
       <c r="J327" t="n">
         <v>160.34</v>
@@ -22839,7 +22835,7 @@
         <v>317.86</v>
       </c>
       <c r="C328" t="n">
-        <v>290.52</v>
+        <v>290.36</v>
       </c>
       <c r="D328" t="n">
         <v>254.6</v>
@@ -22914,7 +22910,7 @@
         <v>325.22</v>
       </c>
       <c r="C329" t="n">
-        <v>301.46</v>
+        <v>301.3</v>
       </c>
       <c r="D329" t="n">
         <v>253.89</v>
@@ -22989,7 +22985,7 @@
         <v>334.81</v>
       </c>
       <c r="C330" t="n">
-        <v>305.22</v>
+        <v>303.89</v>
       </c>
       <c r="D330" t="n">
         <v>271.9</v>
@@ -23062,7 +23058,7 @@
         <v>319.75</v>
       </c>
       <c r="C331" t="n">
-        <v>297.88</v>
+        <v>298.59</v>
       </c>
       <c r="D331" t="n">
         <v>255.34</v>
@@ -23078,7 +23074,7 @@
         <v>336.37</v>
       </c>
       <c r="I331" t="n">
-        <v>338.43</v>
+        <v>338.05</v>
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
@@ -23135,7 +23131,7 @@
         <v>315.64</v>
       </c>
       <c r="C332" t="n">
-        <v>306.62</v>
+        <v>305.25</v>
       </c>
       <c r="D332" t="n">
         <v>266.76</v>
@@ -23212,7 +23208,7 @@
         <v>314.11</v>
       </c>
       <c r="C333" t="n">
-        <v>290.18</v>
+        <v>289.44</v>
       </c>
       <c r="D333" t="n">
         <v>267.77</v>
@@ -23230,7 +23226,7 @@
         <v>321.54</v>
       </c>
       <c r="I333" t="n">
-        <v>310.67</v>
+        <v>311.07</v>
       </c>
       <c r="J333" t="n">
         <v>187.56</v>
@@ -23289,7 +23285,7 @@
         <v>313.93</v>
       </c>
       <c r="C334" t="n">
-        <v>292.25</v>
+        <v>291.52</v>
       </c>
       <c r="D334" t="n">
         <v>275.9</v>
@@ -23307,7 +23303,7 @@
         <v>306.75</v>
       </c>
       <c r="I334" t="n">
-        <v>306.9</v>
+        <v>307.29</v>
       </c>
       <c r="J334" t="n">
         <v>314.06</v>
@@ -23368,7 +23364,7 @@
         <v>315.11</v>
       </c>
       <c r="C335" t="n">
-        <v>302</v>
+        <v>300.73</v>
       </c>
       <c r="D335" t="n">
         <v>275.71</v>
@@ -23386,7 +23382,7 @@
         <v>307.62</v>
       </c>
       <c r="I335" t="n">
-        <v>302.1</v>
+        <v>302.78</v>
       </c>
       <c r="J335" t="n">
         <v>312.72</v>
@@ -23447,7 +23443,7 @@
         <v>333.8</v>
       </c>
       <c r="C336" t="n">
-        <v>308.3</v>
+        <v>306.66</v>
       </c>
       <c r="D336" t="n">
         <v>283.23</v>
@@ -23465,7 +23461,7 @@
         <v>316</v>
       </c>
       <c r="I336" t="n">
-        <v>303.38</v>
+        <v>304.25</v>
       </c>
       <c r="J336" t="n">
         <v>315.3</v>
@@ -23526,7 +23522,7 @@
         <v>327.81</v>
       </c>
       <c r="C337" t="n">
-        <v>294.61</v>
+        <v>295.15</v>
       </c>
       <c r="D337" t="n">
         <v>287.59</v>
@@ -23544,7 +23540,7 @@
         <v>316.48</v>
       </c>
       <c r="I337" t="n">
-        <v>304.66</v>
+        <v>304.38</v>
       </c>
       <c r="J337" t="n">
         <v>288.37</v>
@@ -27315,28 +27311,28 @@
         <v>0.1297</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4031865584517715</v>
+        <v>-0.4077246414990616</v>
       </c>
       <c r="J3" t="n">
         <v>336</v>
       </c>
       <c r="K3" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0392299310480122</v>
+        <v>0.04264309394205723</v>
       </c>
       <c r="M3" t="n">
-        <v>11.33029448329443</v>
+        <v>10.98334778421259</v>
       </c>
       <c r="N3" t="n">
-        <v>223.4046950134275</v>
+        <v>209.9823135831262</v>
       </c>
       <c r="O3" t="n">
-        <v>14.94672857228054</v>
+        <v>14.49076649398251</v>
       </c>
       <c r="P3" t="n">
-        <v>300.7481394249775</v>
+        <v>300.3959924767519</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27783,7 +27779,7 @@
         <v>0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>0.168436321035048</v>
+        <v>0.1703535561955719</v>
       </c>
       <c r="J9" t="n">
         <v>336</v>
@@ -27792,19 +27788,19 @@
         <v>219</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004530943624586947</v>
+        <v>0.004719919421200536</v>
       </c>
       <c r="M9" t="n">
-        <v>14.95325721222066</v>
+        <v>14.78987777526103</v>
       </c>
       <c r="N9" t="n">
-        <v>335.3897311987682</v>
+        <v>329.2701012071865</v>
       </c>
       <c r="O9" t="n">
-        <v>18.31364876803004</v>
+        <v>18.14580120047573</v>
       </c>
       <c r="P9" t="n">
-        <v>323.6403104906825</v>
+        <v>323.7517728642339</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29160,7 +29156,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-38.495039891603916,174.63626313384174</t>
+          <t>-38.495041950459175,174.6362703545047</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -29190,7 +29186,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-38.49084357457647,174.63752558709274</t>
+          <t>-38.49084361143446,174.6375215750236</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -29287,7 +29283,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-38.49504124368802,174.6362678757696</t>
+          <t>-38.495042411396874,174.63627197107107</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -29317,7 +29313,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-38.49084589425493,174.6372730559823</t>
+          <t>-38.49084591531171,174.63727076337105</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -29414,7 +29410,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-38.49507519937203,174.63638696287776</t>
+          <t>-38.49507314052412,174.6363797422084</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -29444,7 +29440,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-38.49084937959297,174.63689351415073</t>
+          <t>-38.49084934275652,174.63689752622128</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -29541,7 +29537,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-38.49510980024031,174.63650831329105</t>
+          <t>-38.49510949295074,174.63650723557816</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -29567,7 +29563,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-38.490849522727665,174.63687792439092</t>
+          <t>-38.49084951641293,174.63687861217443</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -29664,7 +29660,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-38.49510033571716,174.63647511973878</t>
+          <t>-38.49510221018517,174.6364816937858</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -29751,7 +29747,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-38.495209453710075,174.63685781604082</t>
+          <t>-38.49520730270594,174.6368502720308</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -29794,7 +29790,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-38.49508057695767,174.63640582283693</t>
+          <t>-38.49507802644602,174.6363968778274</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -29869,7 +29865,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-38.49503177909523,174.63623468227817</t>
+          <t>-38.495034022327495,174.63624254956596</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -29992,7 +29988,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-38.49506979105417,174.63636799515012</t>
+          <t>-38.495073908751,174.63638243648796</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -30103,7 +30099,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-38.49513235526638,174.63658741743964</t>
+          <t>-38.495130634448884,174.63658138224406</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -30133,7 +30129,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-38.49084932381198,174.6368995895718</t>
+          <t>-38.49084929223772,174.6369030284894</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -30222,7 +30218,7 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-38.495074984268534,174.63638620847948</t>
+          <t>-38.495072925420565,174.63637898781013</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -30248,7 +30244,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-38.490848103918765,174.63703244641619</t>
+          <t>-38.49084806602493,174.63703657311697</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -30309,7 +30305,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-38.49502323637007,174.63620472192622</t>
+          <t>-38.49502117751069,174.6361975012669</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -30339,7 +30335,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-38.49084734180374,174.6371154389524</t>
+          <t>-38.490847304959686,174.63711945102244</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -30428,7 +30424,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-38.4950327931592,174.63623823872328</t>
+          <t>-38.49503353066019,174.63624082522887</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -30458,7 +30454,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-38.490847646025216,174.63708231071672</t>
+          <t>-38.490847660762356,174.6370807058887</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -30551,7 +30547,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-38.49503688014319,174.63625257227574</t>
+          <t>-38.49503697233077,174.636252895589</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -30573,7 +30569,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>-38.490843794669196,174.63750162930847</t>
+          <t>-38.49084379572227,174.63750151467795</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -30650,7 +30646,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-38.49504069056274,174.63626593589</t>
+          <t>-38.49503872389478,174.63625903854054</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -30676,7 +30672,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-38.49084580265745,174.63728302884115</t>
+          <t>-38.49084576686048,174.63728692628024</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -30769,7 +30765,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-38.49500854778118,174.63615320738026</t>
+          <t>-38.49501020716267,174.63615902701414</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -30795,7 +30791,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-38.490846545941345,174.63720209966291</t>
+          <t>-38.490846575418864,174.63719889000706</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -30888,7 +30884,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-38.49506819314147,174.63636239104932</t>
+          <t>-38.49507243375533,174.63637726347125</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -30914,7 +30910,7 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>-38.490843239689134,174.63756203960594</t>
+          <t>-38.490843316566796,174.63755367157626</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -31007,7 +31003,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-38.49518831239086,174.6367836692187</t>
+          <t>-38.49519098578708,174.63679304534068</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -31102,7 +31098,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-38.4951310646533,174.63658289104296</t>
+          <t>-38.49512934383555,174.63657685584758</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -31132,7 +31128,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-38.49084783444835,174.6370617918438</t>
+          <t>-38.49084780286931,174.63706523076107</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -31225,7 +31221,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-38.49511275021956,174.63651865933502</t>
+          <t>-38.49511026117461,174.63650992986035</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -31328,7 +31324,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-38.495084602462626,174.6364199408653</t>
+          <t>-38.49508838213361,174.63643319672536</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -31423,7 +31419,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-38.49506472075334,174.63635021290798</t>
+          <t>-38.49506232388289,174.63634180675797</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -31453,7 +31449,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-38.49084551417242,174.63731443761472</t>
+          <t>-38.49084547100424,174.63731913746764</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -31542,7 +31538,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-38.49508690714024,174.63642802370663</t>
+          <t>-38.495088843069,174.63643481329376</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -31572,7 +31568,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-38.490841931624274,174.63770441073532</t>
+          <t>-38.490841966381865,174.63770062792773</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -31663,7 +31659,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-38.49084475501652,174.63739708624618</t>
+          <t>-38.49084476133429,174.63739639846284</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -31744,7 +31740,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-38.49505749941101,174.63632488668844</t>
+          <t>-38.49506232388289,174.63634180675797</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -31766,7 +31762,7 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>-38.49084503299437,174.63736682377964</t>
+          <t>-38.49084512038732,174.63735730944344</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -31894,7 +31890,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-38.49504299525122,174.63627401872188</t>
+          <t>-38.495045853064155,174.63628404143404</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -31924,7 +31920,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>-38.4908443812082,174.63743778009243</t>
+          <t>-38.49084443385811,174.63743204856485</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -32005,7 +32001,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-38.49507464624874,174.63638502299642</t>
+          <t>-38.495076705096324,174.63639224366608</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -32035,7 +32031,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-38.49084411268928,174.63746701088283</t>
+          <t>-38.49084415059828,174.63746288418304</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -32132,7 +32128,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-38.49509425137579,174.63645378103104</t>
+          <t>-38.49509465085287,174.6364551820572</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -32154,7 +32150,7 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>-38.490847510232015,174.63709709806076</t>
+          <t>-38.490847517600685,174.63709629564676</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -32243,7 +32239,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-38.49507535301737,174.6363875017337</t>
+          <t>-38.49507962435702,174.63640248192968</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -32273,7 +32269,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-38.490843701999175,174.63751171679664</t>
+          <t>-38.4908437799263,174.63750323413615</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -32362,7 +32358,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-38.495064659295124,174.63634999736567</t>
+          <t>-38.49506782439236,174.63636109779532</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -32421,7 +32417,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-38.495056208787545,174.6363203603008</t>
+          <t>-38.49505691555756,174.63632283903686</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -32451,7 +32447,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>-38.4908434008156,174.6375445011327</t>
+          <t>-38.49084341345285,174.63754312556617</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -32615,7 +32611,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-38.49511244293011,174.63651758162206</t>
+          <t>-38.49511019971671,174.63650971431775</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -32718,7 +32714,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-38.49510574401728,174.6364940874819</t>
+          <t>-38.49510368517613,174.63648686680665</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -32825,7 +32821,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-38.49502335928704,174.6362051530104</t>
+          <t>-38.49502710825366,174.6362183010777</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -32942,7 +32938,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>-38.49084657120779,174.63719934852932</t>
+          <t>-38.49084652172758,174.63720473616596</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -33039,7 +33035,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-38.49504394785563,174.63627735962584</t>
+          <t>-38.49504548431415,174.6362827481808</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -33069,7 +33065,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>-38.49084609639814,174.63725104691423</t>
+          <t>-38.49084612482419,174.637247951889</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -33180,7 +33176,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>-38.49084901437966,174.6369332909638</t>
+          <t>-38.49084898069936,174.6369369591425</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -33257,7 +33253,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-38.4950704056359,174.63637015057358</t>
+          <t>-38.49506785512144,174.6363612055665</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -33287,7 +33283,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>-38.490846575418864,174.63719889000706</t>
+          <t>-38.49084652909699,174.63720393375198</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -33455,7 +33451,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-38.49506057232332,174.63633566380253</t>
+          <t>-38.4950590358673,174.63633027524537</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -33485,7 +33481,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>-38.49084768602596,174.63707795475491</t>
+          <t>-38.49084765865705,174.63708093514984</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -33600,7 +33596,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>-38.490844571799556,174.63741703196249</t>
+          <t>-38.49084466656738,174.6374067152127</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -33689,7 +33685,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-38.495073355627646,174.63638049660668</t>
+          <t>-38.495071481153836,174.63637392256473</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -33719,7 +33715,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>-38.49084613429951,174.63724692021393</t>
+          <t>-38.490846100609396,174.63725058839196</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -33812,7 +33808,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-38.495096248761016,174.636460786162</t>
+          <t>-38.49510036644615,174.63647522751003</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -33842,7 +33838,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>-38.49084552364834,174.6373134059397</t>
+          <t>-38.49084559945537,174.6373051525394</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -33931,7 +33927,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-38.49516111745474,174.63668829146405</t>
+          <t>-38.49515905862583,174.6366810707781</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -33961,7 +33957,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>-38.49084545310518,174.63732108618717</t>
+          <t>-38.49084541625407,174.63732509825672</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -34200,7 +34196,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-38.495075906140606,174.6363894416151</t>
+          <t>-38.495080761332,174.63640646946416</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -34295,7 +34291,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-38.49507962435702,174.63640248192968</t>
+          <t>-38.49507713530322,174.63639375246277</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -34317,7 +34313,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>-38.49084506352935,174.6373634994935</t>
+          <t>-38.490845018253324,174.63736842860743</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -34410,7 +34406,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-38.49510491433507,174.6364911776575</t>
+          <t>-38.49510820233448,174.6365027091842</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -34513,7 +34509,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-38.495087675366,174.6364307179872</t>
+          <t>-38.495087613907934,174.63643050244474</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -34543,7 +34539,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>-38.490841140592906,174.6377904982646</t>
+          <t>-38.49084113953956,174.63779061289512</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -34580,7 +34576,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-38.495049632750884,174.63629729728038</t>
+          <t>-38.495049141084394,174.63629557294257</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -34602,7 +34598,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>-38.49084513618114,174.6373555899851</t>
+          <t>-38.49084512670484,174.6373566216601</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -34691,7 +34687,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-38.49506060305245,174.63633577157367</t>
+          <t>-38.49506293846512,174.636343962181</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -34721,7 +34717,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>-38.49084237398442,174.63765626591027</t>
+          <t>-38.49084241716613,174.6376515660582</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -34818,7 +34814,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-38.4950675785596,174.63636023562597</t>
+          <t>-38.495071911360974,174.63637543136122</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -34848,7 +34844,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>-38.490843044859524,174.63758324625638</t>
+          <t>-38.49084312384497,174.6375746489657</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -34945,7 +34941,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-38.49506413690033,174.636348165256</t>
+          <t>-38.495064843669745,174.6363506439926</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -34963,7 +34959,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>-38.49084535518621,174.63733174682912</t>
+          <t>-38.49084536782097,174.63733037126244</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -35052,7 +35048,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-38.49509452793686,174.6364547509722</t>
+          <t>-38.495095695639,174.63645884627954</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -35082,7 +35078,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>-38.49084368830921,174.63751320699376</t>
+          <t>-38.49084370937069,174.6375109143828</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -35163,7 +35159,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-38.49504966348004,174.63629740505152</t>
+          <t>-38.49504794264725,174.63629136986927</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -35185,7 +35181,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>-38.49084840074877,174.63700012059303</t>
+          <t>-38.49084836917153,174.6370035595104</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -35274,7 +35270,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-38.49515933518496,174.63668204072096</t>
+          <t>-38.495157614372445,174.63667600552102</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -35304,7 +35300,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>-38.490846710172164,174.63718421729445</t>
+          <t>-38.49084667858953,174.63718765621147</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -35401,7 +35397,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-38.495080146750944,174.6364043140401</t>
+          <t>-38.495084233714145,174.63641864761072</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -35431,7 +35427,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>-38.49084365671692,174.63751664591015</t>
+          <t>-38.49084373043212,174.63750862177187</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -35512,7 +35508,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-38.495063399401744,174.6363455787483</t>
+          <t>-38.49506696397767,174.6363580802027</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -35615,7 +35611,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-38.49506247752846,174.6363423456137</t>
+          <t>-38.49506103326008,174.63633728036973</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -35710,7 +35706,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-38.49503973795799,174.6362625949863</t>
+          <t>-38.49504259577192,174.63627261769764</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -35821,7 +35817,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-38.495122644934874,174.6365533616968</t>
+          <t>-38.495125195434326,174.63656230671702</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -35928,7 +35924,7 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-38.495093513879596,174.63645119452127</t>
+          <t>-38.49509372898267,174.63645194891993</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -36046,7 +36042,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-38.49504640618915,174.63628598131393</t>
+          <t>-38.4950471129599,174.63628846004934</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -36076,7 +36072,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>-38.49084606060224,174.63725494435337</t>
+          <t>-38.49084607323609,174.6372535687866</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -36183,7 +36179,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>-38.49084779550086,174.6370660331751</t>
+          <t>-38.490847808132486,174.6370646576082</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -36280,7 +36276,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-38.49518889623608,174.63678571687745</t>
+          <t>-38.49519430448478,174.63680468466546</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -36298,7 +36294,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>-38.49084486136502,174.6373855085602</t>
+          <t>-38.490844959288886,174.63737484791855</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -36355,7 +36351,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-38.49510144196063,174.6364789995042</t>
+          <t>-38.495105006522,174.6364915009713</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -36377,7 +36373,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>-38.49084623115796,174.63723637420205</t>
+          <t>-38.490846295378795,174.6372293817376</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -36462,7 +36458,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-38.495047389522355,174.63628942998932</t>
+          <t>-38.495052336916046,174.63630678113876</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -36484,7 +36480,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>-38.49084829128059,174.63701204217327</t>
+          <t>-38.49084838074986,174.637002298574</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -36573,7 +36569,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-38.49512255274814,174.63655303838283</t>
+          <t>-38.49512596365691,174.63656500100032</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -36603,7 +36599,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>-38.49084633327942,174.63722525503727</t>
+          <t>-38.49084639539401,174.6372184918339</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -36692,7 +36688,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-38.49508641547574,174.63642629936712</t>
+          <t>-38.49508404933991,174.63641800098344</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -36821,7 +36817,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>-38.49084706704897,174.63714535753152</t>
+          <t>-38.490847053363666,174.63714684772893</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -36924,7 +36920,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>-38.49084614903891,174.63724531538605</t>
+          <t>-38.490846225893925,174.63723694735486</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -37019,7 +37015,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>-38.490844051613365,174.6374736594547</t>
+          <t>-38.49084414217406,174.63746380122745</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -37068,7 +37064,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-38.495048833792836,174.63629449523145</t>
+          <t>-38.49504923327187,174.63629589625592</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -37090,7 +37086,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>-38.490844197984316,174.6374577258083</t>
+          <t>-38.49084420535546,174.63745692339444</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -37161,7 +37157,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>-38.490844187454115,174.6374588721138</t>
+          <t>-38.490844240105055,174.63745314058627</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -37258,7 +37254,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-38.49508825921751,174.63643276564048</t>
+          <t>-38.49509213107407,174.63644634481554</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -37288,7 +37284,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>-38.49084294270409,174.63759436541895</t>
+          <t>-38.49084301326517,174.63758668517264</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -37361,7 +37357,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-38.49517817191549,174.6367481046241</t>
+          <t>-38.495180230740175,174.63675532531374</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -37477,7 +37473,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>-38.49084001660865,174.63791280903465</t>
+          <t>-38.49084001871559,174.63791257977363</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -37596,7 +37592,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>-38.49084886808004,174.6369492246149</t>
+          <t>-38.490848841766926,174.63695209037948</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -37665,7 +37661,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-38.49507197281914,174.63637564690356</t>
+          <t>-38.49507516864295,174.6363868551066</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -37695,7 +37691,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>-38.4908455583933,174.63730962313122</t>
+          <t>-38.4908456163013,174.63730331845045</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -37792,7 +37788,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-38.49510807941863,174.6365022780991</t>
+          <t>-38.495113118966906,174.63651995259056</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -37822,7 +37818,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>-38.49084410637111,174.63746769866611</t>
+          <t>-38.490844196931306,174.63745784043886</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -37915,7 +37911,7 @@
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-38.495131156839946,174.636583214357</t>
+          <t>-38.495128913631056,174.63657534704876</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -38085,7 +38081,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-38.49512064755532,174.63654635656093</t>
+          <t>-38.4951237819046,174.63655734923586</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -38378,7 +38374,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-38.495059097325544,174.63633049078769</t>
+          <t>-38.49506352231819,174.63634600983292</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -38408,7 +38404,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>-38.49084341239975,174.63754324019672</t>
+          <t>-38.490843492435346,174.6375345282753</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -38493,7 +38489,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-38.495100304988185,174.63647501196752</t>
+          <t>-38.495104269026655,174.63648891446078</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -38515,7 +38511,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>-38.49084494244184,174.63737668200744</t>
+          <t>-38.4908450140416,174.63736888712964</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -38600,7 +38596,7 @@
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-38.49506232388289,174.63634180675797</t>
+          <t>-38.49506594991743,174.63635452375433</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -38630,7 +38626,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>-38.49084540677804,174.63732612993175</t>
+          <t>-38.49084547311,174.63731890820654</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -38730,7 +38726,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-38.495039768687185,174.6362627027574</t>
+          <t>-38.49504059837519,174.63626561257672</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -38756,7 +38752,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>-38.490847252325075,174.63712518255102</t>
+          <t>-38.49084726811547,174.63712346309245</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -38849,7 +38845,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-38.49501189727315,174.63616495441929</t>
+          <t>-38.49501079101906,174.63616107466316</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -38871,7 +38867,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>-38.4908476576044,174.6370810497804</t>
+          <t>-38.49084763865664,174.63708311313076</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -38991,7 +38987,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-38.495056300974944,174.63632068361417</t>
+          <t>-38.49505642389146,174.63632111469872</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -39013,7 +39009,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>-38.490846585946535,174.6371977437014</t>
+          <t>-38.490846588052065,174.63719751444026</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -39098,7 +39094,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-38.495026493669066,174.63621614565673</t>
+          <t>-38.495024127518036,174.63620784728639</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -39120,7 +39116,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>-38.490847335487636,174.63711612673583</t>
+          <t>-38.4908472923274,174.6371208265893</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -39209,7 +39205,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-38.495052920769794,174.6363088287901</t>
+          <t>-38.495052244728605,174.6363064578254</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -39239,7 +39235,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>-38.49084768497332,174.63707806938547</t>
+          <t>-38.490847673394164,174.6370793303218</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -39324,7 +39320,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-38.495132816199586,174.63658903400994</t>
+          <t>-38.495130357888904,174.63658041230195</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -39346,7 +39342,7 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>-38.49084775655319,174.63707027450639</t>
+          <t>-38.49084771234214,174.63707508899054</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -39435,7 +39431,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-38.49515008581394,174.63664960152457</t>
+          <t>-38.49515014727159,174.6366498170674</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -39465,7 +39461,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>-38.49084578897039,174.63728451903845</t>
+          <t>-38.49084579002324,174.63728440440792</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -39546,7 +39542,7 @@
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-38.49508349621716,174.6364160611016</t>
+          <t>-38.495083373300986,174.63641563001678</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -39576,7 +39572,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>-38.4908467701789,174.63717768335206</t>
+          <t>-38.49084676807341,174.6371779126132</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -39756,7 +39752,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-38.495125902199106,174.63656478545764</t>
+          <t>-38.49512955893777,174.63657761024697</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
@@ -39857,7 +39853,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>-38.49084661752947,174.6371943047844</t>
+          <t>-38.49084660173801,174.63719602424288</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -39948,7 +39944,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>-38.49084936275348,174.63689534824013</t>
+          <t>-38.49084930802487,174.6369013090306</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -40029,7 +40025,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-38.495179001591175,174.6367510144542</t>
+          <t>-38.495178663575146,174.63674982896785</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -40136,7 +40132,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-38.495057591598396,174.63632521000184</t>
+          <t>-38.495059312429404,174.63633124518566</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -40166,7 +40162,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>-38.490845518383935,174.6373139790925</t>
+          <t>-38.490845549970295,174.63731054017572</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -40263,7 +40259,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-38.49510300913864,174.63648449583872</t>
+          <t>-38.49510555964346,174.63649344085425</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
@@ -40413,7 +40409,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-38.495037955665005,174.6362563442635</t>
+          <t>-38.49503930774937,174.63626108619113</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -40443,7 +40439,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>-38.49084544994651,174.63732143007886</t>
+          <t>-38.490845475215785,174.63731867894543</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -40540,7 +40536,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-38.4950435176472,174.6362758508305</t>
+          <t>-38.49504330254297,174.63627509643283</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -40570,7 +40566,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>-38.49084464234902,174.63740935171543</t>
+          <t>-38.490844638137126,174.63740981023764</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -40655,7 +40651,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-38.495035804621246,174.63624880028812</t>
+          <t>-38.495037310351925,174.63625408107083</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -40685,7 +40681,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>-38.4908442906497,174.63744763831986</t>
+          <t>-38.49084431802794,174.63744465792553</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -40778,7 +40774,7 @@
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-38.49504388639729,174.63627714408364</t>
+          <t>-38.49504692858493,174.6362878134227</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -40808,7 +40804,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>-38.49084465919657,174.63740751762657</t>
+          <t>-38.490844713950935,174.63740155683777</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -40897,7 +40893,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-38.49510279403579,174.63648374143986</t>
+          <t>-38.49510740338145,174.63649990713088</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -40919,7 +40915,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>-38.49084337448792,174.6375473668963</t>
+          <t>-38.49084345873623,174.63753819645274</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -41008,7 +41004,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-38.495089334733386,174.6364365376334</t>
+          <t>-38.49508653839187,174.63642673045197</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -41034,7 +41030,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>-38.490845640517264,174.63730068194755</t>
+          <t>-38.490845588926646,174.63730629884498</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -41103,7 +41099,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-38.495065581168205,174.6363532305004</t>
+          <t>-38.495070006157775,174.63636874954832</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -41214,7 +41210,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-38.49511570019791,174.6365290053798</t>
+          <t>-38.495115761655775,174.63652922092243</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -41244,7 +41240,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>-38.49084634486014,174.63722399410102</t>
+          <t>-38.49084634591293,174.63722387947047</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -41355,7 +41351,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>-38.490847949184705,174.637049297111</t>
+          <t>-38.49084794602684,174.63704964100273</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -41432,7 +41428,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-38.495069944699615,174.63636853400598</t>
+          <t>-38.49506696397767,174.6363580802027</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -41454,7 +41450,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>-38.490844865576825,174.63738505003795</t>
+          <t>-38.49084481187626,174.63739089619625</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -41531,7 +41527,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-38.495082789449164,174.6364135823638</t>
+          <t>-38.495086999327334,174.63642834702028</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -41561,7 +41557,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>-38.490845075111544,174.6373622385574</t>
+          <t>-38.49084515197495,174.63735387052674</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -41658,7 +41654,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-38.49504849577211,174.63629330974922</t>
+          <t>-38.49504674420994,174.63628716679608</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
@@ -41680,7 +41676,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>-38.49084282053744,174.63760766256172</t>
+          <t>-38.49084278788919,174.63761121610847</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -41808,7 +41804,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-38.49506856189058,174.63636368430335</t>
+          <t>-38.49506979105417,174.63636799515012</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -41911,7 +41907,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-38.49507427749988,174.6363837297422</t>
+          <t>-38.49507301760781,174.63637931112368</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -42026,7 +42022,7 @@
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-38.4950727717752,174.63637844895422</t>
+          <t>-38.49507645926379,174.6363913814965</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -42133,7 +42129,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-38.49510045863311,174.6364755508238</t>
+          <t>-38.495097600836935,174.63646552809698</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -42159,7 +42155,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>-38.49084102577751,174.6378029929922</t>
+          <t>-38.49084097310945,174.63780872451858</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -42307,7 +42303,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-38.49508011602188,174.6364042062689</t>
+          <t>-38.49507910196306,174.6364006498193</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -42337,7 +42333,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>-38.490843317619905,174.63755355694573</t>
+          <t>-38.49084329866383,174.63755562029553</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -42456,7 +42452,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>-38.490845074058626,174.63736235318794</t>
+          <t>-38.490845119334395,174.637357424074</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -42545,7 +42541,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-38.4950616478424,174.63633943579268</t>
+          <t>-38.49506115617655,174.63633771145433</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -42575,7 +42571,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>-38.49084655331072,174.63720129724896</t>
+          <t>-38.49084654488857,174.6372022142935</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -42682,7 +42678,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>-38.49084687650573,174.63716610566465</t>
+          <t>-38.49084681755238,174.6371725249765</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -42735,7 +42731,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-38.49509677115401,174.6364626182732</t>
+          <t>-38.49509637167703,174.636461217247</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -42765,7 +42761,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>-38.49084742707092,174.63710615387603</t>
+          <t>-38.49084741970218,174.63710695629007</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -42842,7 +42838,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-38.495094927413916,174.63645615199837</t>
+          <t>-38.4950983383328,174.63646811460708</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -42872,7 +42868,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>-38.49084587319811,174.63727534859353</t>
+          <t>-38.49084593531559,174.63726858539036</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -42957,7 +42953,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-38.49513041934667,174.63658062784467</t>
+          <t>-38.4951275615597,174.6365706051098</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -42987,7 +42983,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>-38.49084886492247,174.63694956850668</t>
+          <t>-38.490848812296164,174.6369553000358</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -43084,7 +43080,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-38.495140836433734,174.63661716233622</t>
+          <t>-38.49513859322717,174.63660929502598</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -43106,7 +43102,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>-38.490847652341145,174.63708162293327</t>
+          <t>-38.4908476112876,174.63708609352568</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -43199,7 +43195,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-38.49511812778354,174.6365375193131</t>
+          <t>-38.49511772830747,174.63653611828607</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -43229,7 +43225,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>-38.49084842390534,174.63699759872026</t>
+          <t>-38.49084841653734,174.63699840113432</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -43326,7 +43322,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-38.49511072210892,174.63651154642966</t>
+          <t>-38.49511305750902,174.63651973704796</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -43356,7 +43352,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>-38.490847061785395,174.63714593068437</t>
+          <t>-38.490847103893934,174.63714134546157</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -43441,7 +43437,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-38.49503396086908,174.63624233402385</t>
+          <t>-38.49503755618549,174.63625494323946</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -43532,7 +43528,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-38.49509203888703,174.63644602150183</t>
+          <t>-38.49509047170717,174.63644052516892</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -43558,7 +43554,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>-38.49084899648702,174.63693523968374</t>
+          <t>-38.490848968069216,174.6369383347095</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -43643,7 +43639,7 @@
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-38.49508441808839,174.636419294238</t>
+          <t>-38.49508838213361,174.63643319672536</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -43665,7 +43661,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>-38.49084471184501,174.6374017860989</t>
+          <t>-38.490844783446434,174.63739399122122</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -43726,7 +43722,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-38.49507765769729,174.63639558457305</t>
+          <t>-38.495076828012586,174.63639267475085</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -43752,7 +43748,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>-38.49084830075384,174.63701101049804</t>
+          <t>-38.490848286017666,174.63701261532617</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -43849,7 +43845,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-38.49510067373602,174.63647630522263</t>
+          <t>-38.49510423829768,174.6364888066895</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -43879,7 +43875,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>-38.49084689545494,174.6371640423144</t>
+          <t>-38.49084695967147,174.63715704984966</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -43972,7 +43968,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-38.495127623017495,174.63657082065248</t>
+          <t>-38.495128421968765,174.63657362270732</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -44002,7 +43998,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>-38.490848087077076,174.63703428050542</t>
+          <t>-38.490848101813555,174.63703267567735</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -44099,7 +44095,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-38.495124765229654,174.63656079791838</t>
+          <t>-38.49512445794058,174.6365597202051</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -44129,7 +44125,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>-38.490846618582225,174.63719419015382</t>
+          <t>-38.49084661331841,174.63719476330664</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -44226,7 +44222,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-38.495070835843094,174.63637165937004</t>
+          <t>-38.49507446187432,174.63638437636928</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -44248,7 +44244,7 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>-38.49084615325015,174.6372448568638</t>
+          <t>-38.49084621957711,174.63723763513823</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -44337,7 +44333,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-38.495104975793026,174.63649139320003</t>
+          <t>-38.49510362371818,174.63648665126408</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -44363,7 +44359,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>-38.49084783444835,174.6370617918438</t>
+          <t>-38.49084780918512,174.6370645429776</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -44460,7 +44456,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-38.49509870708072,174.63646940786214</t>
+          <t>-38.49510310132556,174.6364848191525</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -44490,7 +44486,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>-38.49084422009773,174.63745531856674</t>
+          <t>-38.49084430012678,174.6374466066449</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -44571,7 +44567,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-38.49507900977591,174.6364003265057</t>
+          <t>-38.495081498829194,174.63640905597308</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -44601,7 +44597,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>-38.490845124599005,174.63735685092124</t>
+          <t>-38.49084516987454,174.63735192180727</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -44670,7 +44666,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-38.49510927784804,174.63650648117914</t>
+          <t>-38.49510887837158,174.63650508015243</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -44700,7 +44696,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>-38.490846421713634,174.63721562606975</t>
+          <t>-38.490846414344155,174.6372164284837</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -44848,7 +44844,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-38.495144646810736,174.6366305259876</t>
+          <t>-38.49514793479611,174.63664205752656</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -44931,7 +44927,7 @@
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-38.49498700652419,174.63607765993413</t>
+          <t>-38.49498516276237,174.63607119367828</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -45034,7 +45030,7 @@
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-38.495076274889406,174.63639073486937</t>
+          <t>-38.49508008529282,174.6364040984977</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
@@ -45125,7 +45121,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-38.49505279785322,174.6363083977056</t>
+          <t>-38.495050554625465,174.63630053041385</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
@@ -45151,7 +45147,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>-38.49084596163645,174.6372657196263</t>
+          <t>-38.49084592057589,174.63727019021823</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -45248,7 +45244,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-38.49514510774334,174.63663214255843</t>
+          <t>-38.495144493166535,174.63662998713068</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -45278,7 +45274,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>-38.49084322599853,174.637563529803</t>
+          <t>-38.490843215467294,174.63756467610847</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -45359,7 +45355,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-38.49507821082037,174.63639752445457</t>
+          <t>-38.495080761332,174.63640646946416</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -45389,7 +45385,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>-38.49084273417734,174.63761706226603</t>
+          <t>-38.490842780516985,174.63761201852225</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -45486,7 +45482,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-38.49508269726202,174.63641325905016</t>
+          <t>-38.49508318892673,174.63641498338953</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -45516,7 +45512,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>-38.49084362723069,174.63751985556544</t>
+          <t>-38.49084363670841,174.6375188238905</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -45609,7 +45605,7 @@
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-38.49507464624874,174.63638502299642</t>
+          <t>-38.49507885613061,174.63639978764974</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -45639,7 +45635,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>-38.49084470026238,174.637403047035</t>
+          <t>-38.49084477712868,174.63739467900453</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -45728,7 +45724,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-38.495117298102436,174.6365346094877</t>
+          <t>-38.49511699081314,174.63653353177466</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -45758,7 +45754,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>-38.4908456784204,174.63729655524736</t>
+          <t>-38.49084567315608,174.63729712840018</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -45855,7 +45851,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-38.49510165706351,174.63647975390302</t>
+          <t>-38.49510144196063,174.6364789995042</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -45881,7 +45877,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>-38.490848068130155,174.6370363438558</t>
+          <t>-38.49084806391972,174.63703680237813</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -45978,7 +45974,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-38.495205059515406,174.63684240470658</t>
+          <t>-38.49520487514356,174.63684175807722</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
@@ -46029,7 +46025,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-38.495085831624095,174.63642425171395</t>
+          <t>-38.49508850504972,174.63643362781028</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -46059,7 +46055,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>-38.490845633147195,174.63730148436147</t>
+          <t>-38.49084568263185,174.63729609672512</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -46148,7 +46144,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-38.49506029576126,174.63633469386224</t>
+          <t>-38.495064290545876,174.63634870411178</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -46174,7 +46170,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>-38.49084386943644,174.6374934905396</t>
+          <t>-38.49084394209701,174.63748558103177</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -46263,7 +46259,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-38.495147504592474,174.63664054872703</t>
+          <t>-38.495144493166535,174.63662998713068</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -46346,7 +46342,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-38.49509369825365,174.6364518411487</t>
+          <t>-38.495098061771856,174.63646714466577</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -46457,7 +46453,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-38.495178233372954,174.63674832016707</t>
+          <t>-38.495178356287866,174.636748751253</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -46544,7 +46540,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-38.49506951449237,174.6363670252096</t>
+          <t>-38.49506939157603,174.6363665941249</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -46574,7 +46570,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>-38.49084338080657,174.63754667911306</t>
+          <t>-38.490843378700355,174.63754690837413</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -46635,7 +46631,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-38.49507968581513,174.6364026974721</t>
+          <t>-38.4950833118429,174.63641541447436</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -46665,7 +46661,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>-38.49084072345901,174.63783589195342</t>
+          <t>-38.49084078982241,174.63782867023028</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -46746,7 +46742,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-38.495082943094374,174.63641412121984</t>
+          <t>-38.49508263580393,174.63641304350773</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -46776,7 +46772,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>-38.49084072661918,174.63783554806184</t>
+          <t>-38.490840721352235,174.6378361212145</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -46861,7 +46857,7 @@
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-38.495188834778695,174.6367855013344</t>
+          <t>-38.49518855822044,174.6367845313908</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -46924,7 +46920,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-38.495047297334864,174.636289106676</t>
+          <t>-38.495050093688185,174.63629891384713</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -46954,7 +46950,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>-38.49084362512452,174.63752008482652</t>
+          <t>-38.49084367672538,174.63751446792978</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -47051,7 +47047,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-38.495029044194865,174.63622509065397</t>
+          <t>-38.495033038992865,174.63623910089183</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -47081,7 +47077,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>-38.490843762024184,174.63750518285548</t>
+          <t>-38.49084383468554,174.6374972733477</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -47178,7 +47174,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-38.49509969040842,174.63647285654233</t>
+          <t>-38.495096955528,174.63646326490073</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -47285,7 +47281,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-38.495096955528,174.63646326490073</t>
+          <t>-38.49509584928402,174.63645938513577</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -47315,7 +47311,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>-38.490846525938665,174.6372042776437</t>
+          <t>-38.49084650698874,174.63720634099388</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -47400,7 +47396,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-38.495072925420565,174.63637898781013</t>
+          <t>-38.4950758139534,174.63638911830154</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -47430,7 +47426,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>-38.49084460022999,174.63741393693758</t>
+          <t>-38.49084465287874,174.63740820540988</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -47527,7 +47523,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-38.49506803949602,174.6363618521935</t>
+          <t>-38.49506625720843,174.63635560146597</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -47557,7 +47553,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>-38.49084551417242,174.63731443761472</t>
+          <t>-38.49084548153308,174.63731799116206</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -47654,7 +47650,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-38.495117052271,174.63653374731726</t>
+          <t>-38.495114378853565,174.6365243712138</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -47684,7 +47680,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>-38.490845404672264,174.63732635919288</t>
+          <t>-38.490845356239106,174.63733163219857</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -47781,7 +47777,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-38.49504422441819,174.6362783295657</t>
+          <t>-38.495043702022244,174.63627649745706</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -47811,7 +47807,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>-38.49084635749362,174.63722261853425</t>
+          <t>-38.49084634801851,174.63722365020934</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -47943,7 +47939,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-38.495088136301405,174.63643233455556</t>
+          <t>-38.495090901913436,174.63644203396615</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -48054,7 +48050,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-38.49508033112526,174.6364049606673</t>
+          <t>-38.495083957152794,174.6364176776698</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -48232,7 +48228,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-38.49511493197447,174.6365263110972</t>
+          <t>-38.495116714252745,174.63653256183287</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -48262,7 +48258,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>-38.490842313950985,174.63766279985086</t>
+          <t>-38.49084234660079,174.63765924630422</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -48458,7 +48454,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-38.49506103326008,174.63633728036973</t>
+          <t>-38.495065120231686,174.63635161393304</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -48569,7 +48565,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-38.49506247752846,174.6363423456137</t>
+          <t>-38.49506075669803,174.6363363104294</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -48599,7 +48595,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>-38.49084561419555,174.63730354771155</t>
+          <t>-38.49084558260941,174.63730698662835</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -48696,7 +48692,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-38.495095511264985,174.63645819965205</t>
+          <t>-38.49509563418099,174.63645863073702</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -48726,7 +48722,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>-38.49084433066402,174.6374432823589</t>
+          <t>-38.49084433277003,174.6374430530978</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -48823,7 +48819,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-38.4950696988669,174.6363676718366</t>
+          <t>-38.49507347854396,174.6363809276914</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -48853,7 +48849,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>-38.49084333025727,174.6375521813792</t>
+          <t>-38.49084339870938,174.6375447303938</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -48968,7 +48964,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>-38.49084405687855,174.63747308630198</t>
+          <t>-38.49084404634818,174.63747423260745</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -49053,7 +49049,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-38.495110353361476,174.6365102531742</t>
+          <t>-38.495113026780075,174.63651962927668</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -49083,7 +49079,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>-38.49084363460225,174.6375190531516</t>
+          <t>-38.490843683043835,174.63751378014646</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -49164,7 +49160,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-38.49513180214652,174.63658547755534</t>
+          <t>-38.4951312490266,174.63658353767104</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -49194,7 +49190,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>-38.490847043889225,174.63714787940407</t>
+          <t>-38.49084703441475,174.6371489110792</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -49275,7 +49271,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-38.49515337379738,174.63666113306522</t>
+          <t>-38.4951536810855,174.63666221077935</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -49305,7 +49301,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>-38.49084671438317,174.63718375877215</t>
+          <t>-38.49084671964693,174.6371831856193</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -49400,7 +49396,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>-38.49084596058363,174.63726583425688</t>
+          <t>-38.490846005855325,174.63726090514265</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -49489,7 +49485,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-38.495156016474816,174.63667040140706</t>
+          <t>-38.495154080560035,174.63666361180773</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -49519,7 +49515,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>-38.490846029017526,174.63725838327028</t>
+          <t>-38.49084599427422,174.63726216607887</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -49580,7 +49576,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-38.49512332097095,174.63655573266595</t>
+          <t>-38.49512083192882,174.63654700318884</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -49610,7 +49606,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>-38.49084601743644,174.63725964420647</t>
+          <t>-38.49084597216478,174.63726457332066</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -49707,7 +49703,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-38.49510697317596,174.63649839833298</t>
+          <t>-38.495111613248504,174.63651467179713</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -49845,7 +49841,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-38.49510423829768,174.6364888066895</t>
+          <t>-38.49510703463389,174.63649861387555</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -50015,7 +50011,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-38.49507323271135,174.63638006552196</t>
+          <t>-38.49507658218005,174.6363918125813</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -50126,7 +50122,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-38.49507430822895,174.6363838375134</t>
+          <t>-38.49507658218005,174.6363918125813</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -50156,7 +50152,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>-38.49084336606305,174.63754828394067</t>
+          <t>-38.490843408187324,174.6375436987189</t>
         </is>
       </c>
       <c r="J204" t="inlineStr"/>
@@ -50243,11 +50239,7 @@
           <t>-38.49566100068014,174.63581728858327</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>-38.49495151404486,174.635953184565</t>
-        </is>
-      </c>
+      <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
@@ -50267,7 +50259,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>-38.490841535589844,174.63774751181575</t>
+          <t>-38.49084153664315,174.63774739718522</t>
         </is>
       </c>
       <c r="J205" t="inlineStr"/>
@@ -50324,7 +50316,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-38.49517307094492,174.63673021455895</t>
+          <t>-38.495170305357306,174.63672051512708</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -50395,7 +50387,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-38.49512494960309,174.63656144454637</t>
+          <t>-38.49512528762104,174.63656263003102</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
@@ -50417,7 +50409,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>-38.490844768705,174.63739559604898</t>
+          <t>-38.49084477502276,174.63739490826566</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -50502,7 +50494,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-38.49506472075334,174.63635021290798</t>
+          <t>-38.49506524314809,174.63635204501765</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -50532,7 +50524,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>-38.490844907694715,174.63738046481575</t>
+          <t>-38.49084491717121,174.63737943314075</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -50668,7 +50660,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-38.495075598849915,174.63638836390322</t>
+          <t>-38.495079224879284,174.6364010809041</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -50698,7 +50690,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>-38.490843259698444,174.63755986162565</t>
+          <t>-38.49084332604482,174.63755263990137</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -50795,7 +50787,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-38.49510995388508,174.63650885214744</t>
+          <t>-38.49510669661527,174.63649742839146</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
@@ -50813,7 +50805,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>-38.49084800497346,174.63704322169045</t>
+          <t>-38.49084794602684,174.63704964100273</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -50894,7 +50886,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-38.495014509261466,174.63617411495505</t>
+          <t>-38.49501964104816,174.6361921127154</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -50977,7 +50969,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-38.495073048336884,174.63637941889488</t>
+          <t>-38.49507790352976,174.63639644674262</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -51007,7 +50999,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>-38.490847354435964,174.63711406338555</t>
+          <t>-38.49084744286107,174.63710443441744</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -51104,7 +51096,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-38.495123198055296,174.63655530158064</t>
+          <t>-38.49512617875923,174.63656575539966</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -51187,7 +51179,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-38.495173808434814,174.63673280107426</t>
+          <t>-38.495174084993494,174.6367337710175</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -51217,7 +51209,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>-38.49084620694344,174.637239010705</t>
+          <t>-38.490846212207465,174.63723843755218</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -51294,7 +51286,7 @@
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-38.49514390931853,174.63662793947432</t>
+          <t>-38.4951455686759,174.63663375912927</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -51385,7 +51377,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-38.49512479595855,174.6365609056897</t>
+          <t>-38.49512522616323,174.63656241448837</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -51415,7 +51407,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>-38.49084767444681,174.63707921569122</t>
+          <t>-38.490847682868015,174.63707829864663</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -51512,7 +51504,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-38.4951508847633,174.6366524035811</t>
+          <t>-38.495151683712585,174.63665520563768</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -51595,7 +51587,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-38.495091915970974,174.63644559041686</t>
+          <t>-38.49509615657402,174.63646046284825</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -51686,7 +51678,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-38.49513296984399,174.63658957286674</t>
+          <t>-38.49513161777321,174.63658483092723</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -51716,7 +51708,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>-38.490848914390945,174.63694418086928</t>
+          <t>-38.490848890183,174.63694681737266</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -51943,7 +51935,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-38.495132047977584,174.63658633972616</t>
+          <t>-38.495135950544785,174.63660002668846</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -52186,7 +52178,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>-38.490843668300776,174.63751538497414</t>
+          <t>-38.490843689362286,174.6375130923632</t>
         </is>
       </c>
       <c r="J226" t="inlineStr"/>
@@ -52273,7 +52265,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>-38.49084361459369,174.637521231132</t>
+          <t>-38.49084361143446,174.6375215750236</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -52388,7 +52380,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>-38.49084333552284,174.63755160822646</t>
+          <t>-38.49084342187768,174.63754220852184</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -52473,7 +52465,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-38.49504960202172,174.63629718950926</t>
+          <t>-38.49504702077241,174.63628813673603</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -52552,7 +52544,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-38.495068254599666,174.63636260659163</t>
+          <t>-38.495065673355526,174.63635355381388</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -52582,7 +52574,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>-38.49084625958362,174.6372332791768</t>
+          <t>-38.490846212207465,174.63723843755218</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -52675,7 +52667,7 @@
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-38.49508223632634,174.63641164248202</t>
+          <t>-38.49508447954647,174.63641950978044</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -52705,7 +52697,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>-38.49084294165093,174.6375944800495</t>
+          <t>-38.49084298272386,174.63759000945836</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -52808,7 +52800,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>-38.49084745444046,174.63710317348114</t>
+          <t>-38.490847428123594,174.63710603924545</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -52893,7 +52885,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-38.49518207446338,174.63676179160328</t>
+          <t>-38.495178909404984,174.63675069113975</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -52911,7 +52903,7 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>-38.490846968093265,174.6371561328051</t>
+          <t>-38.490846910193206,174.6371624374864</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -52996,7 +52988,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-38.49506720981045,174.636358942372</t>
+          <t>-38.495071634799245,174.63637446142062</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -53026,7 +53018,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>-38.490847063890826,174.63714570142324</t>
+          <t>-38.49084714494957,174.6371368748693</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -53123,7 +53115,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-38.495173286046146,174.63673096895923</t>
+          <t>-38.49517193398121,174.63672622701463</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -53149,7 +53141,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>-38.49084788286937,174.6370565188373</t>
+          <t>-38.49084785760626,174.63705926997113</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -53256,7 +53248,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>-38.49084612798263,174.6372476079973</t>
+          <t>-38.49084617114795,174.6372429081442</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -53353,7 +53345,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-38.495056454620595,174.63632122246986</t>
+          <t>-38.49505713066147,174.6363235934348</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -53383,7 +53375,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>-38.49084680281399,174.63717412980444</t>
+          <t>-38.49084681439415,174.6371728688682</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -53490,7 +53482,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>-38.49084648172213,174.63720909212748</t>
+          <t>-38.490846437505375,174.63721390661127</t>
         </is>
       </c>
       <c r="J238" t="inlineStr"/>
@@ -53543,7 +53535,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-38.495178694303895,174.63674993673936</t>
+          <t>-38.49517697349495,174.63674390153628</t>
         </is>
       </c>
       <c r="D239" t="inlineStr"/>
@@ -53773,7 +53765,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>-38.49084665332334,174.6371904073451</t>
+          <t>-38.490846677536766,174.63718777084202</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -53846,7 +53838,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-38.495071020217594,174.63637230599707</t>
+          <t>-38.495071327508434,174.63637338370884</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -53921,7 +53913,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-38.49511419447992,174.636523724586</t>
+          <t>-38.49511099866949,174.6365125163713</t>
         </is>
       </c>
       <c r="D245" t="inlineStr"/>
@@ -53931,7 +53923,7 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>-38.49085066562575,174.63675343556852</t>
+          <t>-38.49085060774734,174.63675974025125</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -54004,7 +53996,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-38.495072464484416,174.63637737124245</t>
+          <t>-38.49507584468246,174.63638922607274</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -54034,7 +54026,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>-38.49084701230764,174.63715131832117</t>
+          <t>-38.49084707336526,174.6371446697481</t>
         </is>
       </c>
       <c r="J246" t="inlineStr"/>
@@ -54107,7 +54099,7 @@
       <c r="B247" t="inlineStr"/>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-38.495188189476075,174.63678323813264</t>
+          <t>-38.49518975663949,174.6367887344799</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -54133,7 +54125,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>-38.490847742868844,174.63707176470388</t>
+          <t>-38.49084777129016,174.6370686696783</t>
         </is>
       </c>
       <c r="J247" t="inlineStr"/>
@@ -54198,7 +54190,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-38.49510159560555,174.6364795383605</t>
+          <t>-38.4951019950823,174.63648093938693</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -54224,7 +54216,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>-38.49084882282145,174.63695415372996</t>
+          <t>-38.49084883018914,174.6369533513159</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -54331,7 +54323,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>-38.49084700388588,174.63715223536573</t>
+          <t>-38.49084706494354,174.63714558679266</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -54400,7 +54392,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-38.49507169625742,174.63637467696296</t>
+          <t>-38.49507519937203,174.63638696287776</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -54430,7 +54422,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>-38.490847800764044,174.63706546002223</t>
+          <t>-38.49084786392205,174.63705858218768</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -54527,7 +54519,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-38.495191969105036,174.63679649402937</t>
+          <t>-38.49519544144573,174.63680867221217</t>
         </is>
       </c>
       <c r="D251" t="inlineStr"/>
@@ -54537,7 +54529,7 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>-38.490846097450955,174.63725093228368</t>
+          <t>-38.49084615956703,174.6372441690804</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -54602,7 +54594,7 @@
       <c r="B252" t="inlineStr"/>
       <c r="C252" t="inlineStr">
         <is>
-          <t>-38.495314637205404,174.6372267186579</t>
+          <t>-38.495311779474946,174.63721669587372</t>
         </is>
       </c>
       <c r="D252" t="inlineStr"/>
@@ -54620,7 +54612,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>-38.490848678624076,174.63696985811973</t>
+          <t>-38.490848627049324,174.6369754750182</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -54701,7 +54693,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>-38.495083066010565,174.63641455230467</t>
+          <t>-38.49508066914483,174.63640614615053</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -54731,7 +54723,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>-38.4908479165534,174.63705285065888</t>
+          <t>-38.490847873395694,174.63705755051248</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -54828,7 +54820,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>-38.49517119649118,174.6367236404995</t>
+          <t>-38.495175191228206,174.63673765079054</t>
         </is>
       </c>
       <c r="D254" t="inlineStr"/>
@@ -54913,7 +54905,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>-38.49084726706279,174.63712357772303</t>
+          <t>-38.490847331276896,174.63711658525813</t>
         </is>
       </c>
       <c r="J255" t="inlineStr"/>
@@ -55045,7 +55037,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>-38.49511370281684,174.63652200024524</t>
+          <t>-38.495113118966906,174.63651995259056</t>
         </is>
       </c>
       <c r="D257" t="inlineStr"/>
@@ -55063,7 +55055,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>-38.49084783655361,174.63706156258266</t>
+          <t>-38.490847826027284,174.6370627088884</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -55160,7 +55152,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>-38.4952230357532,174.63690545108525</t>
+          <t>-38.49522398833917,174.6369087920053</t>
         </is>
       </c>
       <c r="D258" t="inlineStr"/>
@@ -55235,7 +55227,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>-38.49509886072568,174.6364699467184</t>
+          <t>-38.49510174925045,174.63648007721682</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -55265,7 +55257,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>-38.490845658415985,174.63729873322802</t>
+          <t>-38.490845711059094,174.6372930017</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -55362,7 +55354,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>-38.49513622710461,174.63660099663073</t>
+          <t>-38.49513450628782,174.63659496143453</t>
         </is>
       </c>
       <c r="D260" t="inlineStr"/>
@@ -55413,7 +55405,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>-38.49513383025258,174.63659259046466</t>
+          <t>-38.49513330786165,174.63659075835162</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -55443,7 +55435,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>-38.490846985989585,174.6371541840854</t>
+          <t>-38.49084697651508,174.63715521576054</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -55540,7 +55532,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>-38.4950991372866,174.6364709166597</t>
+          <t>-38.49509634094803,174.63646110947573</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -55670,7 +55662,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>-38.49510635859663,174.6364962429074</t>
+          <t>-38.4951087247268,174.63650454129603</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -55771,7 +55763,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>-38.49084613640514,174.63724669095282</t>
+          <t>-38.49084610166221,174.6372504737614</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -55903,7 +55895,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>-38.49507900977591,174.6364003265057</t>
+          <t>-38.495082021223,174.6364108880836</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -56006,7 +55998,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>-38.49522466436789,174.63691116298088</t>
+          <t>-38.49522865908198,174.63692517329196</t>
         </is>
       </c>
       <c r="D268" t="inlineStr"/>
@@ -56077,7 +56069,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>-38.49521274167255,174.63686934759974</t>
+          <t>-38.49521437028905,174.6368750594938</t>
         </is>
       </c>
       <c r="D269" t="inlineStr"/>
@@ -56156,7 +56148,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>-38.4951208011999,174.63654689541752</t>
+          <t>-38.49511815851246,174.6365376270844</t>
         </is>
       </c>
       <c r="D270" t="inlineStr"/>
@@ -56182,7 +56174,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>-38.490845727904826,174.637291167611</t>
+          <t>-38.49084568052612,174.63729632598626</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -56275,7 +56267,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>-38.49503755618549,174.63625494323946</t>
+          <t>-38.49503761764386,174.63625515878164</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -56305,7 +56297,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>-38.49084546047538,174.63732028377325</t>
+          <t>-38.49084546152826,174.6373201691427</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -56461,7 +56453,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>-38.495134352643454,174.63659442257776</t>
+          <t>-38.49513702605515,174.63660379868622</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -56483,7 +56475,7 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>-38.49084433908806,174.6374423653145</t>
+          <t>-38.49084438752622,174.63743709230914</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -56548,7 +56540,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>-38.49517199543872,174.63672644255757</t>
+          <t>-38.49517580580299,174.63673980622008</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -56643,7 +56635,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>-38.49507965508608,174.63640258970088</t>
+          <t>-38.495082850907245,174.63641379790621</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -56673,7 +56665,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>-38.490843432408724,174.63754106221637</t>
+          <t>-38.49084349138225,174.63753464290585</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -56770,7 +56762,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>-38.495037894206604,174.63625612872136</t>
+          <t>-38.49504259577192,174.63627261769764</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -56800,7 +56792,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>-38.49084393683176,174.63748615418453</t>
+          <t>-38.49084402212831,174.63747686911006</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -56897,7 +56889,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>-38.49514329474165,174.63662578404663</t>
+          <t>-38.49514258797819,174.63662330530482</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -56990,7 +56982,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>-38.49084784918521,174.63706018701572</t>
+          <t>-38.490847840764154,174.63706110406036</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -57118,7 +57110,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>-38.49505839055569,174.63632801205145</t>
+          <t>-38.49506207804999,174.63634094458877</t>
         </is>
       </c>
       <c r="D280" t="inlineStr"/>
@@ -57144,7 +57136,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>-38.490847029151155,174.63714948423205</t>
+          <t>-38.49084709652494,174.63714214787555</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -57241,7 +57233,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>-38.495063061381565,174.6363443932656</t>
+          <t>-38.49506702543588,174.63635829574503</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -57271,7 +57263,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>-38.49084679755027,174.63717470295728</t>
+          <t>-38.49084686913658,174.6371669080786</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -57427,7 +57419,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>-38.49507639780567,174.63639116595414</t>
+          <t>-38.49507443114525,174.6363842685981</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -57457,7 +57449,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>-38.490847575497206,174.6370899909652</t>
+          <t>-38.490847539706664,174.6370938884047</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -57546,7 +57538,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>-38.49507347854396,174.6363809276914</t>
+          <t>-38.495078671756254,174.63639914102254</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -57576,7 +57568,7 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>-38.49084412427261,174.63746574994678</t>
+          <t>-38.49084421904471,174.6374554331973</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -57712,7 +57704,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>-38.49505433431028,174.63631378626184</t>
+          <t>-38.49505322806122,174.63630990650134</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -57742,7 +57734,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>-38.49084819970531,174.6370220150336</t>
+          <t>-38.49084818075858,174.637024078384</t>
         </is>
       </c>
       <c r="J286" t="inlineStr"/>
@@ -57833,11 +57825,7 @@
           <t>-38.49571643650171,174.63601170921694</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>-38.49517645110646,174.63674206942113</t>
-        </is>
-      </c>
+      <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr"/>
@@ -58010,7 +57998,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>-38.49084693756419,174.63715945709163</t>
+          <t>-38.490846917562315,174.63716163507243</t>
         </is>
       </c>
       <c r="J290" t="inlineStr"/>
@@ -58095,7 +58083,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>-38.494981505967,174.63605836893845</t>
+          <t>-38.49497840229919,174.63604748407622</t>
         </is>
       </c>
       <c r="D291" t="inlineStr"/>
@@ -58182,7 +58170,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>-38.495067947308726,174.63636152887997</t>
+          <t>-38.49507151188291,174.63637403033593</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -58301,7 +58289,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>-38.49505141504165,174.63630354800515</t>
+          <t>-38.49504969420919,174.63629751282264</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -58420,7 +58408,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>-38.495050339521406,174.63629977601602</t>
+          <t>-38.49505083118781,174.6363015003539</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -58539,7 +58527,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>-38.4950712045921,174.63637295262416</t>
+          <t>-38.49507141969566,174.6363737070224</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -58569,7 +58557,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>-38.4908431996704,174.6375663955666</t>
+          <t>-38.49084320282979,174.63756605167498</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -58713,7 +58701,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>-38.495048280668,174.63629255535145</t>
+          <t>-38.49505141504165,174.63630354800515</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -58743,7 +58731,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>-38.490844156916424,174.63746219639975</t>
+          <t>-38.49084421377962,174.63745600635002</t>
         </is>
       </c>
       <c r="J297" t="inlineStr"/>
@@ -58820,7 +58808,7 @@
       <c r="B298" t="inlineStr"/>
       <c r="C298" t="inlineStr">
         <is>
-          <t>-38.49514504628567,174.63663192701566</t>
+          <t>-38.49514624471031,174.63663613009987</t>
         </is>
       </c>
       <c r="D298" t="inlineStr"/>
@@ -58879,7 +58867,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>-38.49510949295074,174.63650723557816</t>
+          <t>-38.49510795650279,174.63650184701396</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -58909,7 +58897,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>-38.49084681755238,174.6371725249765</t>
+          <t>-38.49084678912832,174.63717562000184</t>
         </is>
       </c>
       <c r="J299" t="inlineStr"/>
@@ -59002,7 +58990,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>-38.495059312429404,174.63633124518566</t>
+          <t>-38.49505965044973,174.63633243066823</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -59032,7 +59020,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>-38.49084837232926,174.63700321561868</t>
+          <t>-38.4908483786447,174.6370025278352</t>
         </is>
       </c>
       <c r="J300" t="inlineStr"/>
@@ -59121,7 +59109,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>-38.495079378524586,174.63640161976008</t>
+          <t>-38.49508211341016,174.63641121139722</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -59151,7 +59139,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>-38.49084616483108,174.63724359592757</t>
+          <t>-38.49084621431307,174.63723820829105</t>
         </is>
       </c>
       <c r="J301" t="inlineStr"/>
@@ -59254,7 +59242,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>-38.49084767234151,174.63707944495238</t>
+          <t>-38.49084769655244,174.63707680844917</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -59323,7 +59311,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>-38.49504938691765,174.6362964351115</t>
+          <t>-38.49505402701889,174.63631270855058</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -59353,7 +59341,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>-38.49084585319409,174.6372775265742</t>
+          <t>-38.490845938474116,174.63726824149867</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -59450,7 +59438,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>-38.495115239263846,174.63652738881024</t>
+          <t>-38.49511772830747,174.63653611828607</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -59480,7 +59468,7 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>-38.490845161451205,174.63735283885174</t>
+          <t>-38.49084520672657,174.6373479097378</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -59577,7 +59565,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>-38.495102271643134,174.63648190932832</t>
+          <t>-38.49510328569944,174.63648546578014</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -59607,7 +59595,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>-38.49084595742512,174.63726617814854</t>
+          <t>-38.49084597532327,174.63726422942898</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -59704,7 +59692,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>-38.49512866779991,174.63657448487805</t>
+          <t>-38.495129251648876,174.63657653253355</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -59734,7 +59722,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>-38.49084725548315,174.63712483865933</t>
+          <t>-38.490847266010086,174.6371236923536</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -59831,7 +59819,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>-38.49512617875923,174.63656575539966</t>
+          <t>-38.495124335024954,174.63655928911976</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -59861,7 +59849,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>-38.49084752181136,174.63709583712446</t>
+          <t>-38.490847488125965,174.63709950530279</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -59958,7 +59946,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>-38.495068930639675,174.63636497755735</t>
+          <t>-38.4950742467708,174.636383621971</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -59988,7 +59976,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>-38.49084574159197,174.63728967741372</t>
+          <t>-38.490845837401416,174.63727924603262</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -60085,7 +60073,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>-38.4951310339244,174.63658278327162</t>
+          <t>-38.49512992768445,174.63657890350314</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -60115,7 +60103,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>-38.49084661542394,174.6371945340455</t>
+          <t>-38.49084659542142,174.63719671202628</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -60204,7 +60192,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>-38.49513699532629,174.63660369091485</t>
+          <t>-38.495135458882864,174.63659830234667</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -60234,7 +60222,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>-38.49084772918447,174.63707325490134</t>
+          <t>-38.49084770181568,174.6370762352963</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -60323,7 +60311,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>-38.49507956289891,174.63640226638728</t>
+          <t>-38.495083803507576,174.63641713881373</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -60428,7 +60416,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>-38.49084699125321,174.63715361093256</t>
+          <t>-38.49084700809676,174.63715177684344</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -60507,7 +60495,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>-38.49084556155193,174.63730927923953</t>
+          <t>-38.490845562604804,174.637309164609</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -60592,7 +60580,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>-38.495121169946934,174.63654818867334</t>
+          <t>-38.49511883454887,174.63653999805328</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -60622,7 +60610,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>-38.49084479081713,174.63739318880735</t>
+          <t>-38.49084474764579,174.63739788866008</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -60707,7 +60695,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>-38.49504680566827,174.6362873823383</t>
+          <t>-38.49504468535575,174.6362799461322</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -60737,7 +60725,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>-38.49084741338612,174.63710764407347</t>
+          <t>-38.490847375489636,174.6371117707741</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -60834,7 +60822,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>-38.49504379420977,174.63627682077038</t>
+          <t>-38.49504898743862,174.63629503408703</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -60864,7 +60852,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>-38.490846917562315,174.63716163507243</t>
+          <t>-38.49084701230764,174.63715131832117</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -60961,7 +60949,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>-38.49509873780972,174.63646951563337</t>
+          <t>-38.49509935238953,174.6364716710585</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -60991,7 +60979,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>-38.49084855863343,174.63698292600597</t>
+          <t>-38.49084856915897,174.6369817797002</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -61084,7 +61072,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>-38.495120463181784,174.63654570993302</t>
+          <t>-38.4951176668496,174.63653590274345</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -61114,7 +61102,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>-38.490848450219566,174.63699473295577</t>
+          <t>-38.49084839864362,174.63700034985416</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -61211,7 +61199,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>-38.4950759983278,174.63638976492868</t>
+          <t>-38.49508033112526,174.6364049606673</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -61241,7 +61229,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>-38.49084596584778,174.63726526110406</t>
+          <t>-38.4908460448099,174.63725666381183</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -61334,7 +61322,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>-38.495134721389924,174.63659571583403</t>
+          <t>-38.49513361515043,174.63659183606518</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -61364,7 +61352,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>-38.49084769234185,174.63707726697146</t>
+          <t>-38.49084767234151,174.63707944495238</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -61461,7 +61449,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>-38.495123843362414,174.6365575647785</t>
+          <t>-38.495123536073315,174.63655648706523</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -61491,7 +61479,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>-38.49084731969732,174.63711784619443</t>
+          <t>-38.49084731443388,174.63711841934727</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -61588,7 +61576,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>-38.49511228928536,174.63651704276558</t>
+          <t>-38.49511496270341,174.63652641886853</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -61618,7 +61606,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>-38.490846771231645,174.63717756872148</t>
+          <t>-38.49084681965786,174.63717229571535</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -61715,7 +61703,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>-38.495144769726096,174.63663095707315</t>
+          <t>-38.49514516920102,174.63663235810122</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -61745,7 +61733,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>-38.490846777548136,174.63717688093809</t>
+          <t>-38.49084678491733,174.6371760785241</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -61838,7 +61826,7 @@
       <c r="B324" t="inlineStr"/>
       <c r="C324" t="inlineStr">
         <is>
-          <t>-38.4952465738172,174.63698800416702</t>
+          <t>-38.495244545735694,174.63698089123628</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -61917,7 +61905,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>-38.49509314513148,174.6364499012664</t>
+          <t>-38.495097170630984,174.63646401929947</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -61947,7 +61935,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>-38.49084474764579,174.63739788866008</t>
+          <t>-38.49084482029989,174.6373899791518</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -62044,7 +62032,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>-38.495057069203206,174.63632337789252</t>
+          <t>-38.495062200966444,174.63634137567337</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -62074,7 +62062,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>-38.49084440016221,174.63743571674252</t>
+          <t>-38.49084449387868,174.6374255146234</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -62159,7 +62147,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>-38.495132140164216,174.6365866630402</t>
+          <t>-38.49513078809331,174.63658192110083</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -62185,7 +62173,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>-38.490845978481765,174.6372638855373</t>
+          <t>-38.490845954266625,174.63726652204025</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -62282,7 +62270,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>-38.49510598984903,174.63649494965208</t>
+          <t>-38.4951064815125,174.63649667399253</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -62397,7 +62385,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>-38.49507237229717,174.6363770479289</t>
+          <t>-38.49507286396243,174.63637877226776</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -62512,7 +62500,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>-38.49506081815627,174.6363365259717</t>
+          <t>-38.49506490512797,174.63635085953493</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -62623,7 +62611,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>-38.495083373300986,174.63641563001678</t>
+          <t>-38.49508119153871,174.63640797826102</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -62649,7 +62637,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>-38.4908470691544,174.6371451282704</t>
+          <t>-38.490847029151155,174.63714948423205</t>
         </is>
       </c>
       <c r="J331" t="inlineStr"/>
@@ -62734,7 +62722,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>-38.49505651607887,174.63632143801215</t>
+          <t>-38.49506072596891,174.63633620265827</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -62853,7 +62841,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>-38.49510703463389,174.63649861387555</t>
+          <t>-38.495109308577,174.63650658895043</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -62883,7 +62871,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>-38.49084414638617,174.63746334270525</t>
+          <t>-38.49084418850713,174.63745875748324</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -62972,7 +62960,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>-38.49510067373602,174.63647630522263</t>
+          <t>-38.49510291695171,174.63648417252492</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -63002,7 +62990,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>-38.490843749387366,174.63750655842205</t>
+          <t>-38.490843790456964,174.63750208783068</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -63095,7 +63083,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>-38.49507071292676,174.63637122828533</t>
+          <t>-38.49507461551967,174.63638491522522</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -63125,7 +63113,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>-38.49084324390164,174.6375615810838</t>
+          <t>-38.49084331551367,174.6375537862068</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -63218,7 +63206,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>-38.49505135358335,174.63630333246292</t>
+          <t>-38.495056393162336,174.6363210069276</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -63248,7 +63236,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>-38.490843378700355,174.63754690837413</t>
+          <t>-38.49084347032032,174.63753693551675</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -63341,7 +63329,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>-38.49509342169256,174.63645087120753</t>
+          <t>-38.4950917623259,174.6364450515607</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -63371,7 +63359,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>-38.490843513497225,174.6375322356644</t>
+          <t>-38.490843484010576,174.63753544531966</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
